--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="93">
   <si>
     <t>Story01Start</t>
   </si>
@@ -40,80 +39,163 @@
     <t>리타</t>
   </si>
   <si>
-    <t>너라면 현장에 누구보다 먼저 도착할 수 있을 테고.</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
     <t>연구소장</t>
   </si>
   <si>
+    <t>Story01Boss1</t>
+  </si>
+  <si>
+    <t>Story01Boss0</t>
+  </si>
+  <si>
+    <t>살림</t>
+  </si>
+  <si>
+    <t>Stage1Debug</t>
+  </si>
+  <si>
+    <t>스테이지1 디버그 시작</t>
+  </si>
+  <si>
+    <t>Stage2Debug</t>
+  </si>
+  <si>
+    <t>스테이지2 디버그 시작</t>
+  </si>
+  <si>
+    <t>Stage3Debug</t>
+  </si>
+  <si>
+    <t>스테이지3 디버그 시작</t>
+  </si>
+  <si>
+    <t>Stage4Debug</t>
+  </si>
+  <si>
+    <t>스테이지4 디버그 시작</t>
+  </si>
+  <si>
+    <t>리타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story01Mid01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트를 활용하면 아니마의 공격쯤 쉽게 피할 수 있을 거야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 지점이나 텔레포트를 해 봐.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_player_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대하고 있을게. 미나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story01Mid03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이나</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>show portrait_fire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>right</t>
-  </si>
-  <si>
-    <t>노아</t>
-  </si>
-  <si>
-    <t>아….. 당신이군요. 미나 선배.</t>
-  </si>
-  <si>
-    <t>Story01Boss1</t>
-  </si>
-  <si>
-    <t>쥬김</t>
-  </si>
-  <si>
-    <t>Story01Boss0</t>
-  </si>
-  <si>
-    <t>살림</t>
-  </si>
-  <si>
-    <t>Stage1Debug</t>
-  </si>
-  <si>
-    <t>스테이지1 디버그 시작</t>
-  </si>
-  <si>
-    <t>Stage2Debug</t>
-  </si>
-  <si>
-    <t>스테이지2 디버그 시작</t>
-  </si>
-  <si>
-    <t>Stage3Debug</t>
-  </si>
-  <si>
-    <t>스테이지3 디버그 시작</t>
-  </si>
-  <si>
-    <t>Stage4Debug</t>
-  </si>
-  <si>
-    <t>스테이지4 디버그 시작</t>
-  </si>
-  <si>
-    <t>저 불꽃들.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니마들이 다시 나타났다는 게 정말이었군요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서 널 부른 거야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>리타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_fire_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아.;잘했어.</t>
+  </si>
+  <si>
+    <t>잊지 마. 미나.;너는 시선이 닿는 곳이라면 어디로든 텔레포트 할 수 있어.</t>
+  </si>
+  <si>
+    <t>네.;해볼게요.</t>
+  </si>
+  <si>
+    <t>좋아.;시작하기 전에 체크를 좀 해보자.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자. 지금부터 아니마의 영역이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 불꽃들은….;아니마들이 다시 나타났다는 게 정말이었군요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래;…또 노래가 시작됐어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 널 부른 거라고.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력이 없는 인간은 금세 아니마에 잡아먹힐 테니까.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…이번엔 누구죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쎄….;아직 신원은 확인되지 않았어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에도 진공 고등학교 학생이란 것만 알고 있을 뿐.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>또…. 저와 같은 학교 학생이란 말이군요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇네.;이유가 궁금하긴 하지만 이렇게 길게 이야기할 시간 없어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작해보자고.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -121,39 +203,78 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Story01Mid01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story01Mid02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔레포트를 활용하면 아니마의 공격쯤 쉽게 피할 수 있을 거야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 지점이나 텔레포트를 해 봐.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니마를 공격해 봐.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘했어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show portrait_player_gray</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제부터는 실전이야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대하고 있을게. 미나.</t>
+    <t>route</t>
+  </si>
+  <si>
+    <t>RouteStory1</t>
+  </si>
+  <si>
+    <t>루트스토리1 이란 이름을 정의함</t>
+  </si>
+  <si>
+    <t>endline</t>
+  </si>
+  <si>
+    <t>select1</t>
+  </si>
+  <si>
+    <t>choice1</t>
+  </si>
+  <si>
+    <t>6이다</t>
+  </si>
+  <si>
+    <t>틀렸어.</t>
+  </si>
+  <si>
+    <t>다시 한 번 생각해 봐.</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>루트스토리1 로 보냄</t>
+  </si>
+  <si>
+    <t>choice2</t>
+  </si>
+  <si>
+    <t>7이다</t>
+  </si>
+  <si>
+    <t>맞아.</t>
+  </si>
+  <si>
+    <t>계산 정돈 할 줄 아는군.</t>
+  </si>
+  <si>
+    <t>RouteStory2</t>
+  </si>
+  <si>
+    <t>루트스토리2 로 보냄</t>
+  </si>
+  <si>
+    <t>루트스토리2 이란 이름을 정의함</t>
+  </si>
+  <si>
+    <t>이제 됐어.</t>
+  </si>
+  <si>
+    <t>그만 가 봐.</t>
+  </si>
+  <si>
+    <t>스테이지 1 시작</t>
+  </si>
+  <si>
+    <t>화염과 불길의 춤. ♬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 안의 불길은 모든 거짓을 태우고. ♪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 말은…. 너도 능력자란 말이구나.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -161,122 +282,67 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Story01Mid03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이나</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show portrait_fire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">…화염과 불길. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너는…. 미나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 모든 게 결국 내 안에 있었던 거야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show portrait_fire_gray</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르는 척 해도 소용 없어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 모두가 실험실의 쥐에 불과하다는 걸 말야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>선배님은 지금 불안정해요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아.;잘했어.</t>
-  </si>
-  <si>
-    <t>잊지 마. 미나.;너는 시선이 닿는 곳이라면 어디로든 텔레포트 할 수 있어.</t>
-  </si>
-  <si>
-    <t>네.;해볼게요.</t>
-  </si>
-  <si>
-    <t>…선배?;레이나 선배죠?</t>
-  </si>
-  <si>
-    <t>드디어 찾았다.;노아.</t>
-  </si>
-  <si>
-    <t>능력을 각성한 직후엔 누구나….;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 모두 들었으니까.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>선배….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력이 없는 인간은 그 안에 들어설 수 없으니까.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아.;시작하기 전에 체크를 좀 해보자.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자. 지금부터 아니마의 영역이야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너도 이 안에서 움직일 수 있나 보네.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력이 있으면 아니마의 영역에서도 움직일 수 있어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력….그랬구나.;너도 모든 걸 알고 있었던 거야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 말씀인지 모르겠어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>거짓말! 거짓말!;거짓말!!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>거짓은 모두….; 태워버려야 해.</t>
+    <t>…모르는 척 해도 소용 없어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래를 멈추세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?;너는?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은?;…레이나 선배?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는…. 미나?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마의 영역 안에서 움직일 수 있나 보네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 노래를 멈추세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배님은 지금 불안정한 상태에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…너도 모든 걸 알고 있었던 거야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 모두가 실험실의 생쥐에 불과하다는 걸 말야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 무슨 말이죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 모두 들었으니까.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 척 할 셈이구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…어쩔 수 없네요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓말….;모든 건 거짓말인거야….</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -661,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -675,7 +741,7 @@
     <col min="4" max="4" width="64.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" thickBot="1">
+    <row r="2" spans="1:14" ht="17.25" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -698,34 +764,73 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" thickBot="1">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -734,10 +839,22 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" thickBot="1">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -746,10 +863,25 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" thickBot="1">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -760,8 +892,20 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1">
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -770,22 +914,46 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" thickBot="1">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1">
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -794,10 +962,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" thickBot="1">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -806,46 +989,94 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" thickBot="1">
+      <c r="L13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -854,55 +1085,67 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" thickBot="1">
@@ -914,43 +1157,43 @@
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" thickBot="1">
@@ -959,127 +1202,127 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" thickBot="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>45</v>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickBot="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>48</v>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" thickBot="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -1087,14 +1330,14 @@
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>46</v>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" thickBot="1">
@@ -1103,166 +1346,168 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>68</v>
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>46</v>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>52</v>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25" thickBot="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25" thickBot="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>46</v>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17.25" thickBot="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>46</v>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" thickBot="1">
@@ -1271,242 +1516,262 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" thickBot="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" thickBot="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
-        <v>1</v>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17.25" thickBot="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" thickBot="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>55</v>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" thickBot="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>46</v>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25" thickBot="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>72</v>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" thickBot="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" thickBot="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>46</v>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" thickBot="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" thickBot="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" thickBot="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" thickBot="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" thickBot="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" thickBot="1">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" thickBot="1">
@@ -1515,10 +1780,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17.25" thickBot="1">
@@ -1527,239 +1792,364 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25" thickBot="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>13</v>
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>3</v>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25" thickBot="1">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="17.25" thickBot="1">
       <c r="A77" s="2"/>
-      <c r="B77" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" ht="17.25" thickBot="1">
       <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" ht="17.25" thickBot="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A81" s="1" t="s">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="H90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A98" s="2"/>
+      <c r="B98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="D109" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="2"/>
+    <row r="111" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Psy2050\IndiePunk-PSY2050\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="22635" windowHeight="8070"/>
   </bookViews>
@@ -11,12 +16,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="123">
   <si>
     <t>Story01Start</t>
   </si>
@@ -45,40 +51,354 @@
     <t>연구소장</t>
   </si>
   <si>
+    <t>Story01Boss0</t>
+  </si>
+  <si>
+    <t>Stage1Debug</t>
+  </si>
+  <si>
+    <t>스테이지1 디버그 시작</t>
+  </si>
+  <si>
+    <t>Stage2Debug</t>
+  </si>
+  <si>
+    <t>스테이지2 디버그 시작</t>
+  </si>
+  <si>
+    <t>Stage3Debug</t>
+  </si>
+  <si>
+    <t>스테이지3 디버그 시작</t>
+  </si>
+  <si>
+    <t>Stage4Debug</t>
+  </si>
+  <si>
+    <t>스테이지4 디버그 시작</t>
+  </si>
+  <si>
+    <t>Story01Mid01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_player_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이나</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_fire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_fire_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쎄….;아직 신원은 확인되지 않았어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에도 진공 고등학교 학생이란 것만 알고 있을 뿐.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>RouteStory1</t>
+  </si>
+  <si>
+    <t>루트스토리1 이란 이름을 정의함</t>
+  </si>
+  <si>
+    <t>endline</t>
+  </si>
+  <si>
+    <t>select1</t>
+  </si>
+  <si>
+    <t>choice1</t>
+  </si>
+  <si>
+    <t>6이다</t>
+  </si>
+  <si>
+    <t>RouteStory2</t>
+  </si>
+  <si>
+    <t>루트스토리2 이란 이름을 정의함</t>
+  </si>
+  <si>
+    <t>이제 됐어.</t>
+  </si>
+  <si>
+    <t>그만 가 봐.</t>
+  </si>
+  <si>
+    <t>스테이지 1 시작</t>
+  </si>
+  <si>
+    <t>미나</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?;너는?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배님은 지금 불안정한 상태에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 무슨 말이죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃의 아니마.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심에 아니마가 나타났다는 게 정말이었군요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…절 무슨 골칫덩어리처럼 말하지 마세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래.;일반인들은 모두 대피했어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘껏 날뛰어도 돼.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하.;농담이야. 농담.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…이번에 폭주를 일으킨 건 누구죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>또…. 저랑 같은 학교의 학생이란 말이군요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래.;누군지는 현장에서 확인해보자고.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자. 시작할게.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러고보니 네 능력은 활용하고 있어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아…. 역시나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잊지 마. 미나.;너는 순간이동 능력자야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시선이 닿는 곳이라면 어디로든 텔레포트 할 수 있다고.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 알고 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story01Mid02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…레이나 선배?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안다면 활용도 할 줄 알아야지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>으….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는…. 미나구나.;학생회에서 본 기억이 있어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마의 영역까지 들어왔다는 건….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 능력자란 말이구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생회장 레이나 선배죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음을 가라앉히세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…후후후. 미나야.;이름으로 불러도 되겠지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고온의 불꽃으로도 태울 수 없는 게 뭔지 아니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…바로 기억이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 어떤 열기로도….;기억만큼은 불태울 수가 없어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 되면;…어쩔 수 없네요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 공격하지 않지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄인은 벌을 받아야 해.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄인?;선배가 말인가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래.;나는 죄인이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억을 떨치려고 끊임없이 달려왔는데.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그날의 기억이 자꾸 떠올라.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느샌가 턱밑까지 차올랐어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃의 기억….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카이나….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안해….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 안돼요!;선배!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Story01Boss1</t>
-  </si>
-  <si>
-    <t>Story01Boss0</t>
-  </si>
-  <si>
-    <t>살림</t>
-  </si>
-  <si>
-    <t>Stage1Debug</t>
-  </si>
-  <si>
-    <t>스테이지1 디버그 시작</t>
-  </si>
-  <si>
-    <t>Stage2Debug</t>
-  </si>
-  <si>
-    <t>스테이지2 디버그 시작</t>
-  </si>
-  <si>
-    <t>Stage3Debug</t>
-  </si>
-  <si>
-    <t>스테이지3 디버그 시작</t>
-  </si>
-  <si>
-    <t>Stage4Debug</t>
-  </si>
-  <si>
-    <t>스테이지4 디버그 시작</t>
-  </si>
-  <si>
-    <t>리타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워. 미나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…왜 우리가 이렇게까지 싸워야 하는 거죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄인은 벌을 받아야지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 기억이 나를 쫓아왔어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story01End</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나?;들려?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리타 씨…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결한 모양이네.;아니마들이 물러가고 있어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그, 그보다 레이나 선배가….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이나?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아. 그게 폭주한 능력자의 신원이구나.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -86,23 +406,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Story01Mid01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔레포트를 활용하면 아니마의 공격쯤 쉽게 피할 수 있을 거야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 지점이나 텔레포트를 해 봐.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show portrait_player_gray</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대하고 있을게. 미나.</t>
+    <t>(사운드)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽었나….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아깝네….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어, 어째서.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래. 나는 죄인이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃의 기억.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_time_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_player</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -110,239 +462,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Story01Mid03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이나</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show portrait_fire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show portrait_fire_gray</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아.;잘했어.</t>
-  </si>
-  <si>
-    <t>잊지 마. 미나.;너는 시선이 닿는 곳이라면 어디로든 텔레포트 할 수 있어.</t>
-  </si>
-  <si>
-    <t>네.;해볼게요.</t>
-  </si>
-  <si>
-    <t>좋아.;시작하기 전에 체크를 좀 해보자.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자. 지금부터 아니마의 영역이야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 불꽃들은….;아니마들이 다시 나타났다는 게 정말이었군요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래;…또 노래가 시작됐어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서 널 부른 거라고.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력이 없는 인간은 금세 아니마에 잡아먹힐 테니까.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…이번엔 누구죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쎄….;아직 신원은 확인되지 않았어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에도 진공 고등학교 학생이란 것만 알고 있을 뿐.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>또…. 저와 같은 학교 학생이란 말이군요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇네.;이유가 궁금하긴 하지만 이렇게 길게 이야기할 시간 없어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작해보자고.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…네.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>RouteStory1</t>
-  </si>
-  <si>
-    <t>루트스토리1 이란 이름을 정의함</t>
-  </si>
-  <si>
-    <t>endline</t>
-  </si>
-  <si>
-    <t>select1</t>
-  </si>
-  <si>
-    <t>choice1</t>
-  </si>
-  <si>
-    <t>6이다</t>
-  </si>
-  <si>
-    <t>틀렸어.</t>
-  </si>
-  <si>
-    <t>다시 한 번 생각해 봐.</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>루트스토리1 로 보냄</t>
-  </si>
-  <si>
-    <t>choice2</t>
-  </si>
-  <si>
-    <t>7이다</t>
-  </si>
-  <si>
-    <t>맞아.</t>
-  </si>
-  <si>
-    <t>계산 정돈 할 줄 아는군.</t>
-  </si>
-  <si>
-    <t>RouteStory2</t>
-  </si>
-  <si>
-    <t>루트스토리2 로 보냄</t>
-  </si>
-  <si>
-    <t>루트스토리2 이란 이름을 정의함</t>
-  </si>
-  <si>
-    <t>이제 됐어.</t>
-  </si>
-  <si>
-    <t>그만 가 봐.</t>
-  </si>
-  <si>
-    <t>스테이지 1 시작</t>
-  </si>
-  <si>
-    <t>화염과 불길의 춤. ♬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 안의 불길은 모든 거짓을 태우고. ♪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 말은…. 너도 능력자란 말이구나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미나</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…모르는 척 해도 소용 없어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>노래를 멈추세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>?;너는?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은?;…레이나 선배?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너는…. 미나?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니마의 영역 안에서 움직일 수 있나 보네.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서 노래를 멈추세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>선배님은 지금 불안정한 상태에요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…너도 모든 걸 알고 있었던 거야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 모두가 실험실의 생쥐에 불과하다는 걸 말야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그게 무슨 말이죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>난 모두 들었으니까.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르는 척 할 셈이구나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…어쩔 수 없네요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>거짓말….;모든 건 거짓말인거야….</t>
+    <t>당신은?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔 수 없지….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_time_sui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일이야? 미나?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +564,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,6 +578,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -483,7 +629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +664,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -764,70 +910,46 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.25" thickBot="1">
@@ -839,19 +961,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17.25" thickBot="1">
@@ -863,22 +973,19 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1">
@@ -892,18 +999,6 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="8" spans="1:14" ht="17.25" thickBot="1">
       <c r="A8" s="2"/>
@@ -914,19 +1009,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" thickBot="1">
@@ -935,22 +1018,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1">
@@ -962,118 +1033,55 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
         <v>52</v>
-      </c>
-      <c r="L12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1">
@@ -1085,70 +1093,109 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1">
+        <v>53</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" thickBot="1">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1157,58 +1204,58 @@
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" thickBot="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.25" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A24" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1217,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.25" thickBot="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1231,8 +1278,23 @@
       <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" thickBot="1">
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1241,22 +1303,34 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" thickBot="1">
+    <row r="29" spans="1:14" ht="17.25" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1265,103 +1339,103 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17.25" thickBot="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17.25" thickBot="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17.25" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17.25" thickBot="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>73</v>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" thickBot="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>74</v>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" thickBot="1">
@@ -1370,84 +1444,82 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>78</v>
+      <c r="A39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>31</v>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25" thickBot="1">
@@ -1456,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25" thickBot="1">
@@ -1468,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -1480,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" thickBot="1">
@@ -1492,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17.25" thickBot="1">
@@ -1504,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" thickBot="1">
@@ -1516,10 +1588,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" thickBot="1">
@@ -1528,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -1543,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" thickBot="1">
@@ -1552,10 +1624,10 @@
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17.25" thickBot="1">
@@ -1564,10 +1636,10 @@
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" thickBot="1">
@@ -1576,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -1588,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25" thickBot="1">
@@ -1600,10 +1672,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" thickBot="1">
@@ -1612,10 +1684,10 @@
         <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" thickBot="1">
@@ -1624,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>3</v>
@@ -1639,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" thickBot="1">
@@ -1648,10 +1720,10 @@
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" thickBot="1">
@@ -1660,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
@@ -1672,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" thickBot="1">
@@ -1684,10 +1756,10 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" thickBot="1">
@@ -1696,10 +1768,10 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" thickBot="1">
@@ -1708,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>3</v>
@@ -1723,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" thickBot="1">
@@ -1732,46 +1804,46 @@
         <v>4</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>31</v>
+      <c r="A70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" thickBot="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>90</v>
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" thickBot="1">
@@ -1780,221 +1852,322 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17.25" thickBot="1">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25" thickBot="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>31</v>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25" thickBot="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25" thickBot="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" s="1"/>
+      <c r="B76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="17.25" thickBot="1">
       <c r="A77" s="2"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="17.25" thickBot="1">
       <c r="A78" s="2"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="17.25" thickBot="1">
       <c r="A79" s="2"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="17.25" thickBot="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" thickBot="1">
       <c r="A81" s="2"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" thickBot="1">
       <c r="A83" s="2"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17.25" thickBot="1">
       <c r="A84" s="2"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17.25" thickBot="1">
       <c r="A85" s="2"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17.25" thickBot="1">
       <c r="A86" s="2"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17.25" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" ht="17.25" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" thickBot="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" thickBot="1">
       <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="H90" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" thickBot="1">
       <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17.25" thickBot="1">
       <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17.25" thickBot="1">
       <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17.25" thickBot="1">
       <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A95" s="2"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17.25" thickBot="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A97" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17.25" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17.25" thickBot="1">
@@ -2003,34 +2176,34 @@
         <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A100" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17.25" thickBot="1">
       <c r="A101" s="2"/>
-      <c r="B101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>13</v>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17.25" thickBot="1">
@@ -2039,34 +2212,34 @@
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>3</v>
+      <c r="A103" s="2"/>
+      <c r="B103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" thickBot="1">
       <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>15</v>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17.25" thickBot="1">
@@ -2075,34 +2248,34 @@
         <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A106" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17.25" thickBot="1">
       <c r="A107" s="2"/>
-      <c r="B107" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>17</v>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.25" thickBot="1">
@@ -2111,45 +2284,653 @@
         <v>1</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>3</v>
+      <c r="A109" s="2"/>
+      <c r="B109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" thickBot="1">
       <c r="A110" s="2"/>
-      <c r="B110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>5</v>
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17.25" thickBot="1">
       <c r="A111" s="2"/>
-      <c r="B111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="B111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A139" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A151" s="1"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A152" s="2"/>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Psy2050\IndiePunk-PSY2050\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="22635" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="22632" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -629,7 +623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,7 +658,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,18 +870,18 @@
   <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.125" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1">
+    <row r="1" spans="1:14" ht="18" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.25" thickBot="1">
+    <row r="2" spans="1:14" ht="18" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -928,7 +922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.25" thickBot="1">
+    <row r="3" spans="1:14" ht="18" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -940,7 +934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1">
+    <row r="4" spans="1:14" ht="18" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -952,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickBot="1">
+    <row r="5" spans="1:14" ht="18" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -964,7 +958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17.25" thickBot="1">
+    <row r="6" spans="1:14" ht="18" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -988,7 +982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17.25" thickBot="1">
+    <row r="7" spans="1:14" ht="18" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1000,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.25" thickBot="1">
+    <row r="8" spans="1:14" ht="18" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -1012,7 +1006,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.25" thickBot="1">
+    <row r="9" spans="1:14" ht="18" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1024,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.25" thickBot="1">
+    <row r="10" spans="1:14" ht="18" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1036,7 +1030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.25" thickBot="1">
+    <row r="11" spans="1:14" ht="18" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -1048,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.25" thickBot="1">
+    <row r="12" spans="1:14" ht="18" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -1060,7 +1054,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1">
+    <row r="13" spans="1:14" ht="18" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1072,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17.25" thickBot="1">
+    <row r="14" spans="1:14" ht="18" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -1084,7 +1078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17.25" thickBot="1">
+    <row r="15" spans="1:14" ht="18" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1096,7 +1090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17.25" thickBot="1">
+    <row r="16" spans="1:14" ht="18" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -1123,7 +1117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.25" thickBot="1">
+    <row r="17" spans="1:14" ht="18" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1147,7 +1141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.25" thickBot="1">
+    <row r="18" spans="1:14" ht="18" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1171,7 +1165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.25" thickBot="1">
+    <row r="19" spans="1:14" ht="18" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1195,7 +1189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17.25" thickBot="1">
+    <row r="20" spans="1:14" ht="18" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1207,7 +1201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17.25" thickBot="1">
+    <row r="21" spans="1:14" ht="18" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1219,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17.25" thickBot="1">
+    <row r="22" spans="1:14" ht="18" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1231,7 +1225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17.25" thickBot="1">
+    <row r="23" spans="1:14" ht="18" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1241,7 +1235,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25" thickBot="1">
+    <row r="24" spans="1:14" ht="18" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17.25" thickBot="1">
+    <row r="25" spans="1:14" ht="18" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1267,7 +1261,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17.25" thickBot="1">
+    <row r="26" spans="1:14" ht="18" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1294,7 +1288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17.25" thickBot="1">
+    <row r="27" spans="1:14" ht="18" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1318,7 +1312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.25" thickBot="1">
+    <row r="28" spans="1:14" ht="18" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -1330,7 +1324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17.25" thickBot="1">
+    <row r="29" spans="1:14" ht="18" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1342,7 +1336,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="17.25" thickBot="1">
+    <row r="30" spans="1:14" ht="18" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1354,7 +1348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17.25" thickBot="1">
+    <row r="31" spans="1:14" ht="18" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -1366,7 +1360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17.25" thickBot="1">
+    <row r="32" spans="1:14" ht="18" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -1378,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" thickBot="1">
+    <row r="33" spans="1:4" ht="18" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -1390,7 +1384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1">
+    <row r="34" spans="1:4" ht="18" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -1402,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" thickBot="1">
+    <row r="35" spans="1:4" ht="18" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1414,7 +1408,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" thickBot="1">
+    <row r="36" spans="1:4" ht="18" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -1426,7 +1420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" thickBot="1">
+    <row r="37" spans="1:4" ht="18" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1438,7 +1432,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" thickBot="1">
+    <row r="38" spans="1:4" ht="18" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -1448,7 +1442,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="17.25" thickBot="1">
+    <row r="39" spans="1:4" ht="18" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -1462,7 +1456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" thickBot="1">
+    <row r="40" spans="1:4" ht="18" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -1474,7 +1468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" thickBot="1">
+    <row r="41" spans="1:4" ht="18" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>4</v>
@@ -1486,7 +1480,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" thickBot="1">
+    <row r="42" spans="1:4" ht="18" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -1498,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" thickBot="1">
+    <row r="43" spans="1:4" ht="18" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -1510,7 +1504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" thickBot="1">
+    <row r="44" spans="1:4" ht="18" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -1522,7 +1516,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" thickBot="1">
+    <row r="45" spans="1:4" ht="18" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -1534,7 +1528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" thickBot="1">
+    <row r="46" spans="1:4" ht="18" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -1546,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" thickBot="1">
+    <row r="47" spans="1:4" ht="18" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>1</v>
@@ -1558,7 +1552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" thickBot="1">
+    <row r="48" spans="1:4" ht="18" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -1570,7 +1564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" thickBot="1">
+    <row r="49" spans="1:4" ht="18" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -1582,7 +1576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" thickBot="1">
+    <row r="50" spans="1:4" ht="18" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>4</v>
@@ -1594,7 +1588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" thickBot="1">
+    <row r="51" spans="1:4" ht="18" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -1606,7 +1600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" thickBot="1">
+    <row r="52" spans="1:4" ht="18" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>1</v>
@@ -1618,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" thickBot="1">
+    <row r="53" spans="1:4" ht="18" thickBot="1">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>4</v>
@@ -1630,7 +1624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" thickBot="1">
+    <row r="54" spans="1:4" ht="18" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>4</v>
@@ -1642,7 +1636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" thickBot="1">
+    <row r="55" spans="1:4" ht="18" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -1654,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" thickBot="1">
+    <row r="56" spans="1:4" ht="18" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>1</v>
@@ -1666,7 +1660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" thickBot="1">
+    <row r="57" spans="1:4" ht="18" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>4</v>
@@ -1678,7 +1672,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" thickBot="1">
+    <row r="58" spans="1:4" ht="18" thickBot="1">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>4</v>
@@ -1690,7 +1684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" thickBot="1">
+    <row r="59" spans="1:4" ht="18" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -1702,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" thickBot="1">
+    <row r="60" spans="1:4" ht="18" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>1</v>
@@ -1714,7 +1708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" thickBot="1">
+    <row r="61" spans="1:4" ht="18" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>4</v>
@@ -1726,7 +1720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" thickBot="1">
+    <row r="62" spans="1:4" ht="18" thickBot="1">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -1738,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" thickBot="1">
+    <row r="63" spans="1:4" ht="18" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>1</v>
@@ -1750,7 +1744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" thickBot="1">
+    <row r="64" spans="1:4" ht="18" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>4</v>
@@ -1762,7 +1756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" thickBot="1">
+    <row r="65" spans="1:4" ht="18" thickBot="1">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -1774,7 +1768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" thickBot="1">
+    <row r="66" spans="1:4" ht="18" thickBot="1">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -1786,7 +1780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" thickBot="1">
+    <row r="67" spans="1:4" ht="18" thickBot="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>1</v>
@@ -1798,7 +1792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" thickBot="1">
+    <row r="68" spans="1:4" ht="18" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>4</v>
@@ -1810,7 +1804,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" thickBot="1">
+    <row r="69" spans="1:4" ht="18" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>25</v>
@@ -1820,7 +1814,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="17.25" thickBot="1">
+    <row r="70" spans="1:4" ht="18" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +1828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" thickBot="1">
+    <row r="71" spans="1:4" ht="18" thickBot="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>1</v>
@@ -1846,7 +1840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" thickBot="1">
+    <row r="72" spans="1:4" ht="18" thickBot="1">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -1858,7 +1852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" thickBot="1">
+    <row r="73" spans="1:4" ht="18" thickBot="1">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>4</v>
@@ -1870,7 +1864,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" thickBot="1">
+    <row r="74" spans="1:4" ht="18" thickBot="1">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -1882,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" thickBot="1">
+    <row r="75" spans="1:4" ht="18" thickBot="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>1</v>
@@ -1894,7 +1888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" thickBot="1">
+    <row r="76" spans="1:4" ht="18" thickBot="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>4</v>
@@ -1906,7 +1900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" thickBot="1">
+    <row r="77" spans="1:4" ht="18" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -1918,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" thickBot="1">
+    <row r="78" spans="1:4" ht="18" thickBot="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>1</v>
@@ -1930,7 +1924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" thickBot="1">
+    <row r="79" spans="1:4" ht="18" thickBot="1">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -1942,7 +1936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" thickBot="1">
+    <row r="80" spans="1:4" ht="18" thickBot="1">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -1954,7 +1948,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" thickBot="1">
+    <row r="81" spans="1:4" ht="18" thickBot="1">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -1966,7 +1960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" thickBot="1">
+    <row r="82" spans="1:4" ht="18" thickBot="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>4</v>
@@ -1978,7 +1972,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" thickBot="1">
+    <row r="83" spans="1:4" ht="18" thickBot="1">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -1990,7 +1984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" thickBot="1">
+    <row r="84" spans="1:4" ht="18" thickBot="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>1</v>
@@ -2002,7 +1996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" thickBot="1">
+    <row r="85" spans="1:4" ht="18" thickBot="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>4</v>
@@ -2014,7 +2008,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" thickBot="1">
+    <row r="86" spans="1:4" ht="18" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -2026,7 +2020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" thickBot="1">
+    <row r="87" spans="1:4" ht="18" thickBot="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>1</v>
@@ -2038,7 +2032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" thickBot="1">
+    <row r="88" spans="1:4" ht="18" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>4</v>
@@ -2050,7 +2044,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" thickBot="1">
+    <row r="89" spans="1:4" ht="18" thickBot="1">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -2062,7 +2056,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" thickBot="1">
+    <row r="90" spans="1:4" ht="18" thickBot="1">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -2074,7 +2068,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" thickBot="1">
+    <row r="91" spans="1:4" ht="18" thickBot="1">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -2086,7 +2080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" thickBot="1">
+    <row r="92" spans="1:4" ht="18" thickBot="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>1</v>
@@ -2098,7 +2092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" thickBot="1">
+    <row r="93" spans="1:4" ht="18" thickBot="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>4</v>
@@ -2110,7 +2104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" thickBot="1">
+    <row r="94" spans="1:4" ht="18" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>1</v>
@@ -2120,7 +2114,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="17.25" thickBot="1">
+    <row r="95" spans="1:4" ht="18" thickBot="1">
       <c r="A95" s="1" t="s">
         <v>89</v>
       </c>
@@ -2134,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" thickBot="1">
+    <row r="96" spans="1:4" ht="18" thickBot="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>1</v>
@@ -2146,7 +2140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" thickBot="1">
+    <row r="97" spans="1:4" ht="18" thickBot="1">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>4</v>
@@ -2158,7 +2152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" thickBot="1">
+    <row r="98" spans="1:4" ht="18" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>1</v>
@@ -2170,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" thickBot="1">
+    <row r="99" spans="1:4" ht="18" thickBot="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>1</v>
@@ -2182,7 +2176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" thickBot="1">
+    <row r="100" spans="1:4" ht="18" thickBot="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>4</v>
@@ -2194,7 +2188,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" thickBot="1">
+    <row r="101" spans="1:4" ht="18" thickBot="1">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -2206,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" thickBot="1">
+    <row r="102" spans="1:4" ht="18" thickBot="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>1</v>
@@ -2218,7 +2212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" thickBot="1">
+    <row r="103" spans="1:4" ht="18" thickBot="1">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>4</v>
@@ -2230,7 +2224,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" thickBot="1">
+    <row r="104" spans="1:4" ht="18" thickBot="1">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>1</v>
@@ -2242,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" thickBot="1">
+    <row r="105" spans="1:4" ht="18" thickBot="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>1</v>
@@ -2254,7 +2248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" thickBot="1">
+    <row r="106" spans="1:4" ht="18" thickBot="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>4</v>
@@ -2266,7 +2260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" thickBot="1">
+    <row r="107" spans="1:4" ht="18" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -2278,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" thickBot="1">
+    <row r="108" spans="1:4" ht="18" thickBot="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>1</v>
@@ -2290,7 +2284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" thickBot="1">
+    <row r="109" spans="1:4" ht="18" thickBot="1">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>4</v>
@@ -2302,7 +2296,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" thickBot="1">
+    <row r="110" spans="1:4" ht="18" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>4</v>
@@ -2314,7 +2308,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" thickBot="1">
+    <row r="111" spans="1:4" ht="18" thickBot="1">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>4</v>
@@ -2326,7 +2320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" thickBot="1">
+    <row r="112" spans="1:4" ht="18" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>1</v>
@@ -2338,7 +2332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="17.25" thickBot="1">
+    <row r="113" spans="1:4" ht="18" thickBot="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>1</v>
@@ -2350,7 +2344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" thickBot="1">
+    <row r="114" spans="1:4" ht="18" thickBot="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>4</v>
@@ -2362,7 +2356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" thickBot="1">
+    <row r="115" spans="1:4" ht="18" thickBot="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>4</v>
@@ -2374,7 +2368,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" thickBot="1">
+    <row r="116" spans="1:4" ht="18" thickBot="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>4</v>
@@ -2386,7 +2380,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" thickBot="1">
+    <row r="117" spans="1:4" ht="18" thickBot="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>105</v>
@@ -2398,7 +2392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" thickBot="1">
+    <row r="118" spans="1:4" ht="18" thickBot="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>105</v>
@@ -2410,7 +2404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" thickBot="1">
+    <row r="119" spans="1:4" ht="18" thickBot="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>4</v>
@@ -2422,7 +2416,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" thickBot="1">
+    <row r="120" spans="1:4" ht="18" thickBot="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>4</v>
@@ -2434,7 +2428,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" thickBot="1">
+    <row r="121" spans="1:4" ht="18" thickBot="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>105</v>
@@ -2446,7 +2440,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" thickBot="1">
+    <row r="122" spans="1:4" ht="18" thickBot="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>105</v>
@@ -2458,7 +2452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" thickBot="1">
+    <row r="123" spans="1:4" ht="18" thickBot="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>4</v>
@@ -2470,7 +2464,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" thickBot="1">
+    <row r="124" spans="1:4" ht="18" thickBot="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>105</v>
@@ -2482,7 +2476,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" thickBot="1">
+    <row r="125" spans="1:4" ht="18" thickBot="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>105</v>
@@ -2494,7 +2488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" thickBot="1">
+    <row r="126" spans="1:4" ht="18" thickBot="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>4</v>
@@ -2506,7 +2500,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" thickBot="1">
+    <row r="127" spans="1:4" ht="18" thickBot="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
         <v>105</v>
@@ -2518,7 +2512,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" thickBot="1">
+    <row r="128" spans="1:4" ht="18" thickBot="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>4</v>
@@ -2530,7 +2524,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" thickBot="1">
+    <row r="129" spans="1:4" ht="18" thickBot="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>105</v>
@@ -2542,7 +2536,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" thickBot="1">
+    <row r="130" spans="1:4" ht="18" thickBot="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
         <v>105</v>
@@ -2554,7 +2548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" thickBot="1">
+    <row r="131" spans="1:4" ht="18" thickBot="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>4</v>
@@ -2566,7 +2560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" thickBot="1">
+    <row r="132" spans="1:4" ht="18" thickBot="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
         <v>4</v>
@@ -2578,7 +2572,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" thickBot="1">
+    <row r="133" spans="1:4" ht="18" thickBot="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
         <v>1</v>
@@ -2590,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" thickBot="1">
+    <row r="134" spans="1:4" ht="18" thickBot="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>4</v>
@@ -2602,25 +2596,25 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" thickBot="1">
+    <row r="135" spans="1:4" ht="18" thickBot="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" ht="17.25" thickBot="1">
+    <row r="136" spans="1:4" ht="18" thickBot="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" ht="17.25" thickBot="1">
+    <row r="137" spans="1:4" ht="18" thickBot="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="17.25" thickBot="1">
+    <row r="138" spans="1:4" ht="18" thickBot="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>1</v>
@@ -2630,7 +2624,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="17.25" thickBot="1">
+    <row r="139" spans="1:4" ht="18" thickBot="1">
       <c r="A139" s="1" t="s">
         <v>94</v>
       </c>
@@ -2644,7 +2638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" thickBot="1">
+    <row r="140" spans="1:4" ht="18" thickBot="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2" t="s">
         <v>4</v>
@@ -2656,7 +2650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" thickBot="1">
+    <row r="141" spans="1:4" ht="18" thickBot="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>1</v>
@@ -2668,7 +2662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" thickBot="1">
+    <row r="142" spans="1:4" ht="18" thickBot="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>4</v>
@@ -2680,7 +2674,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" thickBot="1">
+    <row r="143" spans="1:4" ht="18" thickBot="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2" t="s">
         <v>1</v>
@@ -2692,7 +2686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" thickBot="1">
+    <row r="144" spans="1:4" ht="18" thickBot="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2" t="s">
         <v>4</v>
@@ -2704,7 +2698,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" thickBot="1">
+    <row r="145" spans="1:4" ht="18" thickBot="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
         <v>1</v>
@@ -2716,7 +2710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" thickBot="1">
+    <row r="146" spans="1:4" ht="18" thickBot="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>4</v>
@@ -2728,7 +2722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" thickBot="1">
+    <row r="147" spans="1:4" ht="18" thickBot="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2" t="s">
         <v>1</v>
@@ -2740,7 +2734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" thickBot="1">
+    <row r="148" spans="1:4" ht="18" thickBot="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2" t="s">
         <v>4</v>
@@ -2752,7 +2746,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" thickBot="1">
+    <row r="149" spans="1:4" ht="18" thickBot="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2" t="s">
         <v>1</v>
@@ -2764,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" thickBot="1">
+    <row r="150" spans="1:4" ht="18" thickBot="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>4</v>
@@ -2776,7 +2770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" thickBot="1">
+    <row r="151" spans="1:4" ht="18" thickBot="1">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2784,11 +2778,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" thickBot="1">
+    <row r="152" spans="1:4" ht="18" thickBot="1">
       <c r="A152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="17.25" thickBot="1">
+    <row r="153" spans="1:4" ht="18" thickBot="1">
       <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
@@ -2802,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" thickBot="1">
+    <row r="154" spans="1:4" ht="18" thickBot="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
         <v>4</v>
@@ -2814,7 +2808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" thickBot="1">
+    <row r="155" spans="1:4" ht="18" thickBot="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
         <v>1</v>
@@ -2824,7 +2818,7 @@
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" ht="17.25" thickBot="1">
+    <row r="156" spans="1:4" ht="18" thickBot="1">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -2838,7 +2832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" thickBot="1">
+    <row r="157" spans="1:4" ht="18" thickBot="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
         <v>4</v>
@@ -2850,7 +2844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" thickBot="1">
+    <row r="158" spans="1:4" ht="18" thickBot="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
         <v>1</v>
@@ -2860,7 +2854,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" ht="17.25" thickBot="1">
+    <row r="159" spans="1:4" ht="18" thickBot="1">
       <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
@@ -2874,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" thickBot="1">
+    <row r="160" spans="1:4" ht="18" thickBot="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
         <v>4</v>
@@ -2886,7 +2880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" thickBot="1">
+    <row r="161" spans="1:4" ht="18" thickBot="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
         <v>1</v>
@@ -2896,7 +2890,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" ht="17.25" thickBot="1">
+    <row r="162" spans="1:4" ht="18" thickBot="1">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -2910,7 +2904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" thickBot="1">
+    <row r="163" spans="1:4" ht="18" thickBot="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
         <v>4</v>
@@ -2922,7 +2916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="17.25" thickBot="1">
+    <row r="164" spans="1:4" ht="18" thickBot="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
         <v>1</v>
@@ -2945,7 +2939,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2958,7 +2952,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Psy2050\IndiePunk-PSY2050\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="22632" windowHeight="8076"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="22635" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,10 +185,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>…절 무슨 골칫덩어리처럼 말하지 마세요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>그래.;일반인들은 모두 대피했어.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,10 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아, 알고 있어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Story01Mid02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -477,6 +474,14 @@
   </si>
   <si>
     <t>무슨 일이야? 미나?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…절 무슨 괴수처럼 말하지 마세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아. 알고 있어요.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,7 +663,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,19 +874,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" thickBot="1">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" thickBot="1">
+    <row r="2" spans="1:14" ht="17.25" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -922,7 +927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" thickBot="1">
+    <row r="3" spans="1:14" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -934,7 +939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" thickBot="1">
+    <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -946,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" thickBot="1">
+    <row r="5" spans="1:14" ht="17.25" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -955,10 +960,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -967,7 +972,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -982,7 +987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" thickBot="1">
+    <row r="7" spans="1:14" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -994,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" thickBot="1">
+    <row r="8" spans="1:14" ht="17.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -1003,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1018,7 +1023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" thickBot="1">
+    <row r="10" spans="1:14" ht="17.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1027,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -1042,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" thickBot="1">
+    <row r="12" spans="1:14" ht="17.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -1051,10 +1056,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" thickBot="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1066,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" thickBot="1">
+    <row r="14" spans="1:14" ht="17.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -1078,7 +1083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" thickBot="1">
+    <row r="15" spans="1:14" ht="17.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1090,7 +1095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" thickBot="1">
+    <row r="16" spans="1:14" ht="17.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -1117,7 +1122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" thickBot="1">
+    <row r="17" spans="1:14" ht="17.25" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1126,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
         <v>4</v>
@@ -1141,7 +1146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" thickBot="1">
+    <row r="18" spans="1:14" ht="17.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1165,7 +1170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" thickBot="1">
+    <row r="19" spans="1:14" ht="17.25" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1174,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
         <v>1</v>
@@ -1189,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" thickBot="1">
+    <row r="20" spans="1:14" ht="17.25" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1198,10 +1203,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18" thickBot="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1213,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" thickBot="1">
+    <row r="22" spans="1:14" ht="17.25" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1225,7 +1230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" thickBot="1">
+    <row r="23" spans="1:14" ht="17.25" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1235,7 +1240,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="18" thickBot="1">
+    <row r="24" spans="1:14" ht="17.25" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1249,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" thickBot="1">
+    <row r="25" spans="1:14" ht="17.25" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1258,10 +1263,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="18" thickBot="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1288,7 +1293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" thickBot="1">
+    <row r="27" spans="1:14" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1297,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
         <v>4</v>
@@ -1312,7 +1317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" thickBot="1">
+    <row r="28" spans="1:14" ht="17.25" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -1324,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" thickBot="1">
+    <row r="29" spans="1:14" ht="17.25" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1333,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="18" thickBot="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1345,10 +1350,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="18" thickBot="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17.25" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -1357,10 +1362,10 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="18" thickBot="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -1372,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="17.25" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -1381,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -1396,7 +1401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="17.25" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1405,10 +1410,10 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -1420,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+    <row r="37" spans="1:4" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1429,10 +1434,10 @@
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -1442,9 +1447,9 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+    <row r="39" spans="1:4" ht="17.25" thickBot="1">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
@@ -1453,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -1468,7 +1473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>4</v>
@@ -1480,7 +1485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
+    <row r="42" spans="1:4" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -1492,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+    <row r="43" spans="1:4" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -1504,7 +1509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+    <row r="44" spans="1:4" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -1513,10 +1518,10 @@
         <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17.25" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -1525,10 +1530,10 @@
         <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -1540,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1">
+    <row r="47" spans="1:4" ht="17.25" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>1</v>
@@ -1552,7 +1557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18" thickBot="1">
+    <row r="48" spans="1:4" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -1561,10 +1566,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -1573,10 +1578,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>4</v>
@@ -1585,10 +1590,10 @@
         <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18" thickBot="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -1600,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" thickBot="1">
+    <row r="52" spans="1:4" ht="17.25" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>1</v>
@@ -1612,7 +1617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" thickBot="1">
+    <row r="53" spans="1:4" ht="17.25" thickBot="1">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>4</v>
@@ -1621,10 +1626,10 @@
         <v>42</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17.25" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>4</v>
@@ -1636,7 +1641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1">
+    <row r="55" spans="1:4" ht="17.25" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -1648,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1">
+    <row r="56" spans="1:4" ht="17.25" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>1</v>
@@ -1660,7 +1665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1">
+    <row r="57" spans="1:4" ht="17.25" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>4</v>
@@ -1669,10 +1674,10 @@
         <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" thickBot="1">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>4</v>
@@ -1681,10 +1686,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18" thickBot="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -1696,7 +1701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1">
+    <row r="60" spans="1:4" ht="17.25" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>1</v>
@@ -1708,7 +1713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" thickBot="1">
+    <row r="61" spans="1:4" ht="17.25" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>4</v>
@@ -1720,7 +1725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" thickBot="1">
+    <row r="62" spans="1:4" ht="17.25" thickBot="1">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -1732,7 +1737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1">
+    <row r="63" spans="1:4" ht="17.25" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>1</v>
@@ -1744,7 +1749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18" thickBot="1">
+    <row r="64" spans="1:4" ht="17.25" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>4</v>
@@ -1753,10 +1758,10 @@
         <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="18" thickBot="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17.25" thickBot="1">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -1765,10 +1770,10 @@
         <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="18" thickBot="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" thickBot="1">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -1780,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18" thickBot="1">
+    <row r="67" spans="1:4" ht="17.25" thickBot="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>1</v>
@@ -1792,7 +1797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18" thickBot="1">
+    <row r="68" spans="1:4" ht="17.25" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>4</v>
@@ -1801,10 +1806,10 @@
         <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="18" thickBot="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>25</v>
@@ -1814,7 +1819,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="18" thickBot="1">
+    <row r="70" spans="1:4" ht="17.25" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18" thickBot="1">
+    <row r="71" spans="1:4" ht="17.25" thickBot="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>1</v>
@@ -1840,7 +1845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18" thickBot="1">
+    <row r="72" spans="1:4" ht="17.25" thickBot="1">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -1849,10 +1854,10 @@
         <v>21</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="18" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" thickBot="1">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>4</v>
@@ -1861,10 +1866,10 @@
         <v>21</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="18" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" thickBot="1">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -1876,7 +1881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18" thickBot="1">
+    <row r="75" spans="1:4" ht="17.25" thickBot="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>1</v>
@@ -1888,7 +1893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18" thickBot="1">
+    <row r="76" spans="1:4" ht="17.25" thickBot="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>4</v>
@@ -1897,10 +1902,10 @@
         <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="18" thickBot="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -1912,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18" thickBot="1">
+    <row r="78" spans="1:4" ht="17.25" thickBot="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>1</v>
@@ -1924,7 +1929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18" thickBot="1">
+    <row r="79" spans="1:4" ht="17.25" thickBot="1">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -1933,10 +1938,10 @@
         <v>21</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="18" thickBot="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" thickBot="1">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -1945,10 +1950,10 @@
         <v>21</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" thickBot="1">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -1957,10 +1962,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="18" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" thickBot="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>4</v>
@@ -1969,10 +1974,10 @@
         <v>21</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="18" thickBot="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" thickBot="1">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -1984,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18" thickBot="1">
+    <row r="84" spans="1:4" ht="17.25" thickBot="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>1</v>
@@ -1996,7 +2001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18" thickBot="1">
+    <row r="85" spans="1:4" ht="17.25" thickBot="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>4</v>
@@ -2005,10 +2010,10 @@
         <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="18" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17.25" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -2020,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18" thickBot="1">
+    <row r="87" spans="1:4" ht="17.25" thickBot="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>1</v>
@@ -2032,7 +2037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18" thickBot="1">
+    <row r="88" spans="1:4" ht="17.25" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>4</v>
@@ -2041,10 +2046,10 @@
         <v>21</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="18" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" thickBot="1">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -2053,10 +2058,10 @@
         <v>21</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="18" thickBot="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" thickBot="1">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -2065,10 +2070,10 @@
         <v>21</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="18" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" thickBot="1">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -2080,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18" thickBot="1">
+    <row r="92" spans="1:4" ht="17.25" thickBot="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>1</v>
@@ -2092,7 +2097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" thickBot="1">
+    <row r="93" spans="1:4" ht="17.25" thickBot="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>4</v>
@@ -2101,10 +2106,10 @@
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="18" thickBot="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17.25" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>1</v>
@@ -2114,9 +2119,9 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="18" thickBot="1">
+    <row r="95" spans="1:4" ht="17.25" thickBot="1">
       <c r="A95" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
@@ -2128,7 +2133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18" thickBot="1">
+    <row r="96" spans="1:4" ht="17.25" thickBot="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>1</v>
@@ -2140,7 +2145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18" thickBot="1">
+    <row r="97" spans="1:4" ht="17.25" thickBot="1">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>4</v>
@@ -2149,10 +2154,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="18" thickBot="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17.25" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>1</v>
@@ -2164,7 +2169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18" thickBot="1">
+    <row r="99" spans="1:4" ht="17.25" thickBot="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>1</v>
@@ -2176,7 +2181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18" thickBot="1">
+    <row r="100" spans="1:4" ht="17.25" thickBot="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>4</v>
@@ -2185,10 +2190,10 @@
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="18" thickBot="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17.25" thickBot="1">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -2200,7 +2205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18" thickBot="1">
+    <row r="102" spans="1:4" ht="17.25" thickBot="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>1</v>
@@ -2212,7 +2217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="18" thickBot="1">
+    <row r="103" spans="1:4" ht="17.25" thickBot="1">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>4</v>
@@ -2221,10 +2226,10 @@
         <v>21</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="18" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25" thickBot="1">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>1</v>
@@ -2236,7 +2241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="18" thickBot="1">
+    <row r="105" spans="1:4" ht="17.25" thickBot="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>1</v>
@@ -2248,7 +2253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="18" thickBot="1">
+    <row r="106" spans="1:4" ht="17.25" thickBot="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>4</v>
@@ -2257,10 +2262,10 @@
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="18" thickBot="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17.25" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -2272,7 +2277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="18" thickBot="1">
+    <row r="108" spans="1:4" ht="17.25" thickBot="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>1</v>
@@ -2284,7 +2289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="18" thickBot="1">
+    <row r="109" spans="1:4" ht="17.25" thickBot="1">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>4</v>
@@ -2293,10 +2298,10 @@
         <v>21</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="18" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>4</v>
@@ -2305,10 +2310,10 @@
         <v>21</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="18" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17.25" thickBot="1">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>4</v>
@@ -2317,10 +2322,10 @@
         <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="18" thickBot="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17.25" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>1</v>
@@ -2332,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18" thickBot="1">
+    <row r="113" spans="1:4" ht="17.25" thickBot="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>1</v>
@@ -2344,7 +2349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18" thickBot="1">
+    <row r="114" spans="1:4" ht="17.25" thickBot="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>4</v>
@@ -2353,22 +2358,22 @@
         <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="18" thickBot="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17.25" thickBot="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="18" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17.25" thickBot="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>4</v>
@@ -2377,25 +2382,25 @@
         <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="18" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17.25" thickBot="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="18" thickBot="1">
+    </row>
+    <row r="118" spans="1:4" ht="17.25" thickBot="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
@@ -2404,82 +2409,82 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18" thickBot="1">
+    <row r="119" spans="1:4" ht="17.25" thickBot="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="18" thickBot="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17.25" thickBot="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="18" thickBot="1">
+    </row>
+    <row r="121" spans="1:4" ht="17.25" thickBot="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="18" thickBot="1">
+    </row>
+    <row r="122" spans="1:4" ht="17.25" thickBot="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18" thickBot="1">
+    <row r="123" spans="1:4" ht="17.25" thickBot="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="18" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17.25" thickBot="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="18" thickBot="1">
+    </row>
+    <row r="125" spans="1:4" ht="17.25" thickBot="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>19</v>
@@ -2488,91 +2493,91 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="18" thickBot="1">
+    <row r="126" spans="1:4" ht="17.25" thickBot="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="18" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17.25" thickBot="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="18" thickBot="1">
+    </row>
+    <row r="128" spans="1:4" ht="17.25" thickBot="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="18" thickBot="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="17.25" thickBot="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="18" thickBot="1">
+    </row>
+    <row r="130" spans="1:4" ht="17.25" thickBot="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="18" thickBot="1">
+    <row r="131" spans="1:4" ht="17.25" thickBot="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="18" thickBot="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="17.25" thickBot="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="18" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17.25" thickBot="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
         <v>1</v>
@@ -2584,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="18" thickBot="1">
+    <row r="134" spans="1:4" ht="17.25" thickBot="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>4</v>
@@ -2593,28 +2598,28 @@
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="18" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17.25" thickBot="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" ht="18" thickBot="1">
+    <row r="136" spans="1:4" ht="17.25" thickBot="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" ht="18" thickBot="1">
+    <row r="137" spans="1:4" ht="17.25" thickBot="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="18" thickBot="1">
+    <row r="138" spans="1:4" ht="17.25" thickBot="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>1</v>
@@ -2624,9 +2629,9 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="18" thickBot="1">
+    <row r="139" spans="1:4" ht="17.25" thickBot="1">
       <c r="A139" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>1</v>
@@ -2638,7 +2643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="18" thickBot="1">
+    <row r="140" spans="1:4" ht="17.25" thickBot="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2" t="s">
         <v>4</v>
@@ -2647,10 +2652,10 @@
         <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="18" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17.25" thickBot="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>1</v>
@@ -2662,7 +2667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18" thickBot="1">
+    <row r="142" spans="1:4" ht="17.25" thickBot="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>4</v>
@@ -2671,10 +2676,10 @@
         <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="18" thickBot="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="17.25" thickBot="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2" t="s">
         <v>1</v>
@@ -2686,7 +2691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18" thickBot="1">
+    <row r="144" spans="1:4" ht="17.25" thickBot="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2" t="s">
         <v>4</v>
@@ -2695,10 +2700,10 @@
         <v>20</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="18" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17.25" thickBot="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
         <v>1</v>
@@ -2710,7 +2715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" thickBot="1">
+    <row r="146" spans="1:4" ht="17.25" thickBot="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>4</v>
@@ -2719,10 +2724,10 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="18" thickBot="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="17.25" thickBot="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2" t="s">
         <v>1</v>
@@ -2734,7 +2739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18" thickBot="1">
+    <row r="148" spans="1:4" ht="17.25" thickBot="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2" t="s">
         <v>4</v>
@@ -2743,10 +2748,10 @@
         <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="18" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="17.25" thickBot="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2" t="s">
         <v>1</v>
@@ -2758,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18" thickBot="1">
+    <row r="150" spans="1:4" ht="17.25" thickBot="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>4</v>
@@ -2767,22 +2772,22 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="18" thickBot="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="17.25" thickBot="1">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="18" thickBot="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="17.25" thickBot="1">
       <c r="A152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="18" thickBot="1">
+    <row r="153" spans="1:4" ht="17.25" thickBot="1">
       <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +2801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18" thickBot="1">
+    <row r="154" spans="1:4" ht="17.25" thickBot="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
         <v>4</v>
@@ -2808,7 +2813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18" thickBot="1">
+    <row r="155" spans="1:4" ht="17.25" thickBot="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
         <v>1</v>
@@ -2818,7 +2823,7 @@
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" ht="18" thickBot="1">
+    <row r="156" spans="1:4" ht="17.25" thickBot="1">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -2832,7 +2837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18" thickBot="1">
+    <row r="157" spans="1:4" ht="17.25" thickBot="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
         <v>4</v>
@@ -2844,7 +2849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18" thickBot="1">
+    <row r="158" spans="1:4" ht="17.25" thickBot="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
         <v>1</v>
@@ -2854,7 +2859,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" ht="18" thickBot="1">
+    <row r="159" spans="1:4" ht="17.25" thickBot="1">
       <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
@@ -2868,7 +2873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18" thickBot="1">
+    <row r="160" spans="1:4" ht="17.25" thickBot="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
         <v>4</v>
@@ -2880,7 +2885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18" thickBot="1">
+    <row r="161" spans="1:4" ht="17.25" thickBot="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
         <v>1</v>
@@ -2890,7 +2895,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" ht="18" thickBot="1">
+    <row r="162" spans="1:4" ht="17.25" thickBot="1">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +2909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18" thickBot="1">
+    <row r="163" spans="1:4" ht="17.25" thickBot="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
         <v>4</v>
@@ -2916,7 +2921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18" thickBot="1">
+    <row r="164" spans="1:4" ht="17.25" thickBot="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
         <v>1</v>
@@ -2939,7 +2944,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2952,7 +2957,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Psy2050\IndiePunk-PSY2050\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="22635" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="22632" windowHeight="8076" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="231">
   <si>
     <t>Story01Start</t>
   </si>
@@ -482,6 +477,437 @@
   </si>
   <si>
     <t>아. 알고 있어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃의 아니마!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사가 죽던 날…. 나타났던 아니마와 같아.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나…. 지직…. 지직…. 해당 지역은 봉쇄령이 떨어졌어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장에서 나와. 지직….;어서 복귀해.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나….?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안해요. 리타.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난…. 쫓아가 봐야겠어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지직….;미나? 미나!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마의 영역이 점차 짙어지고 있어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>침착하자.;여기서 멈춰선 안돼.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 시선이 닿는 곳이라면 어디든 텔레포트 할 수 있으니까.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…레이나 선배?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 능력자란 말이네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…단도직입적으로 물어볼게요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사가 있던 병원을 공격한 게 선배인가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원?;아. 리안 병원 말이구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기에 미사라는 애가 있었던 모양이네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배였군요….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…….;만약 그렇다고 하면.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나를 죽여주겠니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 손에 죽는 것도 나쁘지 않을 것 같거든.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오해와.;절망 속에서….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>….;미사….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 원수를 갚았어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 왜 넌 돌아오지 않니.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…. 늦어 버렸네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_player</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_time_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?;당신은?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래. 뭐.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 이렇게 될 일이었을지도….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(여성은 들고 있던 총을 관자놀이에 댄다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지2로 이어짐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌…. 순간이동 능력자였구나….;미나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>….;왜 리안 병원을 공격했죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고 있니? 미나?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 게 다….;거짓이라는 걸.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 돌리지 마세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그들이 너를 특별하다고 하지 않던?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후….;후후후후…..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(조용히 숨을 거뒀다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story02Start</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴…?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?; 통신기?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리타.;지금 몇시죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 이상해.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시야.;헛소리 하지 말고…. 지직…. 서둘러 복귀를….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story02Mid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…레이나 선배.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는….?;날 알고 있니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아. 너는…. 미나구나.;학생회에서 본 기억이 있어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배는 죽었던 게 아니었어요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽었다고….?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재밌는 이야기를 하네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 그런 기억은 없는데.</t>
+  </si>
+  <si>
+    <t>자, 잠깐만요!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 기다리던 일이긴 해.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮다면…. 네가 날 죽여주겠니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story02Boss0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story02Boss1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너…. 꽤 하는구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>….;왜 무작정 공격하신 거죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배가 말하는 거짓이란…. 대체 뭐죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후….;넌 착한 아이구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 인간이란 건…. 부모가 존재하는 법이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래.;부모로부터 잉태되는 생명체.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 인간이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 인간이 아니야….;합성된 모조품이지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모조품에 예상치 못한 기능이 붙은 걸.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그들이 특별하다고 이름 붙였을 뿐….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게…. 대체 무슨 말이죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_portrait_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_die_boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 좀 다르긴 하지만….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_portrait_time_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜, 왜 죽인거야!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_player_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어? 너는?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너…. 전에 봤을 때랑 눈빛이 다르네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈빛이라니 무슨 소리야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그보다 왜 선배를….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아. 이 사람이라면 다리를 쏴서 기절시킨 것 뿐이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정하지 마.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그보다 너….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 시간을 여행했어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 그렇구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 다 이야기해줄 수 없어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 이름은 노아야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자. 날 따라 와.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending credit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -518,15 +944,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -549,13 +981,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,6 +1009,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,7 +1083,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +1118,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,19 +1329,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.125" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1">
+    <row r="1" spans="1:14" ht="18" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +1355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.25" thickBot="1">
+    <row r="2" spans="1:14" ht="18" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -927,7 +1382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.25" thickBot="1">
+    <row r="3" spans="1:14" ht="18" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -939,7 +1394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1">
+    <row r="4" spans="1:14" ht="18" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -951,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickBot="1">
+    <row r="5" spans="1:14" ht="18" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -963,7 +1418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17.25" thickBot="1">
+    <row r="6" spans="1:14" ht="18" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -987,7 +1442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17.25" thickBot="1">
+    <row r="7" spans="1:14" ht="18" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -999,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.25" thickBot="1">
+    <row r="8" spans="1:14" ht="18" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -1011,7 +1466,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.25" thickBot="1">
+    <row r="9" spans="1:14" ht="18" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1023,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.25" thickBot="1">
+    <row r="10" spans="1:14" ht="18" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1035,7 +1490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.25" thickBot="1">
+    <row r="11" spans="1:14" ht="18" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -1047,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.25" thickBot="1">
+    <row r="12" spans="1:14" ht="18" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -1059,7 +1514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1">
+    <row r="13" spans="1:14" ht="18" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1071,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17.25" thickBot="1">
+    <row r="14" spans="1:14" ht="18" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -1083,7 +1538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17.25" thickBot="1">
+    <row r="15" spans="1:14" ht="18" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1095,7 +1550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17.25" thickBot="1">
+    <row r="16" spans="1:14" ht="18" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -1122,7 +1577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.25" thickBot="1">
+    <row r="17" spans="1:14" ht="18" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1146,7 +1601,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.25" thickBot="1">
+    <row r="18" spans="1:14" ht="18" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1170,7 +1625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.25" thickBot="1">
+    <row r="19" spans="1:14" ht="18" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1194,7 +1649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17.25" thickBot="1">
+    <row r="20" spans="1:14" ht="18" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1206,7 +1661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17.25" thickBot="1">
+    <row r="21" spans="1:14" ht="18" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1218,7 +1673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17.25" thickBot="1">
+    <row r="22" spans="1:14" ht="18" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1230,7 +1685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17.25" thickBot="1">
+    <row r="23" spans="1:14" ht="18" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1240,7 +1695,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25" thickBot="1">
+    <row r="24" spans="1:14" ht="18" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1254,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17.25" thickBot="1">
+    <row r="25" spans="1:14" ht="18" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1266,7 +1721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17.25" thickBot="1">
+    <row r="26" spans="1:14" ht="18" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1293,7 +1748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17.25" thickBot="1">
+    <row r="27" spans="1:14" ht="18" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1317,7 +1772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.25" thickBot="1">
+    <row r="28" spans="1:14" ht="18" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -1329,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17.25" thickBot="1">
+    <row r="29" spans="1:14" ht="18" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1341,7 +1796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="17.25" thickBot="1">
+    <row r="30" spans="1:14" ht="18" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1353,7 +1808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17.25" thickBot="1">
+    <row r="31" spans="1:14" ht="18" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -1365,7 +1820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17.25" thickBot="1">
+    <row r="32" spans="1:14" ht="18" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -1377,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" thickBot="1">
+    <row r="33" spans="1:4" ht="18" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -1389,7 +1844,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1">
+    <row r="34" spans="1:4" ht="18" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -1401,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" thickBot="1">
+    <row r="35" spans="1:4" ht="18" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1413,7 +1868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" thickBot="1">
+    <row r="36" spans="1:4" ht="18" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -1425,7 +1880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" thickBot="1">
+    <row r="37" spans="1:4" ht="18" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1437,7 +1892,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" thickBot="1">
+    <row r="38" spans="1:4" ht="18" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -1447,7 +1902,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="17.25" thickBot="1">
+    <row r="39" spans="1:4" ht="18" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -1461,7 +1916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" thickBot="1">
+    <row r="40" spans="1:4" ht="18" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -1473,7 +1928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" thickBot="1">
+    <row r="41" spans="1:4" ht="18" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>4</v>
@@ -1485,7 +1940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" thickBot="1">
+    <row r="42" spans="1:4" ht="18" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -1497,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" thickBot="1">
+    <row r="43" spans="1:4" ht="18" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -1509,7 +1964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" thickBot="1">
+    <row r="44" spans="1:4" ht="18" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -1521,7 +1976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" thickBot="1">
+    <row r="45" spans="1:4" ht="18" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -1533,7 +1988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" thickBot="1">
+    <row r="46" spans="1:4" ht="18" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -1545,7 +2000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" thickBot="1">
+    <row r="47" spans="1:4" ht="18" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>1</v>
@@ -1557,7 +2012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" thickBot="1">
+    <row r="48" spans="1:4" ht="18" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -1569,7 +2024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" thickBot="1">
+    <row r="49" spans="1:4" ht="18" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -1581,7 +2036,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" thickBot="1">
+    <row r="50" spans="1:4" ht="18" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>4</v>
@@ -1593,7 +2048,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" thickBot="1">
+    <row r="51" spans="1:4" ht="18" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -1605,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" thickBot="1">
+    <row r="52" spans="1:4" ht="18" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>1</v>
@@ -1617,7 +2072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" thickBot="1">
+    <row r="53" spans="1:4" ht="18" thickBot="1">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>4</v>
@@ -1629,7 +2084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" thickBot="1">
+    <row r="54" spans="1:4" ht="18" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>4</v>
@@ -1641,7 +2096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" thickBot="1">
+    <row r="55" spans="1:4" ht="18" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -1653,7 +2108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" thickBot="1">
+    <row r="56" spans="1:4" ht="18" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>1</v>
@@ -1665,7 +2120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" thickBot="1">
+    <row r="57" spans="1:4" ht="18" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>4</v>
@@ -1677,7 +2132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" thickBot="1">
+    <row r="58" spans="1:4" ht="18" thickBot="1">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>4</v>
@@ -1689,7 +2144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" thickBot="1">
+    <row r="59" spans="1:4" ht="18" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -1701,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" thickBot="1">
+    <row r="60" spans="1:4" ht="18" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>1</v>
@@ -1713,7 +2168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" thickBot="1">
+    <row r="61" spans="1:4" ht="18" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>4</v>
@@ -1725,7 +2180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" thickBot="1">
+    <row r="62" spans="1:4" ht="18" thickBot="1">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -1737,7 +2192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" thickBot="1">
+    <row r="63" spans="1:4" ht="18" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>1</v>
@@ -1749,7 +2204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" thickBot="1">
+    <row r="64" spans="1:4" ht="18" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>4</v>
@@ -1761,7 +2216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" thickBot="1">
+    <row r="65" spans="1:4" ht="18" thickBot="1">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -1773,7 +2228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" thickBot="1">
+    <row r="66" spans="1:4" ht="18" thickBot="1">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -1785,7 +2240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" thickBot="1">
+    <row r="67" spans="1:4" ht="18" thickBot="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>1</v>
@@ -1797,7 +2252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" thickBot="1">
+    <row r="68" spans="1:4" ht="18" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>4</v>
@@ -1809,7 +2264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" thickBot="1">
+    <row r="69" spans="1:4" ht="18" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>25</v>
@@ -1819,7 +2274,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="17.25" thickBot="1">
+    <row r="70" spans="1:4" ht="18" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -1833,7 +2288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" thickBot="1">
+    <row r="71" spans="1:4" ht="18" thickBot="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>1</v>
@@ -1845,7 +2300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" thickBot="1">
+    <row r="72" spans="1:4" ht="18" thickBot="1">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -1857,7 +2312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" thickBot="1">
+    <row r="73" spans="1:4" ht="18" thickBot="1">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>4</v>
@@ -1869,7 +2324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" thickBot="1">
+    <row r="74" spans="1:4" ht="18" thickBot="1">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -1881,7 +2336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" thickBot="1">
+    <row r="75" spans="1:4" ht="18" thickBot="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>1</v>
@@ -1893,7 +2348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" thickBot="1">
+    <row r="76" spans="1:4" ht="18" thickBot="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>4</v>
@@ -1905,7 +2360,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" thickBot="1">
+    <row r="77" spans="1:4" ht="18" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -1917,7 +2372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" thickBot="1">
+    <row r="78" spans="1:4" ht="18" thickBot="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>1</v>
@@ -1929,7 +2384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" thickBot="1">
+    <row r="79" spans="1:4" ht="18" thickBot="1">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -1941,7 +2396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" thickBot="1">
+    <row r="80" spans="1:4" ht="18" thickBot="1">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -1953,7 +2408,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" thickBot="1">
+    <row r="81" spans="1:4" ht="18" thickBot="1">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -1965,7 +2420,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" thickBot="1">
+    <row r="82" spans="1:4" ht="18" thickBot="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>4</v>
@@ -1977,7 +2432,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" thickBot="1">
+    <row r="83" spans="1:4" ht="18" thickBot="1">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -1989,7 +2444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" thickBot="1">
+    <row r="84" spans="1:4" ht="18" thickBot="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>1</v>
@@ -2001,7 +2456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" thickBot="1">
+    <row r="85" spans="1:4" ht="18" thickBot="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>4</v>
@@ -2013,7 +2468,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" thickBot="1">
+    <row r="86" spans="1:4" ht="18" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -2025,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" thickBot="1">
+    <row r="87" spans="1:4" ht="18" thickBot="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>1</v>
@@ -2037,7 +2492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" thickBot="1">
+    <row r="88" spans="1:4" ht="18" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>4</v>
@@ -2049,7 +2504,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" thickBot="1">
+    <row r="89" spans="1:4" ht="18" thickBot="1">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -2061,7 +2516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" thickBot="1">
+    <row r="90" spans="1:4" ht="18" thickBot="1">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -2073,7 +2528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" thickBot="1">
+    <row r="91" spans="1:4" ht="18" thickBot="1">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -2085,7 +2540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" thickBot="1">
+    <row r="92" spans="1:4" ht="18" thickBot="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>1</v>
@@ -2097,7 +2552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" thickBot="1">
+    <row r="93" spans="1:4" ht="18" thickBot="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>4</v>
@@ -2109,7 +2564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" thickBot="1">
+    <row r="94" spans="1:4" ht="18" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>1</v>
@@ -2119,7 +2574,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="17.25" thickBot="1">
+    <row r="95" spans="1:4" ht="18" thickBot="1">
       <c r="A95" s="1" t="s">
         <v>87</v>
       </c>
@@ -2133,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" thickBot="1">
+    <row r="96" spans="1:4" ht="18" thickBot="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>1</v>
@@ -2145,7 +2600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" thickBot="1">
+    <row r="97" spans="1:4" ht="18" thickBot="1">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>4</v>
@@ -2157,7 +2612,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" thickBot="1">
+    <row r="98" spans="1:4" ht="18" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>1</v>
@@ -2169,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" thickBot="1">
+    <row r="99" spans="1:4" ht="18" thickBot="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>1</v>
@@ -2181,7 +2636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" thickBot="1">
+    <row r="100" spans="1:4" ht="18" thickBot="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>4</v>
@@ -2193,7 +2648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" thickBot="1">
+    <row r="101" spans="1:4" ht="18" thickBot="1">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -2205,7 +2660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" thickBot="1">
+    <row r="102" spans="1:4" ht="18" thickBot="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>1</v>
@@ -2217,7 +2672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" thickBot="1">
+    <row r="103" spans="1:4" ht="18" thickBot="1">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>4</v>
@@ -2229,7 +2684,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" thickBot="1">
+    <row r="104" spans="1:4" ht="18" thickBot="1">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>1</v>
@@ -2241,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" thickBot="1">
+    <row r="105" spans="1:4" ht="18" thickBot="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>1</v>
@@ -2253,7 +2708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" thickBot="1">
+    <row r="106" spans="1:4" ht="18" thickBot="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>4</v>
@@ -2265,7 +2720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" thickBot="1">
+    <row r="107" spans="1:4" ht="18" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -2277,7 +2732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" thickBot="1">
+    <row r="108" spans="1:4" ht="18" thickBot="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>1</v>
@@ -2289,7 +2744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" thickBot="1">
+    <row r="109" spans="1:4" ht="18" thickBot="1">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>4</v>
@@ -2301,7 +2756,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" thickBot="1">
+    <row r="110" spans="1:4" ht="18" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>4</v>
@@ -2313,7 +2768,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" thickBot="1">
+    <row r="111" spans="1:4" ht="18" thickBot="1">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>4</v>
@@ -2325,7 +2780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" thickBot="1">
+    <row r="112" spans="1:4" ht="18" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>1</v>
@@ -2337,7 +2792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="17.25" thickBot="1">
+    <row r="113" spans="1:4" ht="18" thickBot="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>1</v>
@@ -2349,7 +2804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" thickBot="1">
+    <row r="114" spans="1:4" ht="18" thickBot="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>4</v>
@@ -2361,7 +2816,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" thickBot="1">
+    <row r="115" spans="1:4" ht="18" thickBot="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>4</v>
@@ -2373,7 +2828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" thickBot="1">
+    <row r="116" spans="1:4" ht="18" thickBot="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>4</v>
@@ -2385,7 +2840,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" thickBot="1">
+    <row r="117" spans="1:4" ht="18" thickBot="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>103</v>
@@ -2397,7 +2852,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" thickBot="1">
+    <row r="118" spans="1:4" ht="18" thickBot="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>103</v>
@@ -2409,7 +2864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" thickBot="1">
+    <row r="119" spans="1:4" ht="18" thickBot="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>4</v>
@@ -2421,7 +2876,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" thickBot="1">
+    <row r="120" spans="1:4" ht="18" thickBot="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>4</v>
@@ -2433,7 +2888,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" thickBot="1">
+    <row r="121" spans="1:4" ht="18" thickBot="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>103</v>
@@ -2445,7 +2900,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" thickBot="1">
+    <row r="122" spans="1:4" ht="18" thickBot="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>103</v>
@@ -2457,7 +2912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" thickBot="1">
+    <row r="123" spans="1:4" ht="18" thickBot="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>4</v>
@@ -2469,7 +2924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" thickBot="1">
+    <row r="124" spans="1:4" ht="18" thickBot="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>103</v>
@@ -2481,7 +2936,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" thickBot="1">
+    <row r="125" spans="1:4" ht="18" thickBot="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>103</v>
@@ -2493,7 +2948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" thickBot="1">
+    <row r="126" spans="1:4" ht="18" thickBot="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>4</v>
@@ -2505,7 +2960,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" thickBot="1">
+    <row r="127" spans="1:4" ht="18" thickBot="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
         <v>103</v>
@@ -2517,7 +2972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" thickBot="1">
+    <row r="128" spans="1:4" ht="18" thickBot="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>4</v>
@@ -2529,7 +2984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" thickBot="1">
+    <row r="129" spans="1:4" ht="18" thickBot="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>103</v>
@@ -2541,7 +2996,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" thickBot="1">
+    <row r="130" spans="1:4" ht="18" thickBot="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
         <v>103</v>
@@ -2553,7 +3008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" thickBot="1">
+    <row r="131" spans="1:4" ht="18" thickBot="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>4</v>
@@ -2565,7 +3020,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" thickBot="1">
+    <row r="132" spans="1:4" ht="18" thickBot="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
         <v>4</v>
@@ -2577,7 +3032,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" thickBot="1">
+    <row r="133" spans="1:4" ht="18" thickBot="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
         <v>1</v>
@@ -2589,7 +3044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" thickBot="1">
+    <row r="134" spans="1:4" ht="18" thickBot="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>4</v>
@@ -2601,25 +3056,25 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" thickBot="1">
+    <row r="135" spans="1:4" ht="18" thickBot="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" ht="17.25" thickBot="1">
+    <row r="136" spans="1:4" ht="18" thickBot="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" ht="17.25" thickBot="1">
+    <row r="137" spans="1:4" ht="18" thickBot="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="17.25" thickBot="1">
+    <row r="138" spans="1:4" ht="18" thickBot="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>1</v>
@@ -2629,7 +3084,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="17.25" thickBot="1">
+    <row r="139" spans="1:4" ht="18" thickBot="1">
       <c r="A139" s="1" t="s">
         <v>92</v>
       </c>
@@ -2643,7 +3098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" thickBot="1">
+    <row r="140" spans="1:4" ht="18" thickBot="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2" t="s">
         <v>4</v>
@@ -2655,7 +3110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" thickBot="1">
+    <row r="141" spans="1:4" ht="18" thickBot="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>1</v>
@@ -2667,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" thickBot="1">
+    <row r="142" spans="1:4" ht="18" thickBot="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>4</v>
@@ -2679,7 +3134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" thickBot="1">
+    <row r="143" spans="1:4" ht="18" thickBot="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2" t="s">
         <v>1</v>
@@ -2691,7 +3146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" thickBot="1">
+    <row r="144" spans="1:4" ht="18" thickBot="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2" t="s">
         <v>4</v>
@@ -2703,7 +3158,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" thickBot="1">
+    <row r="145" spans="1:4" ht="18" thickBot="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
         <v>1</v>
@@ -2715,7 +3170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" thickBot="1">
+    <row r="146" spans="1:4" ht="18" thickBot="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>4</v>
@@ -2727,7 +3182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" thickBot="1">
+    <row r="147" spans="1:4" ht="18" thickBot="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2" t="s">
         <v>1</v>
@@ -2739,7 +3194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" thickBot="1">
+    <row r="148" spans="1:4" ht="18" thickBot="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2" t="s">
         <v>4</v>
@@ -2751,7 +3206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" thickBot="1">
+    <row r="149" spans="1:4" ht="18" thickBot="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2" t="s">
         <v>1</v>
@@ -2763,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" thickBot="1">
+    <row r="150" spans="1:4" ht="18" thickBot="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>4</v>
@@ -2775,7 +3230,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" thickBot="1">
+    <row r="151" spans="1:4" ht="18" thickBot="1">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2783,11 +3238,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" thickBot="1">
+    <row r="152" spans="1:4" ht="18" thickBot="1">
       <c r="A152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="17.25" thickBot="1">
+    <row r="153" spans="1:4" ht="18" thickBot="1">
       <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
@@ -2801,7 +3256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" thickBot="1">
+    <row r="154" spans="1:4" ht="18" thickBot="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
         <v>4</v>
@@ -2813,7 +3268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" thickBot="1">
+    <row r="155" spans="1:4" ht="18" thickBot="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
         <v>1</v>
@@ -2823,7 +3278,7 @@
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" ht="17.25" thickBot="1">
+    <row r="156" spans="1:4" ht="18" thickBot="1">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -2837,7 +3292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" thickBot="1">
+    <row r="157" spans="1:4" ht="18" thickBot="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
         <v>4</v>
@@ -2849,7 +3304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" thickBot="1">
+    <row r="158" spans="1:4" ht="18" thickBot="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
         <v>1</v>
@@ -2859,7 +3314,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" ht="17.25" thickBot="1">
+    <row r="159" spans="1:4" ht="18" thickBot="1">
       <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
@@ -2873,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" thickBot="1">
+    <row r="160" spans="1:4" ht="18" thickBot="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
         <v>4</v>
@@ -2885,7 +3340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" thickBot="1">
+    <row r="161" spans="1:4" ht="18" thickBot="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
         <v>1</v>
@@ -2895,7 +3350,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" ht="17.25" thickBot="1">
+    <row r="162" spans="1:4" ht="18" thickBot="1">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -2909,7 +3364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" thickBot="1">
+    <row r="163" spans="1:4" ht="18" thickBot="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
         <v>4</v>
@@ -2921,7 +3376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="17.25" thickBot="1">
+    <row r="164" spans="1:4" ht="18" thickBot="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
         <v>1</v>
@@ -2940,12 +3395,2778 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="31.3984375" customWidth="1"/>
+    <col min="4" max="4" width="53.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickBot="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickBot="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" thickBot="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" thickBot="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" thickBot="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" thickBot="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" thickBot="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickBot="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" thickBot="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" thickBot="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" thickBot="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" thickBot="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" thickBot="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" thickBot="1">
+      <c r="B21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" thickBot="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" thickBot="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" thickBot="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" thickBot="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" thickBot="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" thickBot="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" thickBot="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" thickBot="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" thickBot="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" thickBot="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" thickBot="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" thickBot="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" thickBot="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" thickBot="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" thickBot="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" thickBot="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" thickBot="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" thickBot="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" thickBot="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" thickBot="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" thickBot="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" thickBot="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" thickBot="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" thickBot="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" thickBot="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" thickBot="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18" thickBot="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" thickBot="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18" thickBot="1">
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18" thickBot="1">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18" thickBot="1">
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18" thickBot="1">
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18" thickBot="1">
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18" thickBot="1">
+      <c r="B56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" ht="18" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18" thickBot="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18" thickBot="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18" thickBot="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18" thickBot="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18" thickBot="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18" thickBot="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18" thickBot="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18" thickBot="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18" thickBot="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18" thickBot="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18" thickBot="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18" thickBot="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18" thickBot="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18" thickBot="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18" thickBot="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18" thickBot="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18" thickBot="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18" thickBot="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18" thickBot="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18" thickBot="1">
+      <c r="A77" s="2"/>
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18" thickBot="1">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18" thickBot="1">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18" thickBot="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18" thickBot="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18" thickBot="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18" thickBot="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18" thickBot="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18" thickBot="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18" thickBot="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18" thickBot="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18" thickBot="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18" thickBot="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18" thickBot="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18" thickBot="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18" thickBot="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18" thickBot="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18" thickBot="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18" thickBot="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18" thickBot="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" ht="18" thickBot="1">
+      <c r="A97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18" thickBot="1">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18" thickBot="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18" thickBot="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18" thickBot="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18" thickBot="1">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18" thickBot="1">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18" thickBot="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18" thickBot="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18" thickBot="1">
+      <c r="A106" s="2"/>
+      <c r="B106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18" thickBot="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18" thickBot="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18" thickBot="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18" thickBot="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18" thickBot="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18" thickBot="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18" thickBot="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18" thickBot="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18" thickBot="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18" thickBot="1">
+      <c r="A116" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18" thickBot="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="18" thickBot="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" ht="18" thickBot="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="18" thickBot="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="18" thickBot="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" ht="18" thickBot="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18" thickBot="1">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" ht="18" thickBot="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18" thickBot="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" ht="18" thickBot="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="18" thickBot="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" ht="18" thickBot="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18" thickBot="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="18" thickBot="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" ht="18" thickBot="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="18" thickBot="1">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" ht="18" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="18" thickBot="1">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="18" thickBot="1">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="18" thickBot="1">
+      <c r="A136" s="2"/>
+      <c r="B136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18" thickBot="1">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="18" thickBot="1">
+      <c r="A138" s="2"/>
+      <c r="B138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="18" thickBot="1">
+      <c r="A139" s="2"/>
+      <c r="B139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="18" thickBot="1">
+      <c r="A140" s="2"/>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18" thickBot="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18" thickBot="1">
+      <c r="A142" s="2"/>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="18" thickBot="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18" thickBot="1">
+      <c r="A144" s="2"/>
+      <c r="B144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="18" thickBot="1">
+      <c r="A145" s="2"/>
+      <c r="B145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="18" thickBot="1">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18" thickBot="1">
+      <c r="A147" s="2"/>
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18" thickBot="1">
+      <c r="A148" s="2"/>
+      <c r="B148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18" thickBot="1">
+      <c r="A149" s="2"/>
+      <c r="B149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18" thickBot="1">
+      <c r="A150" s="2"/>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18" thickBot="1">
+      <c r="A151" s="2"/>
+      <c r="B151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18" thickBot="1">
+      <c r="A152" s="2"/>
+      <c r="B152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18" thickBot="1">
+      <c r="A153" s="2"/>
+      <c r="B153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18" thickBot="1">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="18" thickBot="1">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18" thickBot="1">
+      <c r="B156" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="1:4" ht="18" thickBot="1">
+      <c r="A157" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18" thickBot="1">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18" thickBot="1">
+      <c r="A159" s="2"/>
+      <c r="B159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18" thickBot="1">
+      <c r="A160" s="2"/>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18" thickBot="1">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18" thickBot="1">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18" thickBot="1">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18" thickBot="1">
+      <c r="A164" s="2"/>
+      <c r="B164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18" thickBot="1">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18" thickBot="1">
+      <c r="A166" s="2"/>
+      <c r="B166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18" thickBot="1">
+      <c r="A167" s="2"/>
+      <c r="B167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18" thickBot="1">
+      <c r="A168" s="2"/>
+      <c r="B168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18" thickBot="1">
+      <c r="A169" s="2"/>
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="18" thickBot="1">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="18" thickBot="1">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="18" thickBot="1">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18" thickBot="1">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="18" thickBot="1">
+      <c r="A174" s="2"/>
+      <c r="B174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="18" thickBot="1">
+      <c r="A175" s="2"/>
+      <c r="B175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="18" thickBot="1">
+      <c r="A176" s="2"/>
+      <c r="B176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="18" thickBot="1">
+      <c r="A177" s="2"/>
+      <c r="B177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="18" thickBot="1">
+      <c r="A178" s="2"/>
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="18" thickBot="1">
+      <c r="A179" s="2"/>
+      <c r="B179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="18" thickBot="1">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="18" thickBot="1">
+      <c r="A181" s="2"/>
+      <c r="B181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="18" thickBot="1">
+      <c r="A182" s="2"/>
+      <c r="B182" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="18" thickBot="1">
+      <c r="A183" s="2"/>
+      <c r="B183" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" ht="18" thickBot="1">
+      <c r="A184" s="2"/>
+      <c r="B184" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="18" thickBot="1">
+      <c r="A185" s="2"/>
+      <c r="B185" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="18" thickBot="1">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="18" thickBot="1">
+      <c r="A187" s="2"/>
+      <c r="B187" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="18" thickBot="1">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="18" thickBot="1">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="18" thickBot="1">
+      <c r="A190" s="2"/>
+      <c r="B190" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="18" thickBot="1">
+      <c r="A191" s="2"/>
+      <c r="B191" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18" thickBot="1">
+      <c r="A192" s="2"/>
+      <c r="B192" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="18" thickBot="1">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="18" thickBot="1">
+      <c r="A194" s="2"/>
+      <c r="B194" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="18" thickBot="1">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="18" thickBot="1">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="18" thickBot="1">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="18" thickBot="1">
+      <c r="A198" s="2"/>
+      <c r="B198" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="18" thickBot="1">
+      <c r="A199" s="2"/>
+      <c r="B199" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="18" thickBot="1">
+      <c r="A200" s="2"/>
+      <c r="B200" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="18" thickBot="1">
+      <c r="A201" s="2"/>
+      <c r="B201" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="18" thickBot="1">
+      <c r="A202" s="2"/>
+      <c r="B202" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="18" thickBot="1">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="18" thickBot="1">
+      <c r="A204" s="2"/>
+      <c r="B204" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="18" thickBot="1">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="18" thickBot="1">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="18" thickBot="1">
+      <c r="A207" s="2"/>
+      <c r="B207" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="18" thickBot="1">
+      <c r="A208" s="2"/>
+      <c r="B208" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="18" thickBot="1">
+      <c r="A209" s="2"/>
+      <c r="B209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="18" thickBot="1">
+      <c r="A210" s="2"/>
+      <c r="B210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="18" thickBot="1">
+      <c r="A211" s="2"/>
+      <c r="B211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="18" thickBot="1">
+      <c r="A212" s="2"/>
+      <c r="B212" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D212" s="6"/>
+    </row>
+    <row r="213" spans="1:4" ht="18" thickBot="1">
+      <c r="A213" s="2"/>
+      <c r="B213" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" ht="18" thickBot="1">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:4" ht="18" thickBot="1">
+      <c r="A215" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="18" thickBot="1">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="18" thickBot="1">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="18" thickBot="1">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="18" thickBot="1">
+      <c r="A219" s="2"/>
+      <c r="B219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="18" thickBot="1">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="18" thickBot="1">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="18" thickBot="1">
+      <c r="A222" s="2"/>
+      <c r="B222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="18" thickBot="1">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="18" thickBot="1">
+      <c r="A224" s="2"/>
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="18" thickBot="1">
+      <c r="A225" s="2"/>
+      <c r="B225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="18" thickBot="1">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="18" thickBot="1">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="18" thickBot="1">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="18" thickBot="1">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="18" thickBot="1">
+      <c r="A230" s="2"/>
+      <c r="B230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="18" thickBot="1">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="18" thickBot="1">
+      <c r="A232" s="2"/>
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="18" thickBot="1">
+      <c r="A233" s="2"/>
+      <c r="B233" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2957,7 +6178,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Psy2050\IndiePunk-PSY2050\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="22632" windowHeight="8076" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="22635" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="20191019 버전" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="273">
   <si>
     <t>Story01Start</t>
   </si>
@@ -480,58 +485,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>불꽃의 아니마!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사가 죽던 날…. 나타났던 아니마와 같아.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>통신기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>미나…. 지직…. 지직…. 해당 지역은 봉쇄령이 떨어졌어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>현장에서 나와. 지직….;어서 복귀해.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>….</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>미나….?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안해요. 리타.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>난…. 쫓아가 봐야겠어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지직….;미나? 미나!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>미나</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아니마의 영역이 점차 짙어지고 있어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>침착하자.;여기서 멈춰선 안돼.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>난 시선이 닿는 곳이라면 어디든 텔레포트 할 수 있으니까.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -548,26 +513,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>…레이나 선배?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너도 능력자란 말이네.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>…단도직입적으로 물어볼게요.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>미사가 있던 병원을 공격한 게 선배인가요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원?;아. 리안 병원 말이구나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>거기에 미사라는 애가 있었던 모양이네.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -576,10 +525,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>…….;만약 그렇다고 하면.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>나를 죽여주겠니?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -596,18 +541,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>….;미사….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 원수를 갚았어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데 왜 넌 돌아오지 않니.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>show portrait_time</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -628,10 +561,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>?;당신은?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -656,26 +585,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>stage2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지2로 이어짐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>넌…. 순간이동 능력자였구나….;미나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>….;왜 리안 병원을 공격했죠?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>알고 있니? 미나?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 게 다….;거짓이라는 걸.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -692,10 +605,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(조용히 숨을 거뒀다.)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Story02Start</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -704,22 +613,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>?; 통신기?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>리타.;지금 몇시죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가 이상해.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3시야.;헛소리 하지 말고…. 지직…. 서둘러 복귀를….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Story02Mid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -728,14 +621,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>너는….?;날 알고 있니?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아. 너는…. 미나구나.;학생회에서 본 기억이 있어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>선배는 죽었던 게 아니었어요?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -748,22 +633,403 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아직 그런 기억은 없는데.</t>
+    <t>괜찮다면…. 네가 날 죽여주겠니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story02Boss0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너…. 꽤 하는구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배가 말하는 거짓이란…. 대체 뭐죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 인간이란 건…. 부모가 존재하는 법이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 인간이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 인간이 아니야….;합성된 모조품이지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모조품에 예상치 못한 기능이 붙은 걸.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그들이 특별하다고 이름 붙였을 뿐….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게…. 대체 무슨 말이죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_portrait_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_portrait_time_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_player_gray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너…. 전에 봤을 때랑 눈빛이 다르네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈빛이라니 무슨 소리야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정하지 마.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 시간을 여행했어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 다 이야기해줄 수 없어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 이름은 노아야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자. 날 따라 와.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show empty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미나….?)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마의 힘이 점차 강해지고 있어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아무 곳이나 클릭해 텔레포트를 할 수 있습니다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…아니마.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미나…. 지금 막 그 지역에 봉쇄령이 떨어졌어.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(수색은 종료야.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리타….;불꽃의 아니마야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사가 죽던 날….;나타났던 아니마라고.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(네 심정은 이해하지만….)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(지금 그곳은 위험지역이야….)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(현장에서 나와. 어서 복귀해. 미나.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안해. 리타.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난…. 더 깊이 들어가봐야겠어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미나? 미나!)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>play_se</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…하지만 여기서 멈춰선 안돼.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사를 위해서라도….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은?;…레이나 선배?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생회장인 레이나 선배잖아요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는…. 미나구나.;학생회에서 본 기억이 있어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 '특별한 아이'라는 말이네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beep_out.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>endline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…….;그렇다고 하면.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마 전, 미사가 있는 병원에서 있었던 폭발.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배가 그런건가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원이라면….;리안 병원 말이구나….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대단한…. 능력이네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순간이동 능력자라면….;바깥 세상을 본 적 있니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨달았거든.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후후….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(레이나의 눈이 조용히 초점을 잃었다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?;너는?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>play_se</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_firing.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>load stage2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage2 로드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story01Boss1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…통신기가 연결이 되어 있어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오후 3시야.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(헛소리 하지 말고 어서 복귀해.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리타;혹시 지금 몇 시야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 시간 전으로….;되돌아 온거야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…날 알고 있니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아. 너는….;학생회에서 본 기억이 있어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나예요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래. 미나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 '특별한 아이'란 말이네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직은 그런 기억이 없는데.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…하지만 기다리던 일이긴 해.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>자, 잠깐만요!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>하지만 기다리던 일이긴 해.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮다면…. 네가 날 죽여주겠니?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story02Boss0</t>
+    <t>….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>….;왜 저를 공격하신 거죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후….;넌 착한 아이구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 '부모'라는 말을 알고 있니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모로부터 잉태되는 생명체야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 말인지…. 모르겠어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>play_se</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐다.;레이나를 확보했어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번엔 뭔가 좀 다르긴 하지만….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어? 네가 왜 여기 있어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 쏜거야!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그보다 왜 선배를 쏜 거냐고.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이나는 다리를 쏴서 기절시킨 것 뿐이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그보다 너…. 그 눈빛.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간…?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…역시 그렇구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 모든 걸 이야기해줄게.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -771,143 +1037,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>너…. 꽤 하는구나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>….;왜 무작정 공격하신 거죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>선배가 말하는 거짓이란…. 대체 뭐죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후후….;넌 착한 아이구나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실 인간이란 건…. 부모가 존재하는 법이야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부모?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래.;부모로부터 잉태되는 생명체.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그게 인간이야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리는 인간이 아니야….;합성된 모조품이지.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모조품에 예상치 못한 기능이 붙은 걸.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그들이 특별하다고 이름 붙였을 뿐….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그게…. 대체 무슨 말이죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_portrait_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>l</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfx_die_boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>됐다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가 좀 다르긴 하지만….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>left</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_portrait_time_gray</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜, 왜 죽인거야!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show portrait_player_gray</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>어? 너는?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너…. 전에 봤을 때랑 눈빛이 다르네.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈빛이라니 무슨 소리야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그보다 왜 선배를….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아. 이 사람이라면 다리를 쏴서 기절시킨 것 뿐이야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>걱정하지 마.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그보다 너….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너도 시간을 여행했어?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역시 그렇구나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금은 다 이야기해줄 수 없어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 이름은 노아야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자. 날 따라 와.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ending credit</t>
+    <t>load ending</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…이야기해주세요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓이란 뭘까….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 난 거짓에 맞서 싸우려고 한 걸까.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽음이…. 이렇게 편할 줄 알았다면….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸우지도 않았을…. 텐데….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…. 또 늦어 버렸네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…. 어렵네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이나가 죽기 전에 도착하려면….</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +1172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,6 +1195,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,7 +1263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1118,7 +1298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1333,15 +1513,15 @@
       <selection activeCell="A70" sqref="A70:D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" thickBot="1">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" thickBot="1">
+    <row r="2" spans="1:14" ht="17.25" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1382,7 +1562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" thickBot="1">
+    <row r="3" spans="1:14" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1394,7 +1574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" thickBot="1">
+    <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1406,7 +1586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" thickBot="1">
+    <row r="5" spans="1:14" ht="17.25" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1418,7 +1598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" thickBot="1">
+    <row r="6" spans="1:14" ht="17.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1442,7 +1622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" thickBot="1">
+    <row r="7" spans="1:14" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1454,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" thickBot="1">
+    <row r="8" spans="1:14" ht="17.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -1466,7 +1646,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" thickBot="1">
+    <row r="9" spans="1:14" ht="17.25" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1478,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" thickBot="1">
+    <row r="10" spans="1:14" ht="17.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1490,7 +1670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" thickBot="1">
+    <row r="11" spans="1:14" ht="17.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -1502,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" thickBot="1">
+    <row r="12" spans="1:14" ht="17.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -1514,7 +1694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" thickBot="1">
+    <row r="13" spans="1:14" ht="17.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1526,7 +1706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" thickBot="1">
+    <row r="14" spans="1:14" ht="17.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -1538,7 +1718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" thickBot="1">
+    <row r="15" spans="1:14" ht="17.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1550,7 +1730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" thickBot="1">
+    <row r="16" spans="1:14" ht="17.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -1577,7 +1757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" thickBot="1">
+    <row r="17" spans="1:14" ht="17.25" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1601,7 +1781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" thickBot="1">
+    <row r="18" spans="1:14" ht="17.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1625,7 +1805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" thickBot="1">
+    <row r="19" spans="1:14" ht="17.25" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1649,7 +1829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" thickBot="1">
+    <row r="20" spans="1:14" ht="17.25" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1661,7 +1841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" thickBot="1">
+    <row r="21" spans="1:14" ht="17.25" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1673,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" thickBot="1">
+    <row r="22" spans="1:14" ht="17.25" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1685,7 +1865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" thickBot="1">
+    <row r="23" spans="1:14" ht="17.25" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1695,7 +1875,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="18" thickBot="1">
+    <row r="24" spans="1:14" ht="17.25" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1709,7 +1889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" thickBot="1">
+    <row r="25" spans="1:14" ht="17.25" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1721,7 +1901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" thickBot="1">
+    <row r="26" spans="1:14" ht="17.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1748,7 +1928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" thickBot="1">
+    <row r="27" spans="1:14" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1772,7 +1952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" thickBot="1">
+    <row r="28" spans="1:14" ht="17.25" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -1784,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" thickBot="1">
+    <row r="29" spans="1:14" ht="17.25" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1796,7 +1976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" thickBot="1">
+    <row r="30" spans="1:14" ht="17.25" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1808,7 +1988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" thickBot="1">
+    <row r="31" spans="1:14" ht="17.25" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -1820,7 +2000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" thickBot="1">
+    <row r="32" spans="1:14" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -1832,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+    <row r="33" spans="1:4" ht="17.25" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -1844,7 +2024,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+    <row r="34" spans="1:4" ht="17.25" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -1856,7 +2036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+    <row r="35" spans="1:4" ht="17.25" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1868,7 +2048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+    <row r="36" spans="1:4" ht="17.25" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -1880,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+    <row r="37" spans="1:4" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1892,7 +2072,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+    <row r="38" spans="1:4" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -1902,7 +2082,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+    <row r="39" spans="1:4" ht="17.25" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -1916,7 +2096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
+    <row r="40" spans="1:4" ht="17.25" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -1928,7 +2108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+    <row r="41" spans="1:4" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>4</v>
@@ -1940,7 +2120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
+    <row r="42" spans="1:4" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -1952,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+    <row r="43" spans="1:4" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -1964,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+    <row r="44" spans="1:4" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -1976,7 +2156,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1">
+    <row r="45" spans="1:4" ht="17.25" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -1988,7 +2168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1">
+    <row r="46" spans="1:4" ht="17.25" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -2000,7 +2180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1">
+    <row r="47" spans="1:4" ht="17.25" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>1</v>
@@ -2012,7 +2192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18" thickBot="1">
+    <row r="48" spans="1:4" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -2024,7 +2204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1">
+    <row r="49" spans="1:4" ht="17.25" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -2036,7 +2216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1">
+    <row r="50" spans="1:4" ht="17.25" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>4</v>
@@ -2048,7 +2228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" thickBot="1">
+    <row r="51" spans="1:4" ht="17.25" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -2060,7 +2240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" thickBot="1">
+    <row r="52" spans="1:4" ht="17.25" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>1</v>
@@ -2072,7 +2252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" thickBot="1">
+    <row r="53" spans="1:4" ht="17.25" thickBot="1">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>4</v>
@@ -2084,7 +2264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1">
+    <row r="54" spans="1:4" ht="17.25" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>4</v>
@@ -2096,7 +2276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1">
+    <row r="55" spans="1:4" ht="17.25" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -2108,7 +2288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1">
+    <row r="56" spans="1:4" ht="17.25" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>1</v>
@@ -2120,7 +2300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1">
+    <row r="57" spans="1:4" ht="17.25" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>4</v>
@@ -2132,7 +2312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1">
+    <row r="58" spans="1:4" ht="17.25" thickBot="1">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>4</v>
@@ -2144,7 +2324,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18" thickBot="1">
+    <row r="59" spans="1:4" ht="17.25" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -2156,7 +2336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1">
+    <row r="60" spans="1:4" ht="17.25" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>1</v>
@@ -2168,7 +2348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" thickBot="1">
+    <row r="61" spans="1:4" ht="17.25" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>4</v>
@@ -2180,7 +2360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" thickBot="1">
+    <row r="62" spans="1:4" ht="17.25" thickBot="1">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -2192,7 +2372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1">
+    <row r="63" spans="1:4" ht="17.25" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>1</v>
@@ -2204,7 +2384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18" thickBot="1">
+    <row r="64" spans="1:4" ht="17.25" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>4</v>
@@ -2216,7 +2396,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18" thickBot="1">
+    <row r="65" spans="1:4" ht="17.25" thickBot="1">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -2228,7 +2408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18" thickBot="1">
+    <row r="66" spans="1:4" ht="17.25" thickBot="1">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -2240,7 +2420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18" thickBot="1">
+    <row r="67" spans="1:4" ht="17.25" thickBot="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>1</v>
@@ -2252,7 +2432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18" thickBot="1">
+    <row r="68" spans="1:4" ht="17.25" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>4</v>
@@ -2264,7 +2444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18" thickBot="1">
+    <row r="69" spans="1:4" ht="17.25" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>25</v>
@@ -2274,7 +2454,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="18" thickBot="1">
+    <row r="70" spans="1:4" ht="17.25" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -2288,7 +2468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18" thickBot="1">
+    <row r="71" spans="1:4" ht="17.25" thickBot="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>1</v>
@@ -2300,7 +2480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18" thickBot="1">
+    <row r="72" spans="1:4" ht="17.25" thickBot="1">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -2312,7 +2492,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18" thickBot="1">
+    <row r="73" spans="1:4" ht="17.25" thickBot="1">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>4</v>
@@ -2324,7 +2504,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18" thickBot="1">
+    <row r="74" spans="1:4" ht="17.25" thickBot="1">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -2336,7 +2516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18" thickBot="1">
+    <row r="75" spans="1:4" ht="17.25" thickBot="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>1</v>
@@ -2348,7 +2528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18" thickBot="1">
+    <row r="76" spans="1:4" ht="17.25" thickBot="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>4</v>
@@ -2360,7 +2540,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18" thickBot="1">
+    <row r="77" spans="1:4" ht="17.25" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -2372,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18" thickBot="1">
+    <row r="78" spans="1:4" ht="17.25" thickBot="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>1</v>
@@ -2384,7 +2564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18" thickBot="1">
+    <row r="79" spans="1:4" ht="17.25" thickBot="1">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -2396,7 +2576,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18" thickBot="1">
+    <row r="80" spans="1:4" ht="17.25" thickBot="1">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -2408,7 +2588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18" thickBot="1">
+    <row r="81" spans="1:4" ht="17.25" thickBot="1">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -2420,7 +2600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18" thickBot="1">
+    <row r="82" spans="1:4" ht="17.25" thickBot="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>4</v>
@@ -2432,7 +2612,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18" thickBot="1">
+    <row r="83" spans="1:4" ht="17.25" thickBot="1">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -2444,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18" thickBot="1">
+    <row r="84" spans="1:4" ht="17.25" thickBot="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>1</v>
@@ -2456,7 +2636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18" thickBot="1">
+    <row r="85" spans="1:4" ht="17.25" thickBot="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>4</v>
@@ -2468,7 +2648,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18" thickBot="1">
+    <row r="86" spans="1:4" ht="17.25" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -2480,7 +2660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18" thickBot="1">
+    <row r="87" spans="1:4" ht="17.25" thickBot="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>1</v>
@@ -2492,7 +2672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18" thickBot="1">
+    <row r="88" spans="1:4" ht="17.25" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>4</v>
@@ -2504,7 +2684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18" thickBot="1">
+    <row r="89" spans="1:4" ht="17.25" thickBot="1">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -2516,7 +2696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18" thickBot="1">
+    <row r="90" spans="1:4" ht="17.25" thickBot="1">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -2528,7 +2708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18" thickBot="1">
+    <row r="91" spans="1:4" ht="17.25" thickBot="1">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -2540,7 +2720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18" thickBot="1">
+    <row r="92" spans="1:4" ht="17.25" thickBot="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>1</v>
@@ -2552,7 +2732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" thickBot="1">
+    <row r="93" spans="1:4" ht="17.25" thickBot="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>4</v>
@@ -2564,7 +2744,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18" thickBot="1">
+    <row r="94" spans="1:4" ht="17.25" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>1</v>
@@ -2574,7 +2754,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="18" thickBot="1">
+    <row r="95" spans="1:4" ht="17.25" thickBot="1">
       <c r="A95" s="1" t="s">
         <v>87</v>
       </c>
@@ -2588,7 +2768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18" thickBot="1">
+    <row r="96" spans="1:4" ht="17.25" thickBot="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>1</v>
@@ -2600,7 +2780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18" thickBot="1">
+    <row r="97" spans="1:4" ht="17.25" thickBot="1">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>4</v>
@@ -2612,7 +2792,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18" thickBot="1">
+    <row r="98" spans="1:4" ht="17.25" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>1</v>
@@ -2624,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18" thickBot="1">
+    <row r="99" spans="1:4" ht="17.25" thickBot="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>1</v>
@@ -2636,7 +2816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18" thickBot="1">
+    <row r="100" spans="1:4" ht="17.25" thickBot="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>4</v>
@@ -2648,7 +2828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="18" thickBot="1">
+    <row r="101" spans="1:4" ht="17.25" thickBot="1">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -2660,7 +2840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18" thickBot="1">
+    <row r="102" spans="1:4" ht="17.25" thickBot="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>1</v>
@@ -2672,7 +2852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="18" thickBot="1">
+    <row r="103" spans="1:4" ht="17.25" thickBot="1">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>4</v>
@@ -2684,7 +2864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="18" thickBot="1">
+    <row r="104" spans="1:4" ht="17.25" thickBot="1">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>1</v>
@@ -2696,7 +2876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="18" thickBot="1">
+    <row r="105" spans="1:4" ht="17.25" thickBot="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>1</v>
@@ -2708,7 +2888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="18" thickBot="1">
+    <row r="106" spans="1:4" ht="17.25" thickBot="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>4</v>
@@ -2720,7 +2900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="18" thickBot="1">
+    <row r="107" spans="1:4" ht="17.25" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -2732,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="18" thickBot="1">
+    <row r="108" spans="1:4" ht="17.25" thickBot="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>1</v>
@@ -2744,7 +2924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="18" thickBot="1">
+    <row r="109" spans="1:4" ht="17.25" thickBot="1">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>4</v>
@@ -2756,7 +2936,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="18" thickBot="1">
+    <row r="110" spans="1:4" ht="17.25" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>4</v>
@@ -2768,7 +2948,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="18" thickBot="1">
+    <row r="111" spans="1:4" ht="17.25" thickBot="1">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>4</v>
@@ -2780,7 +2960,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="18" thickBot="1">
+    <row r="112" spans="1:4" ht="17.25" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>1</v>
@@ -2792,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18" thickBot="1">
+    <row r="113" spans="1:4" ht="17.25" thickBot="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>1</v>
@@ -2804,7 +2984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18" thickBot="1">
+    <row r="114" spans="1:4" ht="17.25" thickBot="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>4</v>
@@ -2816,7 +2996,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18" thickBot="1">
+    <row r="115" spans="1:4" ht="17.25" thickBot="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>4</v>
@@ -2828,7 +3008,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18" thickBot="1">
+    <row r="116" spans="1:4" ht="17.25" thickBot="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>4</v>
@@ -2840,7 +3020,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18" thickBot="1">
+    <row r="117" spans="1:4" ht="17.25" thickBot="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>103</v>
@@ -2852,7 +3032,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18" thickBot="1">
+    <row r="118" spans="1:4" ht="17.25" thickBot="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>103</v>
@@ -2864,7 +3044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18" thickBot="1">
+    <row r="119" spans="1:4" ht="17.25" thickBot="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>4</v>
@@ -2876,7 +3056,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18" thickBot="1">
+    <row r="120" spans="1:4" ht="17.25" thickBot="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>4</v>
@@ -2888,7 +3068,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="18" thickBot="1">
+    <row r="121" spans="1:4" ht="17.25" thickBot="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>103</v>
@@ -2900,7 +3080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18" thickBot="1">
+    <row r="122" spans="1:4" ht="17.25" thickBot="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>103</v>
@@ -2912,7 +3092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18" thickBot="1">
+    <row r="123" spans="1:4" ht="17.25" thickBot="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>4</v>
@@ -2924,7 +3104,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="18" thickBot="1">
+    <row r="124" spans="1:4" ht="17.25" thickBot="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>103</v>
@@ -2936,7 +3116,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="18" thickBot="1">
+    <row r="125" spans="1:4" ht="17.25" thickBot="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>103</v>
@@ -2948,7 +3128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="18" thickBot="1">
+    <row r="126" spans="1:4" ht="17.25" thickBot="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>4</v>
@@ -2960,7 +3140,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="18" thickBot="1">
+    <row r="127" spans="1:4" ht="17.25" thickBot="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
         <v>103</v>
@@ -2972,7 +3152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="18" thickBot="1">
+    <row r="128" spans="1:4" ht="17.25" thickBot="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>4</v>
@@ -2984,7 +3164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="18" thickBot="1">
+    <row r="129" spans="1:4" ht="17.25" thickBot="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>103</v>
@@ -2996,7 +3176,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="18" thickBot="1">
+    <row r="130" spans="1:4" ht="17.25" thickBot="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
         <v>103</v>
@@ -3008,7 +3188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="18" thickBot="1">
+    <row r="131" spans="1:4" ht="17.25" thickBot="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>4</v>
@@ -3020,7 +3200,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="18" thickBot="1">
+    <row r="132" spans="1:4" ht="17.25" thickBot="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
         <v>4</v>
@@ -3032,7 +3212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="18" thickBot="1">
+    <row r="133" spans="1:4" ht="17.25" thickBot="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
         <v>1</v>
@@ -3044,7 +3224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="18" thickBot="1">
+    <row r="134" spans="1:4" ht="17.25" thickBot="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>4</v>
@@ -3056,25 +3236,25 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="18" thickBot="1">
+    <row r="135" spans="1:4" ht="17.25" thickBot="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" ht="18" thickBot="1">
+    <row r="136" spans="1:4" ht="17.25" thickBot="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" ht="18" thickBot="1">
+    <row r="137" spans="1:4" ht="17.25" thickBot="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="18" thickBot="1">
+    <row r="138" spans="1:4" ht="17.25" thickBot="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>1</v>
@@ -3084,7 +3264,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="18" thickBot="1">
+    <row r="139" spans="1:4" ht="17.25" thickBot="1">
       <c r="A139" s="1" t="s">
         <v>92</v>
       </c>
@@ -3098,7 +3278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="18" thickBot="1">
+    <row r="140" spans="1:4" ht="17.25" thickBot="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2" t="s">
         <v>4</v>
@@ -3110,7 +3290,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="18" thickBot="1">
+    <row r="141" spans="1:4" ht="17.25" thickBot="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>1</v>
@@ -3122,7 +3302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18" thickBot="1">
+    <row r="142" spans="1:4" ht="17.25" thickBot="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>4</v>
@@ -3134,7 +3314,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18" thickBot="1">
+    <row r="143" spans="1:4" ht="17.25" thickBot="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2" t="s">
         <v>1</v>
@@ -3146,7 +3326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18" thickBot="1">
+    <row r="144" spans="1:4" ht="17.25" thickBot="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2" t="s">
         <v>4</v>
@@ -3158,7 +3338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="18" thickBot="1">
+    <row r="145" spans="1:4" ht="17.25" thickBot="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
         <v>1</v>
@@ -3170,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" thickBot="1">
+    <row r="146" spans="1:4" ht="17.25" thickBot="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>4</v>
@@ -3182,7 +3362,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18" thickBot="1">
+    <row r="147" spans="1:4" ht="17.25" thickBot="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2" t="s">
         <v>1</v>
@@ -3194,7 +3374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18" thickBot="1">
+    <row r="148" spans="1:4" ht="17.25" thickBot="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2" t="s">
         <v>4</v>
@@ -3206,7 +3386,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18" thickBot="1">
+    <row r="149" spans="1:4" ht="17.25" thickBot="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2" t="s">
         <v>1</v>
@@ -3218,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18" thickBot="1">
+    <row r="150" spans="1:4" ht="17.25" thickBot="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>4</v>
@@ -3230,7 +3410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18" thickBot="1">
+    <row r="151" spans="1:4" ht="17.25" thickBot="1">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3238,11 +3418,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18" thickBot="1">
+    <row r="152" spans="1:4" ht="17.25" thickBot="1">
       <c r="A152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="18" thickBot="1">
+    <row r="153" spans="1:4" ht="17.25" thickBot="1">
       <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
@@ -3256,7 +3436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18" thickBot="1">
+    <row r="154" spans="1:4" ht="17.25" thickBot="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
         <v>4</v>
@@ -3268,7 +3448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18" thickBot="1">
+    <row r="155" spans="1:4" ht="17.25" thickBot="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
         <v>1</v>
@@ -3278,7 +3458,7 @@
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" ht="18" thickBot="1">
+    <row r="156" spans="1:4" ht="17.25" thickBot="1">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -3292,7 +3472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18" thickBot="1">
+    <row r="157" spans="1:4" ht="17.25" thickBot="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
         <v>4</v>
@@ -3304,7 +3484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18" thickBot="1">
+    <row r="158" spans="1:4" ht="17.25" thickBot="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
         <v>1</v>
@@ -3314,7 +3494,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" ht="18" thickBot="1">
+    <row r="159" spans="1:4" ht="17.25" thickBot="1">
       <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
@@ -3328,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18" thickBot="1">
+    <row r="160" spans="1:4" ht="17.25" thickBot="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
         <v>4</v>
@@ -3340,7 +3520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18" thickBot="1">
+    <row r="161" spans="1:4" ht="17.25" thickBot="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
         <v>1</v>
@@ -3350,7 +3530,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" ht="18" thickBot="1">
+    <row r="162" spans="1:4" ht="17.25" thickBot="1">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -3364,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18" thickBot="1">
+    <row r="163" spans="1:4" ht="17.25" thickBot="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
         <v>4</v>
@@ -3376,7 +3556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18" thickBot="1">
+    <row r="164" spans="1:4" ht="17.25" thickBot="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
         <v>1</v>
@@ -3395,21 +3575,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="3" max="3" width="31.3984375" customWidth="1"/>
-    <col min="4" max="4" width="53.09765625" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3422,8 +3602,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1">
+      <c r="E1" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -3432,66 +3615,88 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1">
+        <v>187</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" thickBot="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1">
+        <v>189</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -3500,101 +3705,134 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1">
+        <v>191</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" thickBot="1">
+        <v>183</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1">
+        <v>192</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" thickBot="1">
+        <v>123</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" thickBot="1">
+        <v>194</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -3604,174 +3842,217 @@
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
+      <c r="E17" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
+        <v>196</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
-      <c r="B21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
-      <c r="A22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
-      <c r="A23" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" thickBot="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
+        <v>200</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
-      <c r="A28" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
+      <c r="E31" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>4</v>
@@ -3780,94 +4061,118 @@
         <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
+        <v>129</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" thickBot="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
+        <v>201</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" thickBot="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
+        <v>202</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" thickBot="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>4</v>
@@ -3876,10 +4181,13 @@
         <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
+        <v>66</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>4</v>
@@ -3888,10 +4196,13 @@
         <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
+        <v>204</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -3902,8 +4213,11 @@
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+      <c r="E42" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -3914,386 +4228,485 @@
       <c r="D43" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
+      <c r="E43" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1">
+        <v>130</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" thickBot="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>1</v>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1">
+        <v>210</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1">
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18" thickBot="1">
-      <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18" thickBot="1">
-      <c r="B52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="18" thickBot="1">
-      <c r="B53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1">
-      <c r="B54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E53" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1">
-      <c r="B55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1">
-      <c r="B56" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18" thickBot="1">
+      <c r="D58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="18" thickBot="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="18" thickBot="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="18" thickBot="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="18" thickBot="1">
-      <c r="A65" s="2"/>
+      <c r="D64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" thickBot="1">
       <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="18" thickBot="1">
-      <c r="A66" s="2"/>
+      <c r="D65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" thickBot="1">
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="18" thickBot="1">
-      <c r="A67" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="18" thickBot="1">
+      <c r="E67" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="18" thickBot="1">
+      <c r="E68" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" thickBot="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="18" thickBot="1">
-      <c r="A70" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="18" thickBot="1">
+      <c r="E70" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17.25" thickBot="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="18" thickBot="1">
+      <c r="E71" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" thickBot="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="18" thickBot="1">
+      <c r="B72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" thickBot="1">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="18" thickBot="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="18" thickBot="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="18" thickBot="1">
+        <v>214</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" thickBot="1">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>4</v>
@@ -4302,32 +4715,43 @@
         <v>21</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="18" thickBot="1">
+        <v>149</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D77" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" thickBot="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17.25" thickBot="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>4</v>
@@ -4336,524 +4760,654 @@
         <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="18" thickBot="1">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18" thickBot="1">
+        <v>150</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17.25" thickBot="1">
       <c r="A81" s="2"/>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="18" thickBot="1">
+      <c r="D81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17.25" thickBot="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="18" thickBot="1">
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17.25" thickBot="1">
       <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="18" thickBot="1">
+      <c r="B83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" thickBot="1">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>158</v>
+        <v>4</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="18" thickBot="1">
+        <v>151</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="17.25" thickBot="1">
       <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="18" thickBot="1">
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17.25" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17.25" thickBot="1">
       <c r="A87" s="2"/>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="18" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17.25" thickBot="1">
       <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="18" thickBot="1">
+      <c r="B88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17.25" thickBot="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="18" thickBot="1">
+      <c r="B89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" thickBot="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="18" thickBot="1">
+        <v>134</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17.25" thickBot="1">
       <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
-        <v>4</v>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="18" thickBot="1">
+        <v>19</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17.25" thickBot="1">
       <c r="A92" s="2"/>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="18" thickBot="1">
+        <v>137</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17.25" thickBot="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="18" thickBot="1">
+        <v>139</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>165</v>
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" thickBot="1">
       <c r="A95" s="2"/>
-      <c r="B95" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="18" thickBot="1">
+      <c r="B95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17.25" thickBot="1">
       <c r="A96" s="2"/>
-      <c r="B96" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:4" ht="18" thickBot="1">
-      <c r="A97" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="B96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="18" thickBot="1">
+      <c r="E97" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17.25" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="17.25" thickBot="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="18" thickBot="1">
+        <v>143</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17.25" thickBot="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="18" thickBot="1">
+        <v>144</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17.25" thickBot="1">
       <c r="A101" s="2"/>
-      <c r="B101" s="1" t="s">
-        <v>1</v>
+      <c r="B101" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="18" thickBot="1">
+        <v>219</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="17.25" thickBot="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A103" s="2"/>
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="18" thickBot="1">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="18" thickBot="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="18" thickBot="1">
+      <c r="E104" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="17.25" thickBot="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="18" thickBot="1">
+        <v>221</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="17.25" thickBot="1">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="18" thickBot="1">
+        <v>147</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="17.25" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="18" thickBot="1">
+        <v>127</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17.25" thickBot="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="18" thickBot="1">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="18" thickBot="1">
+        <v>7</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17.25" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="17.25" thickBot="1">
       <c r="A111" s="2"/>
-      <c r="B111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="18" thickBot="1">
+      <c r="B111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="17.25" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>158</v>
+      <c r="C112" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="18" thickBot="1">
+      <c r="E112" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="17.25" thickBot="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="18" thickBot="1">
+      <c r="E113" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="17.25" thickBot="1">
       <c r="A114" s="2"/>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="18" thickBot="1">
+      <c r="B114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="17.25" thickBot="1">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="18" thickBot="1">
-      <c r="A116" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="17.25" thickBot="1">
       <c r="A117" s="2"/>
-      <c r="B117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>5</v>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="18" thickBot="1">
+        <v>214</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="17.25" thickBot="1">
       <c r="A118" s="2"/>
-      <c r="B118" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4" ht="18" thickBot="1">
+      <c r="B118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="17.25" thickBot="1">
       <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="18" thickBot="1">
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="17.25" thickBot="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="17.25" thickBot="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" ht="18" thickBot="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="18" thickBot="1">
+        <v>20</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="17.25" thickBot="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>1</v>
@@ -4861,446 +5415,559 @@
       <c r="C123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" ht="18" thickBot="1">
+      <c r="D123" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="17.25" thickBot="1">
       <c r="A124" s="2"/>
-      <c r="B124" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="18" thickBot="1">
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="17.25" thickBot="1">
       <c r="A125" s="2"/>
-      <c r="B125" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4" ht="18" thickBot="1">
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="17.25" thickBot="1">
       <c r="A126" s="2"/>
-      <c r="B126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="18" thickBot="1">
+      <c r="B126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="17.25" thickBot="1">
       <c r="A127" s="2"/>
-      <c r="B127" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4" ht="18" thickBot="1">
+      <c r="B127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="17.25" thickBot="1">
       <c r="A128" s="2"/>
-      <c r="B128" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="18" thickBot="1">
+      <c r="B128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="17.25" thickBot="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="17.25" thickBot="1">
       <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:4" ht="18" thickBot="1">
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="17.25" thickBot="1">
       <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="18" thickBot="1">
+      <c r="B131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="17.25" thickBot="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" ht="18" thickBot="1">
-      <c r="A133" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>24</v>
+      <c r="C133" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="18" thickBot="1">
+      <c r="E133" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="17.25" thickBot="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="18" thickBot="1">
+      <c r="E134" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="17.25" thickBot="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="18" thickBot="1">
+        <v>139</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="17.25" thickBot="1">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>22</v>
+      <c r="C136" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="18" thickBot="1">
+      <c r="E136" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="17.25" thickBot="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="18" thickBot="1">
+      <c r="E137" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="17.25" thickBot="1">
       <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="18" thickBot="1">
+        <v>217</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="17.25" thickBot="1">
       <c r="A139" s="2"/>
       <c r="B139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="17.25" thickBot="1">
       <c r="A140" s="2"/>
-      <c r="B140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="18" thickBot="1">
+      <c r="B140" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="17.25" thickBot="1">
       <c r="A141" s="2"/>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="18" thickBot="1">
+      <c r="B141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="17.25" thickBot="1">
       <c r="A142" s="2"/>
-      <c r="B142" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="18" thickBot="1">
+      <c r="B142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="17.25" thickBot="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="18" thickBot="1">
+        <v>220</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17.25" thickBot="1">
       <c r="A144" s="2"/>
-      <c r="B144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="2"/>
       <c r="D144" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="18" thickBot="1">
+        <v>145</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="17.25" thickBot="1">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>22</v>
+      <c r="C145" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="18" thickBot="1">
+      <c r="E145" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="17.25" thickBot="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="18" thickBot="1">
+      <c r="E146" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="17.25" thickBot="1">
       <c r="A147" s="2"/>
-      <c r="B147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="18" thickBot="1">
+      <c r="B147" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="17.25" thickBot="1">
       <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="18" thickBot="1">
+        <v>147</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="17.25" thickBot="1">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="18" thickBot="1">
+        <v>103</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="17.25" thickBot="1">
       <c r="A150" s="2"/>
-      <c r="B150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="18" thickBot="1">
-      <c r="A151" s="2"/>
-      <c r="B151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="18" thickBot="1">
+      <c r="B150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A151" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="17.25" thickBot="1">
       <c r="A152" s="2"/>
-      <c r="B152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="18" thickBot="1">
+      <c r="B152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="17.25" thickBot="1">
       <c r="A153" s="2"/>
-      <c r="B153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="18" thickBot="1">
+      <c r="B153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="17.25" thickBot="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="18" thickBot="1">
+        <v>188</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="17.25" thickBot="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="18" thickBot="1">
-      <c r="B156" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D156" s="5"/>
-    </row>
-    <row r="157" spans="1:4" ht="18" thickBot="1">
-      <c r="A157" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="18" thickBot="1">
+        <v>189</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="17.25" thickBot="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="18" thickBot="1">
-      <c r="A159" s="2"/>
-      <c r="B159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="18" thickBot="1">
+      <c r="D159" s="2"/>
+      <c r="E159" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="17.25" thickBot="1">
       <c r="A160" s="2"/>
-      <c r="B160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="18" thickBot="1">
+      <c r="B160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17.25" thickBot="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
         <v>1</v>
@@ -5308,867 +5975,2196 @@
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="18" thickBot="1">
+      <c r="D161" s="2"/>
+      <c r="E161" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17.25" thickBot="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="18" thickBot="1">
+        <v>229</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="17.25" thickBot="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="18" thickBot="1">
+        <v>19</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="17.25" thickBot="1">
       <c r="A164" s="2"/>
-      <c r="B164" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="18" thickBot="1">
+      <c r="B164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="17.25" thickBot="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="18" thickBot="1">
-      <c r="A166" s="2"/>
-      <c r="B166" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="18" thickBot="1">
-      <c r="A167" s="2"/>
-      <c r="B167" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="18" thickBot="1">
-      <c r="A168" s="2"/>
-      <c r="B168" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="18" thickBot="1">
+      <c r="D168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="17.25" thickBot="1">
       <c r="A169" s="2"/>
-      <c r="B169" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="18" thickBot="1">
+      <c r="B169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="17.25" thickBot="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="18" thickBot="1">
+        <v>205</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="17.25" thickBot="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="18" thickBot="1">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="18" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="17.25" thickBot="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="18" thickBot="1">
-      <c r="A174" s="2"/>
-      <c r="B174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="18" thickBot="1">
-      <c r="A175" s="2"/>
-      <c r="B175" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="18" thickBot="1">
+      <c r="E175" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="17.25" thickBot="1">
       <c r="A176" s="2"/>
-      <c r="B176" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="18" thickBot="1">
+      <c r="B176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="17.25" thickBot="1">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="17.25" thickBot="1">
       <c r="A178" s="2"/>
-      <c r="B178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="18" thickBot="1">
+      <c r="B178" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="17.25" thickBot="1">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="18" thickBot="1">
+        <v>231</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="17.25" thickBot="1">
       <c r="A180" s="2"/>
-      <c r="B180" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="18" thickBot="1">
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="17.25" thickBot="1">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="17.25" thickBot="1">
       <c r="A182" s="2"/>
-      <c r="B182" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="18" thickBot="1">
+      <c r="B182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="17.25" thickBot="1">
       <c r="A183" s="2"/>
-      <c r="B183" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="1:4" ht="18" thickBot="1">
+      <c r="B183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="17.25" thickBot="1">
       <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="18" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="17.25" thickBot="1">
       <c r="A185" s="2"/>
-      <c r="B185" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="18" thickBot="1">
+      <c r="B185" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="17.25" thickBot="1">
       <c r="A186" s="2"/>
-      <c r="B186" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="18" thickBot="1">
+      <c r="B186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="17.25" thickBot="1">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="18" thickBot="1">
+        <v>66</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="17.25" thickBot="1">
       <c r="A188" s="2"/>
-      <c r="B188" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="18" thickBot="1">
+      <c r="B188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="17.25" thickBot="1">
       <c r="A189" s="2"/>
-      <c r="B189" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="18" thickBot="1">
+      <c r="B189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="17.25" thickBot="1">
       <c r="A190" s="2"/>
-      <c r="B190" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="18" thickBot="1">
+      <c r="B190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="17.25" thickBot="1">
       <c r="A191" s="2"/>
       <c r="B191" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>161</v>
+        <v>4</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="18" thickBot="1">
+        <v>157</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="17.25" thickBot="1">
       <c r="A192" s="2"/>
       <c r="B192" s="1" t="s">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="18" thickBot="1">
+        <v>22</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="17.25" thickBot="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="17.25" thickBot="1">
       <c r="A194" s="2"/>
       <c r="B194" s="1" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="18" thickBot="1">
+        <v>158</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="17.25" thickBot="1">
       <c r="A195" s="2"/>
-      <c r="B195" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="18" thickBot="1">
+      <c r="B195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="17.25" thickBot="1">
       <c r="A196" s="2"/>
-      <c r="B196" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="18" thickBot="1">
+      <c r="B196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="17.25" thickBot="1">
       <c r="A197" s="2"/>
-      <c r="B197" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="18" thickBot="1">
+      <c r="B197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="17.25" thickBot="1">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="18" thickBot="1">
+        <v>160</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="17.25" thickBot="1">
       <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="18" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="17.25" thickBot="1">
       <c r="A200" s="2"/>
       <c r="B200" s="1" t="s">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A203" s="3"/>
+      <c r="B203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B204" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D204" s="5"/>
+      <c r="E204" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A205" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="18" thickBot="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="18" thickBot="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="18" thickBot="1">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="18" thickBot="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="18" thickBot="1">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="18" thickBot="1">
+      <c r="B205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="17.25" thickBot="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="17.25" thickBot="1">
       <c r="A207" s="2"/>
       <c r="B207" s="1" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="18" thickBot="1">
+        <v>162</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="17.25" thickBot="1">
       <c r="A208" s="2"/>
       <c r="B208" s="1" t="s">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="18" thickBot="1">
+        <v>24</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="17.25" thickBot="1">
       <c r="A209" s="2"/>
-      <c r="B209" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>161</v>
+      <c r="B209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17.25" thickBot="1">
       <c r="A210" s="2"/>
-      <c r="B210" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>161</v>
+      <c r="B210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="18" thickBot="1">
+        <v>240</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17.25" thickBot="1">
       <c r="A211" s="2"/>
-      <c r="B211" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="18" thickBot="1">
+      <c r="B211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="17.25" thickBot="1">
       <c r="A212" s="2"/>
-      <c r="B212" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="1:4" ht="18" thickBot="1">
+      <c r="B212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="17.25" thickBot="1">
       <c r="A213" s="2"/>
       <c r="B213" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D213" s="1"/>
-    </row>
-    <row r="214" spans="1:4" ht="18" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17.25" thickBot="1">
       <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-    </row>
-    <row r="215" spans="1:4" ht="18" thickBot="1">
-      <c r="A215" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>2</v>
+      <c r="B214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A215" s="2"/>
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="18" thickBot="1">
+        <v>241</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="17.25" thickBot="1">
       <c r="A216" s="2"/>
-      <c r="B216" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="18" thickBot="1">
+      <c r="B216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17.25" thickBot="1">
       <c r="A217" s="2"/>
-      <c r="B217" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="18" thickBot="1">
+      <c r="B217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="17.25" thickBot="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="18" thickBot="1">
-      <c r="A219" s="2"/>
-      <c r="B219" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="18" thickBot="1">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="18" thickBot="1">
+      <c r="D219" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17.25" thickBot="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="17.25" thickBot="1">
       <c r="A222" s="2"/>
       <c r="B222" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>158</v>
+        <v>4</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="18" thickBot="1">
+        <v>244</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="17.25" thickBot="1">
       <c r="A223" s="2"/>
-      <c r="B223" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="18" thickBot="1">
+      <c r="B223" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="17.25" thickBot="1">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="18" thickBot="1">
+        <v>245</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="17.25" thickBot="1">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="18" thickBot="1">
+        <v>165</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="17.25" thickBot="1">
       <c r="A226" s="2"/>
-      <c r="B226" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="18" thickBot="1">
+      <c r="B226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="17.25" thickBot="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="18" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="17.25" thickBot="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="18" thickBot="1">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="18" thickBot="1">
+        <v>246</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="17.25" thickBot="1">
       <c r="A230" s="2"/>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="18" thickBot="1">
+        <v>19</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="17.25" thickBot="1">
       <c r="A231" s="2"/>
-      <c r="B231" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="18" thickBot="1">
+      <c r="B231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="17.25" thickBot="1">
       <c r="A232" s="2"/>
       <c r="B232" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="18" thickBot="1">
+        <v>167</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="17.25" thickBot="1">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D233" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="E233" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A234" s="2"/>
+      <c r="B234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A236" s="2"/>
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A237" s="2"/>
+      <c r="B237" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A238" s="2"/>
+      <c r="B238" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A239" s="2"/>
+      <c r="B239" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A240" s="2"/>
+      <c r="B240" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A242" s="2"/>
+      <c r="B242" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A245" s="2"/>
+      <c r="B245" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A246" s="2"/>
+      <c r="B246" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A247" s="2"/>
+      <c r="B247" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A248" s="2"/>
+      <c r="B248" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A250" s="2"/>
+      <c r="B250" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A254" s="2"/>
+      <c r="B254" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A255" s="2"/>
+      <c r="B255" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A256" s="2"/>
+      <c r="B256" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A257" s="2"/>
+      <c r="B257" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A258" s="2"/>
+      <c r="B258" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A260" s="2"/>
+      <c r="B260" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A263" s="2"/>
+      <c r="B263" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A264" s="2"/>
+      <c r="B264" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A265" s="2"/>
+      <c r="B265" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A266" s="2"/>
+      <c r="B266" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A267" s="2"/>
+      <c r="B267" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A268" s="2"/>
+      <c r="B268" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A269" s="2"/>
+      <c r="B269" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D269" s="6"/>
+      <c r="E269" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A270" s="2"/>
+      <c r="B270" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D270" s="1"/>
+      <c r="E270" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A271" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A273" s="2"/>
+      <c r="B273" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A274" s="2"/>
+      <c r="B274" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A279" s="2"/>
+      <c r="B279" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A281" s="2"/>
+      <c r="B281" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A282" s="2"/>
+      <c r="B282" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A283" s="2"/>
+      <c r="B283" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A284" s="2"/>
+      <c r="B284" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A285" s="2"/>
+      <c r="B285" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A286" s="2"/>
+      <c r="B286" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A287" s="2"/>
+      <c r="B287" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A288" s="2"/>
+      <c r="B288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A289" s="2"/>
+      <c r="B289" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A291" s="2"/>
+      <c r="B291" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A293" s="2"/>
+      <c r="B293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A294" s="2"/>
+      <c r="B294" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A296" s="2"/>
+      <c r="B296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A297" s="2"/>
+      <c r="B297" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A302" s="2"/>
+      <c r="B302" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A305" s="2"/>
+      <c r="B305" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A306" s="2"/>
+      <c r="B306" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="2"/>
+      <c r="E307" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6178,7 +8174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="278">
   <si>
     <t>Story01Start</t>
   </si>
@@ -741,10 +741,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>…아니마.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>(미나…. 지금 막 그 지역에 봉쇄령이 떨어졌어.)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -753,18 +749,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>리타….;불꽃의 아니마야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>미사가 죽던 날….;나타났던 아니마라고.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(네 심정은 이해하지만….)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>(지금 그곳은 위험지역이야….)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -777,10 +765,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>난…. 더 깊이 들어가봐야겠어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>(미나? 미나!)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -821,18 +805,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>미안.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>…….;그렇다고 하면.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>얼마 전, 미사가 있는 병원에서 있었던 폭발.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>선배가 그런건가요?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -945,10 +921,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>자, 잠깐만요!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>….</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1082,6 +1054,54 @@
   </si>
   <si>
     <t>레이나가 죽기 전에 도착하려면….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…이 불꽃.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미나…? 들려?)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(…지금 그 지역에 아니마가 발생했어.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리타….;이건 불꽃의 아니마야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(….;네 심정은 이해하지만….)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니. 안되겠어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난…. 만나봐야겠어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마 전. 미사가 있는 병원에서 있었던 폭발.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자 잠깐만요!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안하게 됐어.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3575,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3603,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
@@ -3615,40 +3635,40 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>267</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1">
@@ -3660,25 +3680,25 @@
         <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1">
@@ -3687,43 +3707,43 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1">
@@ -3732,28 +3752,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1">
@@ -3765,25 +3785,25 @@
         <v>123</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1">
@@ -3792,13 +3812,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1">
@@ -3807,13 +3827,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1">
@@ -3822,13 +3842,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1">
@@ -3837,13 +3857,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1">
@@ -3852,13 +3872,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1">
@@ -3867,13 +3887,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1">
@@ -3882,13 +3902,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1">
@@ -3897,58 +3917,58 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="E22" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1">
@@ -3957,129 +3977,131 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1">
-      <c r="B29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>128</v>
+      <c r="D29" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>61</v>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>129</v>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
+      <c r="A33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1">
@@ -4088,163 +4110,161 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>201</v>
+      <c r="B35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>202</v>
+      <c r="A36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>23</v>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.25" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.25" thickBot="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>66</v>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>204</v>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>23</v>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>4</v>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1">
@@ -4252,14 +4272,14 @@
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>209</v>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.25" thickBot="1">
@@ -4267,59 +4287,59 @@
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>210</v>
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.25" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>23</v>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.25" thickBot="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>211</v>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.25" thickBot="1">
@@ -4327,14 +4347,14 @@
       <c r="B50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>131</v>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.25" thickBot="1">
@@ -4342,89 +4362,89 @@
       <c r="B51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>207</v>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.25" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.25" thickBot="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>23</v>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.25" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.25" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.25" thickBot="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>23</v>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.25" thickBot="1">
@@ -4436,100 +4456,104 @@
         <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.25" thickBot="1">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.25" thickBot="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.25" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17.25" thickBot="1">
-      <c r="B61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.25" thickBot="1">
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E62" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.25" thickBot="1">
-      <c r="B63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>23</v>
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
@@ -4537,278 +4561,274 @@
         <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" thickBot="1">
-      <c r="B65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="E70" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" thickBot="1">
-      <c r="B66" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E71" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.25" thickBot="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.25" thickBot="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>214</v>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17.25" thickBot="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>149</v>
+      <c r="B76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.25" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="17.25" thickBot="1">
       <c r="A78" s="2"/>
-      <c r="B78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>23</v>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.25" thickBot="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>3</v>
+      <c r="D80" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.25" thickBot="1">
       <c r="A81" s="2"/>
-      <c r="B81" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>23</v>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.25" thickBot="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>215</v>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.25" thickBot="1">
@@ -4819,11 +4839,11 @@
       <c r="C83" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>213</v>
+      <c r="D83" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.25" thickBot="1">
@@ -4835,143 +4855,145 @@
         <v>21</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.25" thickBot="1">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.25" thickBot="1">
       <c r="A86" s="2"/>
-      <c r="B86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>3</v>
+      <c r="B86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.25" thickBot="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A88" s="2"/>
+      <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.25" thickBot="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1" t="s">
-        <v>216</v>
+      <c r="B89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.25" thickBot="1">
       <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>134</v>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.25" thickBot="1">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.25" thickBot="1">
       <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>23</v>
+      <c r="B92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.25" thickBot="1">
       <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>139</v>
+      <c r="B93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.25" thickBot="1">
@@ -4979,14 +5001,14 @@
       <c r="B94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>140</v>
+      <c r="C94" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.25" thickBot="1">
@@ -4995,13 +5017,13 @@
         <v>1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.25" thickBot="1">
@@ -5010,296 +5032,294 @@
         <v>4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.25" thickBot="1">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.25" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.25" thickBot="1">
       <c r="A99" s="2"/>
-      <c r="B99" s="2" t="s">
-        <v>4</v>
+      <c r="B99" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>19</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.25" thickBot="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.25" thickBot="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.25" thickBot="1">
       <c r="A102" s="2"/>
-      <c r="B102" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>145</v>
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.25" thickBot="1">
       <c r="A103" s="2"/>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>3</v>
+        <v>141</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.25" thickBot="1">
       <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>23</v>
+      <c r="B104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.25" thickBot="1">
       <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
-        <v>218</v>
+      <c r="B105" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>221</v>
+        <v>19</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="17.25" thickBot="1">
       <c r="A106" s="2"/>
-      <c r="B106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>147</v>
+      <c r="B106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.25" thickBot="1">
       <c r="A107" s="2"/>
-      <c r="B107" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>223</v>
+      <c r="B107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.25" thickBot="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E108" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A109" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>3</v>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.25" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.25" thickBot="1">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.25" thickBot="1">
       <c r="A112" s="2"/>
-      <c r="B112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>3</v>
+      <c r="B112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.25" thickBot="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.25" thickBot="1">
       <c r="A114" s="2"/>
-      <c r="B114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>148</v>
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.25" thickBot="1">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>3</v>
+        <v>127</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.25" thickBot="1">
@@ -5308,58 +5328,58 @@
         <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="17.25" thickBot="1">
       <c r="A117" s="2"/>
-      <c r="B117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>21</v>
+      <c r="B117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.25" thickBot="1">
       <c r="A118" s="2"/>
-      <c r="B118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="B118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="2"/>
       <c r="E118" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A119" s="2"/>
+      <c r="A119" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.25" thickBot="1">
@@ -5368,43 +5388,43 @@
         <v>1</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.25" thickBot="1">
       <c r="A121" s="2"/>
-      <c r="B121" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>150</v>
+      <c r="B121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A122" s="1"/>
+      <c r="A122" s="2"/>
       <c r="B122" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.25" thickBot="1">
@@ -5413,58 +5433,58 @@
         <v>1</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.25" thickBot="1">
       <c r="A124" s="2"/>
-      <c r="B124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>215</v>
+      <c r="B124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17.25" thickBot="1">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.25" thickBot="1">
       <c r="A126" s="2"/>
-      <c r="B126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>151</v>
+      <c r="B126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.25" thickBot="1">
@@ -5475,219 +5495,219 @@
       <c r="C127" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>152</v>
+      <c r="D127" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.25" thickBot="1">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17.25" thickBot="1">
       <c r="A129" s="2"/>
-      <c r="B129" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>23</v>
+      <c r="B129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="17.25" thickBot="1">
       <c r="A130" s="2"/>
-      <c r="B130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>100</v>
+      <c r="B130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.25" thickBot="1">
       <c r="A131" s="2"/>
-      <c r="B131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1" t="s">
-        <v>216</v>
+      <c r="B131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>134</v>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.25" thickBot="1">
       <c r="A133" s="2"/>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>3</v>
+      <c r="D133" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.25" thickBot="1">
       <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>23</v>
+      <c r="B134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="17.25" thickBot="1">
       <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>139</v>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.25" thickBot="1">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>113</v>
+        <v>4</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.25" thickBot="1">
       <c r="A137" s="2"/>
-      <c r="B137" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>23</v>
+      <c r="B137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.25" thickBot="1">
       <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.25" thickBot="1">
       <c r="A139" s="2"/>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.25" thickBot="1">
       <c r="A140" s="2"/>
-      <c r="B140" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>23</v>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.25" thickBot="1">
       <c r="A141" s="2"/>
-      <c r="B141" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>143</v>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.25" thickBot="1">
@@ -5696,86 +5716,88 @@
         <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.25" thickBot="1">
       <c r="A143" s="2"/>
-      <c r="B143" s="2" t="s">
-        <v>218</v>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>220</v>
+        <v>19</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="17.25" thickBot="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="17.25" thickBot="1">
       <c r="A145" s="2"/>
-      <c r="B145" s="1" t="s">
-        <v>1</v>
+      <c r="B145" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="17.25" thickBot="1">
       <c r="A146" s="2"/>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="17.25" thickBot="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="17.25" thickBot="1">
@@ -5787,25 +5809,25 @@
         <v>114</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="17.25" thickBot="1">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>223</v>
+        <v>1</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="17.25" thickBot="1">
@@ -5814,28 +5836,28 @@
         <v>1</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E150" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A151" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="17.25" thickBot="1">
@@ -5844,26 +5866,28 @@
         <v>4</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="17.25" thickBot="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E153" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="17.25" thickBot="1">
@@ -5871,29 +5895,27 @@
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="17.25" thickBot="1">
       <c r="A155" s="2"/>
-      <c r="B155" s="2" t="s">
-        <v>4</v>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>189</v>
+        <v>113</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="17.25" thickBot="1">
@@ -5902,69 +5924,73 @@
         <v>1</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E156" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="17.25" thickBot="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="17.25" thickBot="1">
       <c r="A158" s="2"/>
-      <c r="B158" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>226</v>
+      <c r="B158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="17.25" thickBot="1">
       <c r="A159" s="2"/>
-      <c r="B159" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="2"/>
+      <c r="B159" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="E159" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="17.25" thickBot="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17.25" thickBot="1">
@@ -5973,39 +5999,43 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D161" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E161" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="17.25" thickBot="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D162" s="2"/>
       <c r="E162" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A163" s="2"/>
+      <c r="A163" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B163" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E163" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="17.25" thickBot="1">
@@ -6014,41 +6044,41 @@
         <v>4</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="17.25" thickBot="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D165" s="2"/>
       <c r="E165" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="17.25" thickBot="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E166" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="17.25" thickBot="1">
@@ -6057,13 +6087,13 @@
         <v>4</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="17.25" thickBot="1">
@@ -6072,13 +6102,11 @@
         <v>1</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D168" s="2"/>
       <c r="E168" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="17.25" thickBot="1">
@@ -6087,28 +6115,28 @@
         <v>4</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="17.25" thickBot="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="17.25" thickBot="1">
@@ -6117,11 +6145,11 @@
         <v>1</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="17.25" thickBot="1">
@@ -6130,13 +6158,13 @@
         <v>4</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="17.25" thickBot="1">
@@ -6145,28 +6173,26 @@
         <v>1</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A174" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>3</v>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="17.25" thickBot="1">
@@ -6175,13 +6201,11 @@
         <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D175" s="2"/>
       <c r="E175" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="17.25" thickBot="1">
@@ -6190,28 +6214,28 @@
         <v>4</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="17.25" thickBot="1">
       <c r="A177" s="2"/>
-      <c r="B177" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>3</v>
+      <c r="B177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="17.25" thickBot="1">
@@ -6220,58 +6244,56 @@
         <v>1</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D178" s="2"/>
       <c r="E178" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="17.25" thickBot="1">
       <c r="A179" s="2"/>
-      <c r="B179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>231</v>
+      <c r="B179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="17.25" thickBot="1">
       <c r="A180" s="2"/>
-      <c r="B180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>232</v>
+      <c r="B180" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17.25" thickBot="1">
       <c r="A181" s="2"/>
-      <c r="B181" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>3</v>
+      <c r="B181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="17.25" thickBot="1">
@@ -6280,43 +6302,41 @@
         <v>1</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="17.25" thickBot="1">
       <c r="A183" s="2"/>
-      <c r="B183" s="1" t="s">
-        <v>4</v>
+      <c r="B183" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D183" s="2"/>
       <c r="E183" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="17.25" thickBot="1">
       <c r="A184" s="2"/>
-      <c r="B184" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>3</v>
+      <c r="B184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="17.25" thickBot="1">
@@ -6325,133 +6345,133 @@
         <v>1</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="17.25" thickBot="1">
       <c r="A186" s="2"/>
-      <c r="B186" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>234</v>
+      <c r="B186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17.25" thickBot="1">
       <c r="A187" s="2"/>
-      <c r="B187" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="2"/>
       <c r="E187" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A188" s="2"/>
+      <c r="A188" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="B188" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="17.25" thickBot="1">
       <c r="A189" s="2"/>
-      <c r="B189" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>3</v>
+      <c r="B189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17.25" thickBot="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="17.25" thickBot="1">
       <c r="A191" s="2"/>
       <c r="B191" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="17.25" thickBot="1">
       <c r="A192" s="2"/>
-      <c r="B192" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>3</v>
+      <c r="B192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="17.25" thickBot="1">
       <c r="A193" s="2"/>
-      <c r="B193" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>23</v>
+      <c r="B193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="17.25" thickBot="1">
@@ -6463,40 +6483,40 @@
         <v>21</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="17.25" thickBot="1">
       <c r="A195" s="2"/>
       <c r="B195" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="17.25" thickBot="1">
       <c r="A196" s="2"/>
-      <c r="B196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>236</v>
+      <c r="B196" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="17.25" thickBot="1">
@@ -6504,313 +6524,314 @@
       <c r="B197" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>237</v>
+      <c r="C197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="17.25" thickBot="1">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="17.25" thickBot="1">
       <c r="A199" s="2"/>
-      <c r="B199" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>135</v>
+      <c r="B199" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="17.25" thickBot="1">
       <c r="A200" s="2"/>
       <c r="B200" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="17.25" thickBot="1">
       <c r="A201" s="2"/>
-      <c r="B201" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>23</v>
+      <c r="B201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="17.25" thickBot="1">
       <c r="A202" s="2"/>
-      <c r="B202" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="2" t="s">
+      <c r="B202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A203" s="2"/>
+      <c r="B203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A205" s="2"/>
+      <c r="B205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A203" s="3"/>
-      <c r="B203" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="17.25" thickBot="1">
-      <c r="B204" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D204" s="5"/>
-      <c r="E204" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A205" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>3</v>
+      <c r="D205" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="17.25" thickBot="1">
       <c r="A206" s="2"/>
-      <c r="B206" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>23</v>
+      <c r="B206" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="17.25" thickBot="1">
       <c r="A207" s="2"/>
-      <c r="B207" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>162</v>
+      <c r="B207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="17.25" thickBot="1">
       <c r="A208" s="2"/>
       <c r="B208" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17.25" thickBot="1">
       <c r="A209" s="2"/>
-      <c r="B209" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>23</v>
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17.25" thickBot="1">
       <c r="A210" s="2"/>
-      <c r="B210" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>240</v>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17.25" thickBot="1">
       <c r="A211" s="2"/>
-      <c r="B211" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>262</v>
+      <c r="B211" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="17.25" thickBot="1">
       <c r="A212" s="2"/>
-      <c r="B212" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>163</v>
+      <c r="B212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="17.25" thickBot="1">
       <c r="A213" s="2"/>
       <c r="B213" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="17.25" thickBot="1">
       <c r="A214" s="2"/>
-      <c r="B214" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>23</v>
+      <c r="B214" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17.25" thickBot="1">
       <c r="A215" s="2"/>
-      <c r="B215" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>241</v>
+      <c r="B215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17.25" thickBot="1">
       <c r="A216" s="2"/>
-      <c r="B216" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>242</v>
+      <c r="B216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A217" s="2"/>
-      <c r="B217" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>3</v>
+      <c r="A217" s="3"/>
+      <c r="B217" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="17.25" thickBot="1">
@@ -6819,73 +6840,72 @@
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="17.25" thickBot="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D220" s="5"/>
+      <c r="E220" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A221" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>23</v>
+      <c r="D221" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="17.25" thickBot="1">
       <c r="A222" s="2"/>
-      <c r="B222" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>244</v>
+      <c r="B222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="17.25" thickBot="1">
@@ -6897,70 +6917,70 @@
         <v>21</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="17.25" thickBot="1">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>245</v>
+        <v>3</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="17.25" thickBot="1">
       <c r="A225" s="2"/>
-      <c r="B225" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>165</v>
+      <c r="B225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="17.25" thickBot="1">
       <c r="A226" s="2"/>
-      <c r="B226" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>3</v>
+      <c r="B226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="17.25" thickBot="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="17.25" thickBot="1">
@@ -6972,14 +6992,14 @@
         <v>20</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A229" s="1"/>
+      <c r="A229" s="2"/>
       <c r="B229" s="1" t="s">
         <v>1</v>
       </c>
@@ -6990,7 +7010,7 @@
         <v>3</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="17.25" thickBot="1">
@@ -7005,7 +7025,7 @@
         <v>23</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="17.25" thickBot="1">
@@ -7017,10 +7037,10 @@
         <v>21</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="17.25" thickBot="1">
@@ -7032,340 +7052,340 @@
         <v>21</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="17.25" thickBot="1">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="17.25" thickBot="1">
       <c r="A234" s="2"/>
-      <c r="B234" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>3</v>
+      <c r="B234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="17.25" thickBot="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A236" s="2"/>
+      <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="17.25" thickBot="1">
       <c r="A237" s="2"/>
-      <c r="B237" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>171</v>
+      <c r="B237" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="17.25" thickBot="1">
       <c r="A238" s="2"/>
-      <c r="B238" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>247</v>
+      <c r="B238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="17.25" thickBot="1">
       <c r="A239" s="2"/>
       <c r="B239" s="1" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="17.25" thickBot="1">
       <c r="A240" s="2"/>
       <c r="B240" s="1" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="17.25" thickBot="1">
       <c r="A241" s="2"/>
-      <c r="B241" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>173</v>
+      <c r="B241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="17.25" thickBot="1">
       <c r="A242" s="2"/>
       <c r="B242" s="1" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="17.25" thickBot="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="17.25" thickBot="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A245" s="2"/>
+      <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="17.25" thickBot="1">
       <c r="A246" s="2"/>
-      <c r="B246" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>142</v>
+      <c r="B246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="17.25" thickBot="1">
       <c r="A247" s="2"/>
       <c r="B247" s="1" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>251</v>
+        <v>21</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="17.25" thickBot="1">
       <c r="A248" s="2"/>
       <c r="B248" s="1" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>176</v>
+        <v>21</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="17.25" thickBot="1">
       <c r="A249" s="2"/>
-      <c r="B249" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>173</v>
+      <c r="B249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="17.25" thickBot="1">
       <c r="A250" s="2"/>
       <c r="B250" s="1" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="17.25" thickBot="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2" t="s">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="17.25" thickBot="1">
       <c r="A252" s="2"/>
-      <c r="B252" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>253</v>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="17.25" thickBot="1">
       <c r="A253" s="2"/>
-      <c r="B253" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>173</v>
+      <c r="B253" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="17.25" thickBot="1">
       <c r="A254" s="2"/>
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>170</v>
+      <c r="C254" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="17.25" thickBot="1">
@@ -7376,11 +7396,11 @@
       <c r="C255" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>254</v>
+      <c r="D255" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="17.25" thickBot="1">
@@ -7391,116 +7411,116 @@
       <c r="C256" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>178</v>
+      <c r="D256" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="17.25" thickBot="1">
       <c r="A257" s="2"/>
-      <c r="B257" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>142</v>
+      <c r="B257" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="17.25" thickBot="1">
       <c r="A258" s="2"/>
       <c r="B258" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="17.25" thickBot="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="17.25" thickBot="1">
       <c r="A260" s="2"/>
-      <c r="B260" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>171</v>
+      <c r="B260" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="17.25" thickBot="1">
       <c r="A261" s="2"/>
-      <c r="B261" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>256</v>
+      <c r="B261" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="17.25" thickBot="1">
       <c r="A262" s="2"/>
-      <c r="B262" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>175</v>
+      <c r="B262" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="17.25" thickBot="1">
       <c r="A263" s="2"/>
       <c r="B263" s="1" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>171</v>
+        <v>106</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="17.25" thickBot="1">
@@ -7512,83 +7532,85 @@
         <v>142</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="17.25" thickBot="1">
       <c r="A265" s="2"/>
-      <c r="B265" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>142</v>
+      <c r="B265" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="17.25" thickBot="1">
       <c r="A266" s="2"/>
       <c r="B266" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="17.25" thickBot="1">
       <c r="A267" s="2"/>
-      <c r="B267" s="1" t="s">
+      <c r="B267" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>182</v>
+      <c r="C267" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="17.25" thickBot="1">
       <c r="A268" s="2"/>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C268" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>259</v>
+      <c r="C268" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="17.25" thickBot="1">
       <c r="A269" s="2"/>
-      <c r="B269" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D269" s="6"/>
+      <c r="B269" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="E269" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="17.25" thickBot="1">
@@ -7596,74 +7618,74 @@
       <c r="B270" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D270" s="1"/>
+      <c r="C270" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E270" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A271" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="A271" s="2"/>
       <c r="B271" s="1" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="17.25" thickBot="1">
       <c r="A272" s="2"/>
-      <c r="B272" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>19</v>
+      <c r="B272" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="17.25" thickBot="1">
       <c r="A273" s="2"/>
       <c r="B273" s="1" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>212</v>
+        <v>142</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="17.25" thickBot="1">
       <c r="A274" s="2"/>
       <c r="B274" s="1" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="17.25" thickBot="1">
@@ -7675,308 +7697,308 @@
         <v>2</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="17.25" thickBot="1">
       <c r="A276" s="2"/>
-      <c r="B276" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>240</v>
+      <c r="B276" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="17.25" thickBot="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="17.25" thickBot="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="17.25" thickBot="1">
       <c r="A279" s="2"/>
       <c r="B279" s="1" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="17.25" thickBot="1">
       <c r="A280" s="2"/>
-      <c r="B280" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>19</v>
+      <c r="B280" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="17.25" thickBot="1">
       <c r="A281" s="2"/>
       <c r="B281" s="1" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="17.25" thickBot="1">
       <c r="A282" s="2"/>
       <c r="B282" s="1" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="17.25" thickBot="1">
       <c r="A283" s="2"/>
       <c r="B283" s="1" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="17.25" thickBot="1">
       <c r="A284" s="2"/>
       <c r="B284" s="1" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="17.25" thickBot="1">
       <c r="A285" s="2"/>
-      <c r="B285" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="B285" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D285" s="6"/>
       <c r="E285" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="17.25" thickBot="1">
       <c r="A286" s="2"/>
-      <c r="B286" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1" t="s">
-        <v>216</v>
+      <c r="B286" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="17.25" thickBot="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="17.25" thickBot="1">
       <c r="A288" s="2"/>
       <c r="B288" s="1" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D288" s="1"/>
       <c r="E288" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>23</v>
+      <c r="A289" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="17.25" thickBot="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="17.25" thickBot="1">
       <c r="A291" s="2"/>
       <c r="B291" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>113</v>
+        <v>4</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="17.25" thickBot="1">
       <c r="A292" s="2"/>
-      <c r="B292" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>23</v>
+      <c r="B292" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="17.25" thickBot="1">
       <c r="A293" s="2"/>
-      <c r="B293" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>266</v>
+      <c r="B293" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="17.25" thickBot="1">
       <c r="A294" s="2"/>
-      <c r="B294" s="1" t="s">
-        <v>1</v>
+      <c r="B294" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="17.25" thickBot="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="17.25" thickBot="1">
@@ -7985,161 +8007,161 @@
         <v>4</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="17.25" thickBot="1">
       <c r="A297" s="2"/>
-      <c r="B297" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>144</v>
+      <c r="B297" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="17.25" thickBot="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="17.25" thickBot="1">
       <c r="A299" s="2"/>
-      <c r="B299" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>106</v>
+      <c r="B299" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="17.25" thickBot="1">
       <c r="A300" s="2"/>
-      <c r="B300" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>220</v>
+      <c r="B300" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="17.25" thickBot="1">
       <c r="A301" s="2"/>
-      <c r="B301" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2" t="s">
-        <v>145</v>
+      <c r="B301" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="17.25" thickBot="1">
       <c r="A302" s="2"/>
       <c r="B302" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>113</v>
+        <v>4</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="17.25" thickBot="1">
       <c r="A303" s="2"/>
-      <c r="B303" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>23</v>
+      <c r="B303" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="17.25" thickBot="1">
       <c r="A304" s="2"/>
-      <c r="B304" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>221</v>
+      <c r="B304" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="17.25" thickBot="1">
       <c r="A305" s="2"/>
-      <c r="B305" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>269</v>
+      <c r="B305" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="17.25" thickBot="1">
       <c r="A306" s="2"/>
       <c r="B306" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D306" s="7" t="s">
-        <v>223</v>
+        <v>1</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="17.25" thickBot="1">
@@ -8148,18 +8170,316 @@
         <v>1</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D307" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E307" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="17.25" thickBot="1">
       <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
+      <c r="B308" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A309" s="2"/>
+      <c r="B309" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A311" s="2"/>
+      <c r="B311" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A312" s="2"/>
+      <c r="B312" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A313" s="2"/>
+      <c r="B313" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A315" s="2"/>
+      <c r="B315" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A316" s="2"/>
+      <c r="B316" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A317" s="2"/>
+      <c r="B317" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A319" s="2"/>
+      <c r="B319" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A320" s="2"/>
+      <c r="B320" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A321" s="2"/>
+      <c r="B321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A322" s="2"/>
+      <c r="B322" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A323" s="2"/>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A324" s="2"/>
+      <c r="B324" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A325" s="2"/>
+      <c r="B325" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A326" s="2"/>
+      <c r="B326" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A327" s="2"/>
+      <c r="B327" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="344">
   <si>
     <t>Story01Start</t>
   </si>
@@ -1359,6 +1359,14 @@
   </si>
   <si>
     <t>s_ef_ce_mine_e.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3852,10 +3860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5698,7 +5706,7 @@
         <v>21</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>190</v>
@@ -5751,14 +5759,14 @@
     </row>
     <row r="127" spans="1:5" ht="17.25" thickBot="1">
       <c r="A127" s="2"/>
-      <c r="B127" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>262</v>
+      <c r="B127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>190</v>
@@ -5773,7 +5781,7 @@
         <v>177</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>190</v>
@@ -5781,44 +5789,44 @@
     </row>
     <row r="129" spans="1:5" ht="17.25" thickBot="1">
       <c r="A129" s="2"/>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A130" s="1" t="s">
+      <c r="D130" s="5"/>
+      <c r="E130" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A131" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>23</v>
+      <c r="D131" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>190</v>
@@ -5826,14 +5834,14 @@
     </row>
     <row r="132" spans="1:5" ht="17.25" thickBot="1">
       <c r="A132" s="2"/>
-      <c r="B132" s="1" t="s">
-        <v>4</v>
+      <c r="B132" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>190</v>
@@ -5844,11 +5852,11 @@
       <c r="B133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>299</v>
+      <c r="C133" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>190</v>
@@ -5857,13 +5865,13 @@
     <row r="134" spans="1:5" ht="17.25" thickBot="1">
       <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>3</v>
+        <v>299</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>190</v>
@@ -5871,14 +5879,14 @@
     </row>
     <row r="135" spans="1:5" ht="17.25" thickBot="1">
       <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>23</v>
+      <c r="B135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>190</v>
@@ -5887,13 +5895,13 @@
     <row r="136" spans="1:5" ht="17.25" thickBot="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>190</v>
@@ -5901,14 +5909,14 @@
     </row>
     <row r="137" spans="1:5" ht="17.25" thickBot="1">
       <c r="A137" s="2"/>
-      <c r="B137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>3</v>
+      <c r="B137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>190</v>
@@ -5916,14 +5924,14 @@
     </row>
     <row r="138" spans="1:5" ht="17.25" thickBot="1">
       <c r="A138" s="2"/>
-      <c r="B138" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>23</v>
+      <c r="B138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>190</v>
@@ -5931,14 +5939,14 @@
     </row>
     <row r="139" spans="1:5" ht="17.25" thickBot="1">
       <c r="A139" s="2"/>
-      <c r="B139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>21</v>
+      <c r="B139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>190</v>
@@ -5947,13 +5955,13 @@
     <row r="140" spans="1:5" ht="17.25" thickBot="1">
       <c r="A140" s="2"/>
       <c r="B140" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>190</v>
@@ -5961,14 +5969,14 @@
     </row>
     <row r="141" spans="1:5" ht="17.25" thickBot="1">
       <c r="A141" s="2"/>
-      <c r="B141" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>23</v>
+      <c r="B141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>190</v>
@@ -5977,13 +5985,13 @@
     <row r="142" spans="1:5" ht="17.25" thickBot="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>190</v>
@@ -5991,14 +5999,14 @@
     </row>
     <row r="143" spans="1:5" ht="17.25" thickBot="1">
       <c r="A143" s="2"/>
-      <c r="B143" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>3</v>
+      <c r="B143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>190</v>
@@ -6006,14 +6014,14 @@
     </row>
     <row r="144" spans="1:5" ht="17.25" thickBot="1">
       <c r="A144" s="2"/>
-      <c r="B144" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>23</v>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>190</v>
@@ -6021,14 +6029,14 @@
     </row>
     <row r="145" spans="1:5" ht="17.25" thickBot="1">
       <c r="A145" s="2"/>
-      <c r="B145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>21</v>
+      <c r="B145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>322</v>
+        <v>23</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>190</v>
@@ -6042,8 +6050,8 @@
       <c r="C146" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>145</v>
+      <c r="D146" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>190</v>
@@ -6052,13 +6060,13 @@
     <row r="147" spans="1:5" ht="17.25" thickBot="1">
       <c r="A147" s="2"/>
       <c r="B147" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>190</v>
@@ -6066,14 +6074,14 @@
     </row>
     <row r="148" spans="1:5" ht="17.25" thickBot="1">
       <c r="A148" s="2"/>
-      <c r="B148" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>23</v>
+      <c r="B148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>190</v>
@@ -6082,13 +6090,13 @@
     <row r="149" spans="1:5" ht="17.25" thickBot="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>190</v>
@@ -6103,37 +6111,37 @@
         <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="E151" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>23</v>
+      <c r="D152" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>190</v>
@@ -6141,14 +6149,14 @@
     </row>
     <row r="153" spans="1:5" ht="17.25" thickBot="1">
       <c r="A153" s="2"/>
-      <c r="B153" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>195</v>
+      <c r="B153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>190</v>
@@ -6163,7 +6171,7 @@
         <v>21</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>190</v>
@@ -6178,7 +6186,7 @@
         <v>21</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>190</v>
@@ -6193,7 +6201,7 @@
         <v>21</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>190</v>
@@ -6205,10 +6213,10 @@
         <v>4</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>190</v>
@@ -6216,14 +6224,14 @@
     </row>
     <row r="158" spans="1:5" ht="17.25" thickBot="1">
       <c r="A158" s="2"/>
-      <c r="B158" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>262</v>
+      <c r="B158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>190</v>
@@ -6238,7 +6246,7 @@
         <v>177</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>190</v>
@@ -6246,44 +6254,44 @@
     </row>
     <row r="160" spans="1:5" ht="17.25" thickBot="1">
       <c r="A160" s="2"/>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A161" s="2"/>
+      <c r="B161" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A161" s="1" t="s">
+      <c r="D161" s="5"/>
+      <c r="E161" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A162" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" s="2" t="s">
+      <c r="B162" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D162" s="1">
         <v>2</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A162" s="2"/>
-      <c r="B162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>190</v>
@@ -6291,28 +6299,44 @@
     </row>
     <row r="163" spans="1:5" ht="17.25" thickBot="1">
       <c r="A163" s="2"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D163" s="1"/>
-      <c r="E163" s="4"/>
+      <c r="E163" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="164" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A164" s="2"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="4"/>
+      <c r="A164" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="165" spans="1:5" ht="17.25" thickBot="1">
       <c r="A165" s="2"/>
-      <c r="B165" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>266</v>
+      <c r="B165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>190</v>
@@ -6324,10 +6348,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>190</v>
@@ -6335,15 +6359,13 @@
     </row>
     <row r="167" spans="1:5" ht="17.25" thickBot="1">
       <c r="A167" s="2"/>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D167" s="2"/>
       <c r="E167" s="4" t="s">
         <v>190</v>
       </c>
@@ -6351,13 +6373,13 @@
     <row r="168" spans="1:5" ht="17.25" thickBot="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>190</v>
@@ -6366,13 +6388,13 @@
     <row r="169" spans="1:5" ht="17.25" thickBot="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>306</v>
+        <v>3</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>190</v>
@@ -6384,175 +6406,93 @@
         <v>4</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>307</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D170" s="2"/>
       <c r="E170" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="17.25" thickBot="1">
       <c r="A171" s="2"/>
-      <c r="B171" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="4"/>
     </row>
     <row r="172" spans="1:5" ht="17.25" thickBot="1">
       <c r="A172" s="2"/>
-      <c r="B172" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="4"/>
     </row>
     <row r="173" spans="1:5" ht="17.25" thickBot="1">
       <c r="A173" s="2"/>
-      <c r="B173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="4"/>
     </row>
     <row r="174" spans="1:5" ht="17.25" thickBot="1">
       <c r="A174" s="2"/>
-      <c r="B174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="4"/>
     </row>
     <row r="175" spans="1:5" ht="17.25" thickBot="1">
       <c r="A175" s="2"/>
-      <c r="B175" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="4"/>
     </row>
     <row r="176" spans="1:5" ht="17.25" thickBot="1">
       <c r="A176" s="2"/>
-      <c r="B176" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="4"/>
     </row>
     <row r="177" spans="1:5" ht="17.25" thickBot="1">
       <c r="A177" s="2"/>
-      <c r="B177" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="4"/>
     </row>
     <row r="178" spans="1:5" ht="17.25" thickBot="1">
       <c r="A178" s="2"/>
-      <c r="B178" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="4"/>
     </row>
     <row r="179" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="4"/>
     </row>
     <row r="180" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A180" s="2"/>
-      <c r="B180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5" ht="17.25" thickBot="1">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>190</v>
@@ -6560,33 +6500,17 @@
     </row>
     <row r="182" spans="1:5" ht="17.25" thickBot="1">
       <c r="A182" s="2"/>
-      <c r="B182" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="4"/>
     </row>
     <row r="183" spans="1:5" ht="17.25" thickBot="1">
       <c r="A183" s="2"/>
-      <c r="B183" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="4"/>
     </row>
     <row r="184" spans="1:5" ht="17.25" thickBot="1">
       <c r="A184" s="2"/>
@@ -6594,10 +6518,10 @@
         <v>4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>190</v>
@@ -6606,13 +6530,13 @@
     <row r="185" spans="1:5" ht="17.25" thickBot="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>190</v>
@@ -6620,12 +6544,14 @@
     </row>
     <row r="186" spans="1:5" ht="17.25" thickBot="1">
       <c r="A186" s="2"/>
-      <c r="B186" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2" t="s">
-        <v>141</v>
+      <c r="B186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>190</v>
@@ -6634,13 +6560,13 @@
     <row r="187" spans="1:5" ht="17.25" thickBot="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>190</v>
@@ -6648,14 +6574,14 @@
     </row>
     <row r="188" spans="1:5" ht="17.25" thickBot="1">
       <c r="A188" s="2"/>
-      <c r="B188" s="1" t="s">
-        <v>1</v>
+      <c r="B188" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>190</v>
@@ -6664,13 +6590,13 @@
     <row r="189" spans="1:5" ht="17.25" thickBot="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>23</v>
+        <v>307</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>190</v>
@@ -6678,14 +6604,14 @@
     </row>
     <row r="190" spans="1:5" ht="17.25" thickBot="1">
       <c r="A190" s="2"/>
-      <c r="B190" s="2" t="s">
-        <v>103</v>
+      <c r="B190" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>200</v>
+        <v>113</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>190</v>
@@ -6693,14 +6619,14 @@
     </row>
     <row r="191" spans="1:5" ht="17.25" thickBot="1">
       <c r="A191" s="2"/>
-      <c r="B191" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>143</v>
+      <c r="B191" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>190</v>
@@ -6709,13 +6635,13 @@
     <row r="192" spans="1:5" ht="17.25" thickBot="1">
       <c r="A192" s="2"/>
       <c r="B192" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D192" s="7">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>190</v>
@@ -6723,13 +6649,13 @@
     </row>
     <row r="193" spans="1:5" ht="17.25" thickBot="1">
       <c r="A193" s="2"/>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E193" s="4" t="s">
@@ -6742,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>23</v>
@@ -6754,28 +6680,28 @@
     <row r="195" spans="1:5" ht="17.25" thickBot="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="E195" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A196" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>190</v>
@@ -6783,14 +6709,14 @@
     </row>
     <row r="197" spans="1:5" ht="17.25" thickBot="1">
       <c r="A197" s="2"/>
-      <c r="B197" s="2" t="s">
-        <v>4</v>
+      <c r="B197" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>190</v>
@@ -6802,23 +6728,25 @@
         <v>1</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E198" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="17.25" thickBot="1">
       <c r="A199" s="2"/>
-      <c r="B199" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>180</v>
+      <c r="B199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>190</v>
@@ -6826,14 +6754,14 @@
     </row>
     <row r="200" spans="1:5" ht="17.25" thickBot="1">
       <c r="A200" s="2"/>
-      <c r="B200" s="2" t="s">
-        <v>4</v>
+      <c r="B200" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>181</v>
+        <v>19</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>190</v>
@@ -6845,9 +6773,11 @@
         <v>1</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D201" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E201" s="4" t="s">
         <v>190</v>
       </c>
@@ -6858,10 +6788,10 @@
         <v>4</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>190</v>
@@ -6873,10 +6803,10 @@
         <v>4</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>190</v>
@@ -6885,12 +6815,14 @@
     <row r="204" spans="1:5" ht="17.25" thickBot="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D204" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E204" s="4" t="s">
         <v>190</v>
       </c>
@@ -6900,11 +6832,9 @@
       <c r="B205" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="C205" s="2"/>
       <c r="D205" s="2" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>190</v>
@@ -6913,26 +6843,28 @@
     <row r="206" spans="1:5" ht="17.25" thickBot="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D206" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="E206" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="17.25" thickBot="1">
       <c r="A207" s="2"/>
-      <c r="B207" s="2" t="s">
-        <v>4</v>
+      <c r="B207" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>206</v>
+        <v>113</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>190</v>
@@ -6944,9 +6876,11 @@
         <v>1</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D208" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E208" s="4" t="s">
         <v>190</v>
       </c>
@@ -6954,13 +6888,13 @@
     <row r="209" spans="1:5" ht="17.25" thickBot="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>190</v>
@@ -6968,14 +6902,14 @@
     </row>
     <row r="210" spans="1:5" ht="17.25" thickBot="1">
       <c r="A210" s="2"/>
-      <c r="B210" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>205</v>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>190</v>
@@ -6983,13 +6917,15 @@
     </row>
     <row r="211" spans="1:5" ht="17.25" thickBot="1">
       <c r="A211" s="2"/>
-      <c r="B211" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C211" s="2" t="s">
+      <c r="B211" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D211" s="7">
         <v>2</v>
       </c>
-      <c r="D211" s="2"/>
       <c r="E211" s="4" t="s">
         <v>190</v>
       </c>
@@ -6997,13 +6933,13 @@
     <row r="212" spans="1:5" ht="17.25" thickBot="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>190</v>
@@ -7015,10 +6951,10 @@
         <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>190</v>
@@ -7027,28 +6963,28 @@
     <row r="214" spans="1:5" ht="17.25" thickBot="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D214" s="2"/>
       <c r="E214" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A215" s="2"/>
+      <c r="A215" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="B215" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>190</v>
@@ -7057,12 +6993,14 @@
     <row r="216" spans="1:5" ht="17.25" thickBot="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D216" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="E216" s="4" t="s">
         <v>190</v>
       </c>
@@ -7070,14 +7008,12 @@
     <row r="217" spans="1:5" ht="17.25" thickBot="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D217" s="2"/>
       <c r="E217" s="4" t="s">
         <v>190</v>
       </c>
@@ -7085,13 +7021,13 @@
     <row r="218" spans="1:5" ht="17.25" thickBot="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>190</v>
@@ -7100,13 +7036,13 @@
     <row r="219" spans="1:5" ht="17.25" thickBot="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>190</v>
@@ -7118,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="4" t="s">
@@ -7126,17 +7062,15 @@
       </c>
     </row>
     <row r="221" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A221" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>3</v>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>190</v>
@@ -7145,13 +7079,13 @@
     <row r="222" spans="1:5" ht="17.25" thickBot="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>190</v>
@@ -7160,28 +7094,26 @@
     <row r="223" spans="1:5" ht="17.25" thickBot="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>150</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D223" s="2"/>
       <c r="E223" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="17.25" thickBot="1">
       <c r="A224" s="2"/>
-      <c r="B224" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>3</v>
+      <c r="B224" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>190</v>
@@ -7193,25 +7125,23 @@
         <v>1</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D225" s="2"/>
       <c r="E225" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="17.25" thickBot="1">
       <c r="A226" s="2"/>
-      <c r="B226" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>208</v>
+      <c r="B226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>190</v>
@@ -7219,29 +7149,27 @@
     </row>
     <row r="227" spans="1:5" ht="17.25" thickBot="1">
       <c r="A227" s="2"/>
-      <c r="B227" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="B227" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="2"/>
       <c r="E227" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="17.25" thickBot="1">
       <c r="A228" s="2"/>
-      <c r="B228" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>3</v>
+      <c r="B228" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>190</v>
@@ -7250,13 +7178,13 @@
     <row r="229" spans="1:5" ht="17.25" thickBot="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>190</v>
@@ -7264,29 +7192,27 @@
     </row>
     <row r="230" spans="1:5" ht="17.25" thickBot="1">
       <c r="A230" s="2"/>
-      <c r="B230" s="1" t="s">
-        <v>4</v>
+      <c r="B230" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D230" s="2"/>
       <c r="E230" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="17.25" thickBot="1">
       <c r="A231" s="2"/>
-      <c r="B231" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>3</v>
+      <c r="B231" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>190</v>
@@ -7301,7 +7227,7 @@
         <v>19</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>190</v>
@@ -7309,14 +7235,14 @@
     </row>
     <row r="233" spans="1:5" ht="17.25" thickBot="1">
       <c r="A233" s="2"/>
-      <c r="B233" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>211</v>
+      <c r="B233" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>190</v>
@@ -7324,14 +7250,14 @@
     </row>
     <row r="234" spans="1:5" ht="17.25" thickBot="1">
       <c r="A234" s="2"/>
-      <c r="B234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>66</v>
+      <c r="B234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>190</v>
@@ -7339,29 +7265,27 @@
     </row>
     <row r="235" spans="1:5" ht="17.25" thickBot="1">
       <c r="A235" s="2"/>
-      <c r="B235" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="B235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="2"/>
       <c r="E235" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="17.25" thickBot="1">
       <c r="A236" s="2"/>
-      <c r="B236" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>3</v>
+      <c r="B236" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>190</v>
@@ -7373,10 +7297,10 @@
         <v>1</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>190</v>
@@ -7384,14 +7308,14 @@
     </row>
     <row r="238" spans="1:5" ht="17.25" thickBot="1">
       <c r="A238" s="2"/>
-      <c r="B238" s="1" t="s">
-        <v>4</v>
+      <c r="B238" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>190</v>
@@ -7399,29 +7323,29 @@
     </row>
     <row r="239" spans="1:5" ht="17.25" thickBot="1">
       <c r="A239" s="2"/>
-      <c r="B239" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B239" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="2"/>
       <c r="E239" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>23</v>
+      <c r="A240" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>190</v>
@@ -7429,14 +7353,14 @@
     </row>
     <row r="241" spans="1:5" ht="17.25" thickBot="1">
       <c r="A241" s="2"/>
-      <c r="B241" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>152</v>
+      <c r="B241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>190</v>
@@ -7444,14 +7368,14 @@
     </row>
     <row r="242" spans="1:5" ht="17.25" thickBot="1">
       <c r="A242" s="2"/>
-      <c r="B242" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>153</v>
+      <c r="B242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>190</v>
@@ -7460,13 +7384,13 @@
     <row r="243" spans="1:5" ht="17.25" thickBot="1">
       <c r="A243" s="2"/>
       <c r="B243" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>190</v>
@@ -7474,14 +7398,14 @@
     </row>
     <row r="244" spans="1:5" ht="17.25" thickBot="1">
       <c r="A244" s="2"/>
-      <c r="B244" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>214</v>
+      <c r="B244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>190</v>
@@ -7496,7 +7420,7 @@
         <v>21</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>190</v>
@@ -7511,7 +7435,7 @@
         <v>21</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>190</v>
@@ -7549,29 +7473,29 @@
     </row>
     <row r="249" spans="1:5" ht="17.25" thickBot="1">
       <c r="A249" s="2"/>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A250" s="3"/>
-      <c r="B250" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>100</v>
+      <c r="A250" s="2"/>
+      <c r="B250" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>190</v>
@@ -7583,10 +7507,10 @@
         <v>1</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>190</v>
@@ -7594,43 +7518,44 @@
     </row>
     <row r="252" spans="1:5" ht="17.25" thickBot="1">
       <c r="A252" s="2"/>
-      <c r="B252" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>23</v>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A253" s="2"/>
       <c r="B253" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D253" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E253" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A254" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="A254" s="2"/>
       <c r="B254" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>190</v>
@@ -7638,14 +7563,14 @@
     </row>
     <row r="255" spans="1:5" ht="17.25" thickBot="1">
       <c r="A255" s="2"/>
-      <c r="B255" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>23</v>
+      <c r="B255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>190</v>
@@ -7653,14 +7578,14 @@
     </row>
     <row r="256" spans="1:5" ht="17.25" thickBot="1">
       <c r="A256" s="2"/>
-      <c r="B256" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>156</v>
+      <c r="B256" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>190</v>
@@ -7669,13 +7594,13 @@
     <row r="257" spans="1:5" ht="17.25" thickBot="1">
       <c r="A257" s="2"/>
       <c r="B257" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>190</v>
@@ -7683,14 +7608,14 @@
     </row>
     <row r="258" spans="1:5" ht="17.25" thickBot="1">
       <c r="A258" s="2"/>
-      <c r="B258" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>23</v>
+      <c r="B258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>190</v>
@@ -7699,13 +7624,13 @@
     <row r="259" spans="1:5" ht="17.25" thickBot="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>190</v>
@@ -7713,14 +7638,14 @@
     </row>
     <row r="260" spans="1:5" ht="17.25" thickBot="1">
       <c r="A260" s="2"/>
-      <c r="B260" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>237</v>
+      <c r="B260" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>190</v>
@@ -7728,14 +7653,14 @@
     </row>
     <row r="261" spans="1:5" ht="17.25" thickBot="1">
       <c r="A261" s="2"/>
-      <c r="B261" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>157</v>
+      <c r="B261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>190</v>
@@ -7744,13 +7669,13 @@
     <row r="262" spans="1:5" ht="17.25" thickBot="1">
       <c r="A262" s="2"/>
       <c r="B262" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>190</v>
@@ -7758,14 +7683,14 @@
     </row>
     <row r="263" spans="1:5" ht="17.25" thickBot="1">
       <c r="A263" s="2"/>
-      <c r="B263" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>23</v>
+      <c r="B263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>190</v>
@@ -7780,7 +7705,7 @@
         <v>21</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>190</v>
@@ -7795,7 +7720,7 @@
         <v>21</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>190</v>
@@ -7840,22 +7765,22 @@
         <v>20</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>3</v>
+      <c r="A269" s="3"/>
+      <c r="B269" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>190</v>
@@ -7867,10 +7792,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>190</v>
@@ -7878,44 +7803,43 @@
     </row>
     <row r="271" spans="1:5" ht="17.25" thickBot="1">
       <c r="A271" s="2"/>
-      <c r="B271" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>220</v>
+      <c r="B271" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A272" s="2"/>
       <c r="B272" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D272" s="5"/>
       <c r="E272" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A273" s="2"/>
+      <c r="A273" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="B273" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>190</v>
@@ -7923,14 +7847,14 @@
     </row>
     <row r="274" spans="1:5" ht="17.25" thickBot="1">
       <c r="A274" s="2"/>
-      <c r="B274" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>159</v>
+      <c r="B274" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E274" s="4" t="s">
         <v>190</v>
@@ -7939,13 +7863,13 @@
     <row r="275" spans="1:5" ht="17.25" thickBot="1">
       <c r="A275" s="2"/>
       <c r="B275" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>190</v>
@@ -7953,14 +7877,14 @@
     </row>
     <row r="276" spans="1:5" ht="17.25" thickBot="1">
       <c r="A276" s="2"/>
-      <c r="B276" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>23</v>
+      <c r="B276" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E276" s="4" t="s">
         <v>190</v>
@@ -7969,28 +7893,28 @@
     <row r="277" spans="1:5" ht="17.25" thickBot="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C277" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D277" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>3</v>
+      <c r="D278" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>190</v>
@@ -7999,13 +7923,13 @@
     <row r="279" spans="1:5" ht="17.25" thickBot="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="E279" s="4" t="s">
         <v>190</v>
@@ -8013,14 +7937,14 @@
     </row>
     <row r="280" spans="1:5" ht="17.25" thickBot="1">
       <c r="A280" s="2"/>
-      <c r="B280" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>160</v>
+      <c r="B280" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E280" s="4" t="s">
         <v>190</v>
@@ -8029,13 +7953,13 @@
     <row r="281" spans="1:5" ht="17.25" thickBot="1">
       <c r="A281" s="2"/>
       <c r="B281" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>190</v>
@@ -8043,14 +7967,14 @@
     </row>
     <row r="282" spans="1:5" ht="17.25" thickBot="1">
       <c r="A282" s="2"/>
-      <c r="B282" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>162</v>
+      <c r="B282" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>190</v>
@@ -8059,13 +7983,13 @@
     <row r="283" spans="1:5" ht="17.25" thickBot="1">
       <c r="A283" s="2"/>
       <c r="B283" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>190</v>
@@ -8073,14 +7997,14 @@
     </row>
     <row r="284" spans="1:5" ht="17.25" thickBot="1">
       <c r="A284" s="2"/>
-      <c r="B284" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>23</v>
+      <c r="B284" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>190</v>
@@ -8089,13 +8013,13 @@
     <row r="285" spans="1:5" ht="17.25" thickBot="1">
       <c r="A285" s="2"/>
       <c r="B285" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>190</v>
@@ -8103,13 +8027,13 @@
     </row>
     <row r="286" spans="1:5" ht="17.25" thickBot="1">
       <c r="A286" s="2"/>
-      <c r="B286" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D286" s="1" t="s">
+      <c r="B286" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E286" s="4" t="s">
@@ -8118,29 +8042,29 @@
     </row>
     <row r="287" spans="1:5" ht="17.25" thickBot="1">
       <c r="A287" s="2"/>
-      <c r="B287" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C287" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>200</v>
+      <c r="B287" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A288" s="2"/>
+      <c r="A288" s="1"/>
       <c r="B288" s="1" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>190</v>
@@ -8148,14 +8072,14 @@
     </row>
     <row r="289" spans="1:5" ht="17.25" thickBot="1">
       <c r="A289" s="2"/>
-      <c r="B289" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>225</v>
+      <c r="B289" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>190</v>
@@ -8163,14 +8087,14 @@
     </row>
     <row r="290" spans="1:5" ht="17.25" thickBot="1">
       <c r="A290" s="2"/>
-      <c r="B290" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>105</v>
+      <c r="B290" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>190</v>
@@ -8179,13 +8103,13 @@
     <row r="291" spans="1:5" ht="17.25" thickBot="1">
       <c r="A291" s="2"/>
       <c r="B291" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>190</v>
@@ -8193,14 +8117,14 @@
     </row>
     <row r="292" spans="1:5" ht="17.25" thickBot="1">
       <c r="A292" s="2"/>
-      <c r="B292" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>228</v>
+      <c r="B292" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>190</v>
@@ -8208,14 +8132,14 @@
     </row>
     <row r="293" spans="1:5" ht="17.25" thickBot="1">
       <c r="A293" s="2"/>
-      <c r="B293" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>105</v>
+      <c r="B293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>190</v>
@@ -8224,13 +8148,13 @@
     <row r="294" spans="1:5" ht="17.25" thickBot="1">
       <c r="A294" s="2"/>
       <c r="B294" s="1" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>190</v>
@@ -8238,14 +8162,14 @@
     </row>
     <row r="295" spans="1:5" ht="17.25" thickBot="1">
       <c r="A295" s="2"/>
-      <c r="B295" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>106</v>
+      <c r="B295" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>190</v>
@@ -8253,29 +8177,29 @@
     </row>
     <row r="296" spans="1:5" ht="17.25" thickBot="1">
       <c r="A296" s="2"/>
-      <c r="B296" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>106</v>
+      <c r="B296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A297" s="2"/>
+      <c r="A297" s="1"/>
       <c r="B297" s="1" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>170</v>
+        <v>22</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>190</v>
@@ -8287,10 +8211,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>190</v>
@@ -8299,13 +8223,13 @@
     <row r="299" spans="1:5" ht="17.25" thickBot="1">
       <c r="A299" s="2"/>
       <c r="B299" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>190</v>
@@ -8313,14 +8237,14 @@
     </row>
     <row r="300" spans="1:5" ht="17.25" thickBot="1">
       <c r="A300" s="2"/>
-      <c r="B300" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>171</v>
+      <c r="B300" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>190</v>
@@ -8328,14 +8252,14 @@
     </row>
     <row r="301" spans="1:5" ht="17.25" thickBot="1">
       <c r="A301" s="2"/>
-      <c r="B301" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>229</v>
+      <c r="B301" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>190</v>
@@ -8343,14 +8267,14 @@
     </row>
     <row r="302" spans="1:5" ht="17.25" thickBot="1">
       <c r="A302" s="2"/>
-      <c r="B302" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>105</v>
+      <c r="B302" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>190</v>
@@ -8358,13 +8282,13 @@
     </row>
     <row r="303" spans="1:5" ht="17.25" thickBot="1">
       <c r="A303" s="2"/>
-      <c r="B303" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D303" s="1" t="s">
+      <c r="B303" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E303" s="4" t="s">
@@ -8374,13 +8298,13 @@
     <row r="304" spans="1:5" ht="17.25" thickBot="1">
       <c r="A304" s="2"/>
       <c r="B304" s="1" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>230</v>
+        <v>114</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>190</v>
@@ -8389,13 +8313,13 @@
     <row r="305" spans="1:5" ht="17.25" thickBot="1">
       <c r="A305" s="2"/>
       <c r="B305" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>190</v>
@@ -8403,14 +8327,14 @@
     </row>
     <row r="306" spans="1:5" ht="17.25" thickBot="1">
       <c r="A306" s="2"/>
-      <c r="B306" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>231</v>
+      <c r="B306" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>190</v>
@@ -8424,8 +8348,8 @@
       <c r="C307" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D307" s="2" t="s">
-        <v>173</v>
+      <c r="D307" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>190</v>
@@ -8433,14 +8357,14 @@
     </row>
     <row r="308" spans="1:5" ht="17.25" thickBot="1">
       <c r="A308" s="2"/>
-      <c r="B308" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>105</v>
+      <c r="B308" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>190</v>
@@ -8448,14 +8372,14 @@
     </row>
     <row r="309" spans="1:5" ht="17.25" thickBot="1">
       <c r="A309" s="2"/>
-      <c r="B309" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>23</v>
+      <c r="B309" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>190</v>
@@ -8463,14 +8387,14 @@
     </row>
     <row r="310" spans="1:5" ht="17.25" thickBot="1">
       <c r="A310" s="2"/>
-      <c r="B310" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>232</v>
+      <c r="B310" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>190</v>
@@ -8479,13 +8403,13 @@
     <row r="311" spans="1:5" ht="17.25" thickBot="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>190</v>
@@ -8493,14 +8417,14 @@
     </row>
     <row r="312" spans="1:5" ht="17.25" thickBot="1">
       <c r="A312" s="2"/>
-      <c r="B312" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>23</v>
+      <c r="B312" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E312" s="4" t="s">
         <v>190</v>
@@ -8509,13 +8433,13 @@
     <row r="313" spans="1:5" ht="17.25" thickBot="1">
       <c r="A313" s="2"/>
       <c r="B313" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>233</v>
+        <v>164</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E313" s="4" t="s">
         <v>190</v>
@@ -8530,7 +8454,7 @@
         <v>106</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="E314" s="4" t="s">
         <v>190</v>
@@ -8542,10 +8466,10 @@
         <v>166</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="E315" s="4" t="s">
         <v>190</v>
@@ -8557,10 +8481,10 @@
         <v>166</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>176</v>
+        <v>106</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E316" s="4" t="s">
         <v>190</v>
@@ -8568,14 +8492,14 @@
     </row>
     <row r="317" spans="1:5" ht="17.25" thickBot="1">
       <c r="A317" s="2"/>
-      <c r="B317" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>235</v>
+      <c r="B317" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>190</v>
@@ -8583,14 +8507,14 @@
     </row>
     <row r="318" spans="1:5" ht="17.25" thickBot="1">
       <c r="A318" s="2"/>
-      <c r="B318" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>3</v>
+      <c r="B318" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E318" s="4" t="s">
         <v>190</v>
@@ -8599,13 +8523,13 @@
     <row r="319" spans="1:5" ht="17.25" thickBot="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="E319" s="4" t="s">
         <v>190</v>
@@ -8613,12 +8537,14 @@
     </row>
     <row r="320" spans="1:5" ht="17.25" thickBot="1">
       <c r="A320" s="2"/>
-      <c r="B320" s="1" t="s">
+      <c r="B320" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C320" s="6"/>
-      <c r="D320" s="6" t="s">
-        <v>271</v>
+      <c r="C320" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="E320" s="4" t="s">
         <v>190</v>
@@ -8626,29 +8552,29 @@
     </row>
     <row r="321" spans="1:5" ht="17.25" thickBot="1">
       <c r="A321" s="2"/>
-      <c r="B321" s="1" t="s">
+      <c r="B321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A322" s="2"/>
+      <c r="B322" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D321" s="1"/>
-      <c r="E321" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A322" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C322" s="1" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E322" s="4" t="s">
         <v>190</v>
@@ -8656,14 +8582,14 @@
     </row>
     <row r="323" spans="1:5" ht="17.25" thickBot="1">
       <c r="A323" s="2"/>
-      <c r="B323" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>19</v>
+      <c r="B323" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="E323" s="4" t="s">
         <v>190</v>
@@ -8672,13 +8598,13 @@
     <row r="324" spans="1:5" ht="17.25" thickBot="1">
       <c r="A324" s="2"/>
       <c r="B324" s="1" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>193</v>
+        <v>106</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="E324" s="4" t="s">
         <v>190</v>
@@ -8687,13 +8613,13 @@
     <row r="325" spans="1:5" ht="17.25" thickBot="1">
       <c r="A325" s="2"/>
       <c r="B325" s="1" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="E325" s="4" t="s">
         <v>190</v>
@@ -8701,14 +8627,14 @@
     </row>
     <row r="326" spans="1:5" ht="17.25" thickBot="1">
       <c r="A326" s="2"/>
-      <c r="B326" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>2</v>
+      <c r="B326" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="E326" s="4" t="s">
         <v>190</v>
@@ -8717,13 +8643,13 @@
     <row r="327" spans="1:5" ht="17.25" thickBot="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="E327" s="4" t="s">
         <v>190</v>
@@ -8731,14 +8657,14 @@
     </row>
     <row r="328" spans="1:5" ht="17.25" thickBot="1">
       <c r="A328" s="2"/>
-      <c r="B328" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>237</v>
+      <c r="B328" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E328" s="4" t="s">
         <v>190</v>
@@ -8747,13 +8673,13 @@
     <row r="329" spans="1:5" ht="17.25" thickBot="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="E329" s="4" t="s">
         <v>190</v>
@@ -8761,14 +8687,14 @@
     </row>
     <row r="330" spans="1:5" ht="17.25" thickBot="1">
       <c r="A330" s="2"/>
-      <c r="B330" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>3</v>
+      <c r="B330" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E330" s="4" t="s">
         <v>190</v>
@@ -8776,13 +8702,13 @@
     </row>
     <row r="331" spans="1:5" ht="17.25" thickBot="1">
       <c r="A331" s="2"/>
-      <c r="B331" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D331" s="2" t="s">
+      <c r="B331" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E331" s="4" t="s">
@@ -8792,13 +8718,13 @@
     <row r="332" spans="1:5" ht="17.25" thickBot="1">
       <c r="A332" s="2"/>
       <c r="B332" s="1" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E332" s="4" t="s">
         <v>190</v>
@@ -8807,13 +8733,13 @@
     <row r="333" spans="1:5" ht="17.25" thickBot="1">
       <c r="A333" s="2"/>
       <c r="B333" s="1" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>239</v>
+        <v>106</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E333" s="4" t="s">
         <v>190</v>
@@ -8822,13 +8748,13 @@
     <row r="334" spans="1:5" ht="17.25" thickBot="1">
       <c r="A334" s="2"/>
       <c r="B334" s="1" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E334" s="4" t="s">
         <v>190</v>
@@ -8837,13 +8763,13 @@
     <row r="335" spans="1:5" ht="17.25" thickBot="1">
       <c r="A335" s="2"/>
       <c r="B335" s="1" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E335" s="4" t="s">
         <v>190</v>
@@ -8852,13 +8778,13 @@
     <row r="336" spans="1:5" ht="17.25" thickBot="1">
       <c r="A336" s="2"/>
       <c r="B336" s="1" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E336" s="4" t="s">
         <v>190</v>
@@ -8866,12 +8792,14 @@
     </row>
     <row r="337" spans="1:5" ht="17.25" thickBot="1">
       <c r="A337" s="2"/>
-      <c r="B337" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C337" s="1"/>
-      <c r="D337" s="1" t="s">
-        <v>196</v>
+      <c r="B337" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E337" s="4" t="s">
         <v>190</v>
@@ -8879,14 +8807,14 @@
     </row>
     <row r="338" spans="1:5" ht="17.25" thickBot="1">
       <c r="A338" s="2"/>
-      <c r="B338" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>3</v>
+      <c r="B338" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E338" s="4" t="s">
         <v>190</v>
@@ -8894,14 +8822,12 @@
     </row>
     <row r="339" spans="1:5" ht="17.25" thickBot="1">
       <c r="A339" s="2"/>
-      <c r="B339" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>23</v>
+      <c r="B339" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C339" s="6"/>
+      <c r="D339" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="E339" s="4" t="s">
         <v>190</v>
@@ -8909,11 +8835,11 @@
     </row>
     <row r="340" spans="1:5" ht="17.25" thickBot="1">
       <c r="A340" s="2"/>
-      <c r="B340" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>273</v>
+      <c r="B340" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="4" t="s">
@@ -8922,16 +8848,16 @@
     </row>
     <row r="341" spans="1:5" ht="17.25" thickBot="1">
       <c r="A341" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>262</v>
+        <v>236</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E341" s="4" t="s">
         <v>190</v>
@@ -8940,13 +8866,13 @@
     <row r="342" spans="1:5" ht="17.25" thickBot="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="E342" s="4" t="s">
         <v>190</v>
@@ -8955,13 +8881,13 @@
     <row r="343" spans="1:5" ht="17.25" thickBot="1">
       <c r="A343" s="2"/>
       <c r="B343" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="E343" s="4" t="s">
         <v>190</v>
@@ -8969,14 +8895,14 @@
     </row>
     <row r="344" spans="1:5" ht="17.25" thickBot="1">
       <c r="A344" s="2"/>
-      <c r="B344" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>23</v>
+      <c r="B344" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>190</v>
@@ -8985,13 +8911,13 @@
     <row r="345" spans="1:5" ht="17.25" thickBot="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="E345" s="4" t="s">
         <v>190</v>
@@ -8999,14 +8925,14 @@
     </row>
     <row r="346" spans="1:5" ht="17.25" thickBot="1">
       <c r="A346" s="2"/>
-      <c r="B346" s="1" t="s">
-        <v>1</v>
+      <c r="B346" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="E346" s="4" t="s">
         <v>190</v>
@@ -9015,13 +8941,13 @@
     <row r="347" spans="1:5" ht="17.25" thickBot="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="E347" s="4" t="s">
         <v>190</v>
@@ -9029,14 +8955,14 @@
     </row>
     <row r="348" spans="1:5" ht="17.25" thickBot="1">
       <c r="A348" s="2"/>
-      <c r="B348" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>241</v>
+      <c r="B348" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E348" s="4" t="s">
         <v>190</v>
@@ -9047,8 +8973,8 @@
       <c r="B349" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>19</v>
+      <c r="C349" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>3</v>
@@ -9063,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>23</v>
@@ -9074,14 +9000,14 @@
     </row>
     <row r="351" spans="1:5" ht="17.25" thickBot="1">
       <c r="A351" s="2"/>
-      <c r="B351" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>106</v>
+      <c r="B351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="E351" s="4" t="s">
         <v>190</v>
@@ -9089,14 +9015,14 @@
     </row>
     <row r="352" spans="1:5" ht="17.25" thickBot="1">
       <c r="A352" s="2"/>
-      <c r="B352" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>140</v>
+      <c r="B352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="E352" s="4" t="s">
         <v>190</v>
@@ -9104,14 +9030,14 @@
     </row>
     <row r="353" spans="1:5" ht="17.25" thickBot="1">
       <c r="A353" s="2"/>
-      <c r="B353" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>246</v>
+      <c r="B353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="E353" s="4" t="s">
         <v>190</v>
@@ -9119,14 +9045,14 @@
     </row>
     <row r="354" spans="1:5" ht="17.25" thickBot="1">
       <c r="A354" s="2"/>
-      <c r="B354" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>247</v>
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="E354" s="4" t="s">
         <v>190</v>
@@ -9134,14 +9060,14 @@
     </row>
     <row r="355" spans="1:5" ht="17.25" thickBot="1">
       <c r="A355" s="2"/>
-      <c r="B355" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>199</v>
+      <c r="B355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="E355" s="4" t="s">
         <v>190</v>
@@ -9149,12 +9075,12 @@
     </row>
     <row r="356" spans="1:5" ht="17.25" thickBot="1">
       <c r="A356" s="2"/>
-      <c r="B356" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2" t="s">
-        <v>141</v>
+      <c r="B356" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="E356" s="4" t="s">
         <v>190</v>
@@ -9165,8 +9091,8 @@
       <c r="B357" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C357" s="2" t="s">
-        <v>113</v>
+      <c r="C357" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>3</v>
@@ -9180,8 +9106,8 @@
       <c r="B358" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C358" s="2" t="s">
-        <v>112</v>
+      <c r="C358" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>23</v>
@@ -9193,28 +9119,28 @@
     <row r="359" spans="1:5" ht="17.25" thickBot="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D359" s="1"/>
       <c r="E359" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A360" s="2"/>
-      <c r="B360" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>143</v>
+      <c r="A360" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="E360" s="4" t="s">
         <v>190</v>
@@ -9223,13 +9149,13 @@
     <row r="361" spans="1:5" ht="17.25" thickBot="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="E361" s="4" t="s">
         <v>190</v>
@@ -9237,14 +9163,14 @@
     </row>
     <row r="362" spans="1:5" ht="17.25" thickBot="1">
       <c r="A362" s="2"/>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E362" s="4" t="s">
         <v>190</v>
@@ -9252,14 +9178,14 @@
     </row>
     <row r="363" spans="1:5" ht="17.25" thickBot="1">
       <c r="A363" s="2"/>
-      <c r="B363" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D363" s="7">
-        <v>3</v>
+      <c r="B363" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E363" s="4" t="s">
         <v>190</v>
@@ -9268,21 +9194,304 @@
     <row r="364" spans="1:5" ht="17.25" thickBot="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D364" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="E364" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="17.25" thickBot="1">
       <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
+      <c r="B365" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A367" s="2"/>
+      <c r="B367" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A368" s="2"/>
+      <c r="B368" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E368" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A369" s="2"/>
+      <c r="B369" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E369" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E370" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A371" s="2"/>
+      <c r="B371" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E371" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E372" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A373" s="2"/>
+      <c r="B373" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E373" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E374" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A375" s="2"/>
+      <c r="B375" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E375" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A376" s="2"/>
+      <c r="B376" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A379" s="2"/>
+      <c r="B379" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E380" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E381" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A382" s="2"/>
+      <c r="B382" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D382" s="7">
+        <v>3</v>
+      </c>
+      <c r="E382" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A383" s="2"/>
+      <c r="B383" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D383" s="2"/>
+      <c r="E383" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A384" s="2"/>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -17,7 +17,7 @@
     <sheet name="20191019 버전" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3862,8 +3862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/20190907 Story.xlsx
+++ b/20190907 Story.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7641" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7679" uniqueCount="659">
   <si>
     <t>Story01Start</t>
   </si>
@@ -2048,10 +2048,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>…결국 이렇게 되는 군요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>왜 당신은…. 죽으려고 하는 거죠.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2076,10 +2072,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>내가 바라던대로 모든 게 불타고 있었어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>병원을 관리하던 '그들'도….</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2104,10 +2096,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>대화를 하고 싶을 뿐이라고.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>…우리 대화를 해요.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2120,18 +2108,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>저는 그런 이야기를 하러 온 게 아니예요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>그곳에 네 동생이 있었던 모양이네.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>당신이 그런건가요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>그건 사고였어.;미안해.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2143,24 +2123,9 @@
     <t>포$ 폭발이….</t>
   </si>
   <si>
-    <t>통신기는 꺼두었을텐데….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…다시 만나러 가봐야 겠어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>큭.</t>
   </si>
   <si>
-    <t>당신이 그런건가요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 그렇게 죽고 싶어하는 거죠?</t>
-  </si>
-  <si>
     <t>이제 와서 죄책감이라도 든 건가요?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2181,10 +2146,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>나 다시 만나러 가봐야 겠어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>너도 아니마에게 선택받은 '특별한 아이'라는….</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2256,291 +2217,377 @@
     <t>어머$ 손님이 왔네.;안녕.</t>
   </si>
   <si>
+    <t>그래. 맞아.;덕분에 난 불을 다룰 수 있지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마의 영역에 들어왔다는 건….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 아니마에게 선택받은 '특별한 아이'라는 말이겠지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니?;아쉽네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마 전….;제 동생이 있던 병원에서 폭발 사고가 있었어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…리안 병원의 폭발 사고 말이구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 말은….;당신이 그런 게 맞다는 거군요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사를 죽인 게….;당신인가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 특별한 능력을 내게 보여주지 않으련?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난….;기다리고 있었거든.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스에서는 병원에 가스 폭발 사고가 났다고 했어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만….;전 봤어요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원 부지 전체를 뒤덮은….;당신의 아니마를요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대답해요.;왜 그런 짓을 한 거죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 거짓을 태워버렸을 뿐이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미나!)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신기만이 아니야.;장소도 어느샌가 아니마의 영역 밖이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 여기로 되돌아온 거지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저를 아니마의 영역 바깥으로 밀어낸 게 당신인가요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 무슨 말이니?;나는 잘 모르겠는데.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신도….;저도….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윽….;머리가….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발…?;상처….?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안하지만 무슨 이야기인지 모르겠네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…그래요.;그 이야기는 넘어가죠.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신.;왜 리안 병원에 폭발 사고를 일으켰죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아….;너는 내 죄를 물으러 온 거구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기다리고 있었어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부디 네 특별한 능력을 내게 보여주지 않으련?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>말해요.;병원에서 무슨 일이 있었던 건지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 왜 그런 일을 일으킨 건지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄책감….;그래. 맞아.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리안 병원에서….;난 진실을 봤어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그곳에서 만들어지는 것들을 보고 말았어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 봤다는 거죠?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 부모라는 말을 알고 있니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 특별한 아이니까.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 '특별하니까'.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사람.;괜한 수수께끼만 내고….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(부모? 들어본 적 없는 말인데.) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(알겠지만 아니마가 발생했으니 임무는 종료야.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이 뒤는 전문가들에게 맡겨.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리타. 갑작스럽지만 질문이 있는데.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 부모라는 말 들어본 적 있어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아. 리타….;응. 나 여기 있어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어서 기지로 돌아와.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음$ 그래. 좋아.;이러는 건 어때?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 가진 특별한 능력을 내게 보여주지 않으련?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 날 죽여준다면….;그 질문에 대답해줄게.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 말은….;대답해줄 마음이 없다는 건가요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는….;궁금한 적이 없니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마를 다룰 수 있는 '특별한 아이들'이 대체 무엇인지….;궁금한 적이 없니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 어디서 왔는지요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 태어나지 않는단다.;우리는 그들의 손에서 만들어지지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 '특별하니까'….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래.;우습지 않니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안. 리타.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…이제 끝까지 가보는 수밖에 없어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 말을 먼저 해둘게요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정해요.;저는 당신과 대화가 하고 싶을 뿐이에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…갑작스럽네.;보기보다 성격이 급한 아이구나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화라…. 그래. 좋아.;이러는 건 어때?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 날 죽여준다면….;얼마든지 대화해줄게.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show portrait_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아….;겨우 레이나가 죽지 않는 미래에 도착했네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 오래 걸렸잖아.;미나.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(멀리서 누군가 미나와 레이나의 모습을 지켜보는 소녀가 있다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소마랑도 만나야 하고….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미사와도 다시 재회해야 하고…. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아. 물론….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나랑도….;만나야 하는데 말이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 아직 날 모르겠지만.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 또 친구가 될 수 있으면 좋겠네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 그런 이야기를 하러 온 게 아니에요.</t>
+  </si>
+  <si>
+    <t>당신이 그런 건가요?</t>
+  </si>
+  <si>
+    <t>누군가가 나를….;죽여주기를 말이야.</t>
+  </si>
+  <si>
+    <t>너.;제법 대단한…. 능력을 갖췄네.</t>
+  </si>
+  <si>
+    <t>그날….;나는 깨달아 버렸거든.</t>
+  </si>
+  <si>
+    <t>통신기는 꺼두었을 텐데….</t>
+  </si>
+  <si>
     <t>당신이….;이 불꽃의 아니마의 주인인가요?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>그래. 맞아.;덕분에 난 불을 다룰 수 있지.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니마의 영역에 들어왔다는 건….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너도 아니마에게 선택받은 '특별한 아이'라는 말이겠지?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러니?;아쉽네.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼마 전….;제 동생이 있던 병원에서 폭발 사고가 있었어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…리안 병원의 폭발 사고 말이구나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 말은….;당신이 그런 게 맞다는 거군요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사를 죽인 게….;당신인가요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 특별한 능력을 내게 보여주지 않으련?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>난….;기다리고 있었거든.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>누군가 나를….;죽여주기를 말이야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너.;제법 대단한…. 능력을 가졌네.</t>
-  </si>
-  <si>
-    <t>뉴스에서는 병원에 가스 폭발 사고가 났다고 했어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만….;전 봤어요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원 부지 전체를 뒤덮은….;당신의 아니마를요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대답해요.;왜 그런 짓을 한 거죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 날….;나는 깨달아 버렸거든.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>난 거짓을 태워버렸을 뿐이야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅡ!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(미나!)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신기만이 아니야.;장소도 어느샌가 아니마의 영역 밖이야.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떻게 여기로 되돌아온 거지?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저를 아니마의 영역 바깥으로 밀어낸 게 당신인가요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그게 무슨 말이니?;나는 잘 모르겠는데.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러고보니….;그 폭발을 겪고도 상처 하나 없군요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신도….;저도….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>윽….;머리가….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발…?;상처….?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안하지만 무슨 이야기인지 모르겠네.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…그래요.;그 이야기는 넘어가죠.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신.;왜 리안 병원에 폭발 사고를 일으켰죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아….;너는 내 죄를 물으러 온 거구나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기다리고 있었어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부디 네 특별한 능력을 내게 보여주지 않으련?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>말해요.;병원에서 무슨 일이 있었던 건지.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 왜 그런 일을 일으킨 건지.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>죄책감….;그래. 맞아.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>리안 병원에서….;난 진실을 봤어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그곳에서 만들어지는 것들을 보고 말았어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭘 봤다는 거죠?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너는 부모라는 말을 알고 있니?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너는 특별한 아이니까.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리는 '특별하니까'.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 사람.;괜한 수수께끼만 내고….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(부모? 들어본 적 없는 말인데.) </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(알겠지만 아니마가 발생했으니 임무는 종료야.)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이 뒤는 전문가들에게 맡겨.)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>리타. 갑작스럽지만 질문이 있는데.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 부모라는 말 들어본 적 있어?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아. 리타….;응. 나 여기 있어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(어서 기지로 돌아와.)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>음$ 그래. 좋아.;이러는 건 어때?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네가 가진 특별한 능력을 내게 보여주지 않으련?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네가 날 죽여준다면….;그 질문에 대답해줄게.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 말은….;대답해줄 마음이 없다는 건가요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>너는….;궁금한 적이 없니?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니마를 다룰 수 있는 '특별한 아이들'이 대체 무엇인지….;궁금한 적이 없니?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리가 어디서 왔는지요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리는 태어나지 않는단다.;우리는 그들의 손에서 만들어지지.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리는 '특별하니까'….</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래.;우습지 않니?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안. 리타.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…이제 끝까지 가보는 수밖에 없어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 말을 먼저 해둘게요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>진정해요.;저는 당신과 대화가 하고 싶을 뿐이에요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…갑작스럽네.;보기보다 성격이 급한 아이구나.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화라…. 그래. 좋아.;이러는 건 어때?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네가 날 죽여준다면….;얼마든지 대화해줄게.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>그러고 보니….;그 폭발을 겪고도 상처 하나 없군요.</t>
+  </si>
+  <si>
+    <t>왜 그렇게 죽고 싶어 하는 거죠?</t>
+  </si>
+  <si>
+    <t>또 야….;또 폭발과 함께 되돌아왔어.</t>
+  </si>
+  <si>
+    <t>…또 야.</t>
+  </si>
+  <si>
+    <t>…다시 만나러 가봐야겠어.</t>
+  </si>
+  <si>
+    <t>나 다시 만나러 가봐야겠어.</t>
+  </si>
+  <si>
+    <t>…결국 이렇게 되는군요.</t>
+  </si>
+  <si>
+    <t>내가 바라던 대로 모든 게 불타고 있었어.</t>
+  </si>
+  <si>
+    <t>…누르지 말아요.</t>
+  </si>
+  <si>
+    <t>…다시 한번 말할게요.;누르지 말아요.</t>
+  </si>
+  <si>
+    <t>대화하고 싶을 뿐이라고.</t>
+  </si>
+  <si>
+    <t>대체 널 위해 몇 번이나 시간을 되돌려줘야 하는 거야.</t>
+  </si>
+  <si>
+    <t>우리가 해야 할 일이 얼마나 많은 줄 알아?</t>
   </si>
 </sst>
 </file>
@@ -23402,10 +23449,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E590"/>
+  <dimension ref="A1:E599"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23442,7 +23489,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>190</v>
@@ -23502,7 +23549,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>190</v>
@@ -23517,7 +23564,7 @@
         <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>190</v>
@@ -23547,7 +23594,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>190</v>
@@ -23577,7 +23624,7 @@
         <v>123</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>190</v>
@@ -23607,7 +23654,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>190</v>
@@ -23622,7 +23669,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>190</v>
@@ -23652,7 +23699,7 @@
         <v>123</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>190</v>
@@ -23667,7 +23714,7 @@
         <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>190</v>
@@ -23757,7 +23804,7 @@
         <v>123</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>190</v>
@@ -23787,7 +23834,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>190</v>
@@ -23817,7 +23864,7 @@
         <v>123</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>190</v>
@@ -23922,7 +23969,7 @@
         <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>190</v>
@@ -23937,7 +23984,7 @@
         <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>190</v>
@@ -23952,7 +23999,7 @@
         <v>114</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>190</v>
@@ -24025,7 +24072,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>190</v>
@@ -24070,7 +24117,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>190</v>
@@ -24115,7 +24162,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>190</v>
@@ -24130,7 +24177,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>190</v>
@@ -24145,7 +24192,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>190</v>
@@ -24190,7 +24237,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>536</v>
+        <v>639</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>190</v>
@@ -24235,7 +24282,7 @@
         <v>21</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>190</v>
@@ -24280,7 +24327,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>190</v>
@@ -24295,7 +24342,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>538</v>
+        <v>640</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>190</v>
@@ -24340,7 +24387,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>190</v>
@@ -24355,7 +24402,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>190</v>
@@ -24400,7 +24447,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>190</v>
@@ -24490,7 +24537,7 @@
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>190</v>
@@ -24505,7 +24552,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>190</v>
@@ -24651,7 +24698,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>190</v>
@@ -24665,7 +24712,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>190</v>
@@ -24679,7 +24726,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>190</v>
@@ -24768,7 +24815,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>190</v>
@@ -24783,7 +24830,7 @@
         <v>21</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>190</v>
@@ -24828,7 +24875,7 @@
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>190</v>
@@ -24873,7 +24920,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>190</v>
@@ -24918,7 +24965,7 @@
         <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>190</v>
@@ -24933,7 +24980,7 @@
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>190</v>
@@ -24948,7 +24995,7 @@
         <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>190</v>
@@ -25038,7 +25085,7 @@
         <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>190</v>
@@ -25083,7 +25130,7 @@
         <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>589</v>
+        <v>643</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>190</v>
@@ -25203,7 +25250,7 @@
         <v>21</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>190</v>
@@ -25308,7 +25355,7 @@
         <v>21</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>190</v>
@@ -25323,7 +25370,7 @@
         <v>21</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>190</v>
@@ -25368,7 +25415,7 @@
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>190</v>
@@ -25413,7 +25460,7 @@
         <v>21</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>190</v>
@@ -25458,7 +25505,7 @@
         <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>190</v>
@@ -25473,7 +25520,7 @@
         <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>190</v>
@@ -25488,7 +25535,7 @@
         <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>190</v>
@@ -25578,7 +25625,7 @@
         <v>20</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>190</v>
@@ -25623,7 +25670,7 @@
         <v>21</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>589</v>
+        <v>643</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>190</v>
@@ -25743,7 +25790,7 @@
         <v>21</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>190</v>
@@ -25922,7 +25969,7 @@
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>190</v>
@@ -25967,7 +26014,7 @@
         <v>123</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>190</v>
@@ -25982,7 +26029,7 @@
         <v>123</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>190</v>
@@ -26027,7 +26074,7 @@
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>542</v>
+        <v>644</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>190</v>
@@ -26102,7 +26149,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>190</v>
@@ -26117,7 +26164,7 @@
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>190</v>
@@ -26162,7 +26209,7 @@
         <v>123</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>190</v>
@@ -26207,7 +26254,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>190</v>
@@ -26234,10 +26281,10 @@
         <v>4</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>190</v>
@@ -26327,7 +26374,7 @@
         <v>21</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>190</v>
@@ -26372,7 +26419,7 @@
         <v>20</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>545</v>
+        <v>640</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>190</v>
@@ -26387,7 +26434,7 @@
         <v>20</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>190</v>
@@ -26432,7 +26479,7 @@
         <v>21</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>190</v>
@@ -26462,7 +26509,7 @@
         <v>2</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>190</v>
@@ -26477,7 +26524,7 @@
         <v>20</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>190</v>
@@ -26492,7 +26539,7 @@
         <v>20</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>190</v>
@@ -26522,7 +26569,7 @@
         <v>20</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>190</v>
@@ -26567,7 +26614,7 @@
         <v>21</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>190</v>
@@ -26582,7 +26629,7 @@
         <v>21</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>190</v>
@@ -26612,7 +26659,7 @@
         <v>2</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>190</v>
@@ -26627,7 +26674,7 @@
         <v>20</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>190</v>
@@ -26642,7 +26689,7 @@
         <v>20</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>190</v>
@@ -26687,7 +26734,7 @@
         <v>21</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>190</v>
@@ -26702,7 +26749,7 @@
         <v>21</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>190</v>
@@ -26747,7 +26794,7 @@
         <v>20</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>190</v>
@@ -26791,7 +26838,7 @@
         <v>21</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>190</v>
@@ -26805,7 +26852,7 @@
         <v>21</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>190</v>
@@ -26819,7 +26866,7 @@
         <v>21</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>190</v>
@@ -26909,7 +26956,7 @@
         <v>21</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>190</v>
@@ -26924,7 +26971,7 @@
         <v>21</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>190</v>
@@ -26969,7 +27016,7 @@
         <v>20</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>190</v>
@@ -26984,7 +27031,7 @@
         <v>20</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>190</v>
@@ -27074,7 +27121,7 @@
         <v>20</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>546</v>
+        <v>647</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>190</v>
@@ -27089,7 +27136,7 @@
         <v>20</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>190</v>
@@ -27134,7 +27181,7 @@
         <v>21</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>190</v>
@@ -27149,7 +27196,7 @@
         <v>21</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>190</v>
@@ -27164,7 +27211,7 @@
         <v>21</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>190</v>
@@ -27209,7 +27256,7 @@
         <v>20</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>190</v>
@@ -27254,7 +27301,7 @@
         <v>21</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>190</v>
@@ -27269,7 +27316,7 @@
         <v>21</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>190</v>
@@ -27299,7 +27346,7 @@
         <v>21</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>190</v>
@@ -27314,7 +27361,7 @@
         <v>21</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>190</v>
@@ -27419,7 +27466,7 @@
         <v>21</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>190</v>
@@ -27434,7 +27481,7 @@
         <v>21</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>190</v>
@@ -27479,7 +27526,7 @@
         <v>20</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>190</v>
@@ -27494,7 +27541,7 @@
         <v>20</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>190</v>
@@ -27584,7 +27631,7 @@
         <v>20</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>546</v>
+        <v>647</v>
       </c>
       <c r="E279" s="4" t="s">
         <v>190</v>
@@ -27599,7 +27646,7 @@
         <v>20</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="E280" s="4" t="s">
         <v>190</v>
@@ -27644,7 +27691,7 @@
         <v>21</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>190</v>
@@ -27659,7 +27706,7 @@
         <v>21</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>190</v>
@@ -27674,7 +27721,7 @@
         <v>21</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>190</v>
@@ -27719,7 +27766,7 @@
         <v>20</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>190</v>
@@ -27764,7 +27811,7 @@
         <v>21</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>190</v>
@@ -27779,7 +27826,7 @@
         <v>21</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>190</v>
@@ -27809,7 +27856,7 @@
         <v>21</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>190</v>
@@ -27824,7 +27871,7 @@
         <v>21</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>190</v>
@@ -27959,7 +28006,7 @@
         <v>5</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>485</v>
+        <v>648</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>190</v>
@@ -28034,7 +28081,7 @@
         <v>123</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>190</v>
@@ -28049,7 +28096,7 @@
         <v>123</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>190</v>
@@ -28079,7 +28126,7 @@
         <v>5</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="E312" s="4" t="s">
         <v>190</v>
@@ -28109,7 +28156,7 @@
         <v>123</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="E314" s="4" t="s">
         <v>190</v>
@@ -28124,7 +28171,7 @@
         <v>123</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="E315" s="4" t="s">
         <v>190</v>
@@ -28154,7 +28201,7 @@
         <v>5</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>190</v>
@@ -28169,7 +28216,7 @@
         <v>5</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="E318" s="4" t="s">
         <v>190</v>
@@ -28199,7 +28246,7 @@
         <v>123</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="E320" s="4" t="s">
         <v>190</v>
@@ -28214,7 +28261,7 @@
         <v>123</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="E321" s="4" t="s">
         <v>190</v>
@@ -28229,7 +28276,7 @@
         <v>123</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="E322" s="4" t="s">
         <v>190</v>
@@ -28274,7 +28321,7 @@
         <v>5</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>552</v>
+        <v>651</v>
       </c>
       <c r="E325" s="4" t="s">
         <v>190</v>
@@ -28304,7 +28351,7 @@
         <v>123</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="E327" s="4" t="s">
         <v>190</v>
@@ -28349,7 +28396,7 @@
         <v>5</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E330" s="4" t="s">
         <v>190</v>
@@ -28364,7 +28411,7 @@
         <v>5</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="E331" s="4" t="s">
         <v>190</v>
@@ -28454,7 +28501,7 @@
         <v>21</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E337" s="4" t="s">
         <v>190</v>
@@ -28559,7 +28606,7 @@
         <v>21</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>190</v>
@@ -28664,7 +28711,7 @@
         <v>21</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="E351" s="4" t="s">
         <v>190</v>
@@ -28679,7 +28726,7 @@
         <v>21</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="E352" s="4" t="s">
         <v>190</v>
@@ -28694,7 +28741,7 @@
         <v>21</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="E353" s="4" t="s">
         <v>190</v>
@@ -28709,7 +28756,7 @@
         <v>21</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="E354" s="4" t="s">
         <v>190</v>
@@ -28754,7 +28801,7 @@
         <v>20</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="E357" s="4" t="s">
         <v>190</v>
@@ -28844,7 +28891,7 @@
         <v>21</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E363" s="4" t="s">
         <v>190</v>
@@ -28859,7 +28906,7 @@
         <v>21</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="E364" s="4" t="s">
         <v>190</v>
@@ -28964,7 +29011,7 @@
         <v>504</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="E371" s="4" t="s">
         <v>190</v>
@@ -29009,7 +29056,7 @@
         <v>504</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="E374" s="4" t="s">
         <v>190</v>
@@ -29054,7 +29101,7 @@
         <v>20</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="E377" s="4" t="s">
         <v>190</v>
@@ -29144,7 +29191,7 @@
         <v>21</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="E383" s="4" t="s">
         <v>190</v>
@@ -29159,7 +29206,7 @@
         <v>21</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="E384" s="4" t="s">
         <v>190</v>
@@ -29249,7 +29296,7 @@
         <v>21</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="E390" s="4" t="s">
         <v>190</v>
@@ -29369,7 +29416,7 @@
         <v>21</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E398" s="4" t="s">
         <v>190</v>
@@ -29384,7 +29431,7 @@
         <v>21</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="E399" s="4" t="s">
         <v>190</v>
@@ -29489,7 +29536,7 @@
         <v>21</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="E406" s="4" t="s">
         <v>190</v>
@@ -29534,7 +29581,7 @@
         <v>21</v>
       </c>
       <c r="D409" s="11" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="E409" s="4" t="s">
         <v>190</v>
@@ -29579,7 +29626,7 @@
         <v>20</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="E412" s="4" t="s">
         <v>190</v>
@@ -29669,7 +29716,7 @@
         <v>21</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="E418" s="4" t="s">
         <v>190</v>
@@ -29684,7 +29731,7 @@
         <v>21</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="E419" s="4" t="s">
         <v>190</v>
@@ -29774,7 +29821,7 @@
         <v>21</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="E425" s="4" t="s">
         <v>190</v>
@@ -29924,7 +29971,7 @@
         <v>5</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>364</v>
+        <v>649</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>190</v>
@@ -29954,7 +30001,7 @@
         <v>123</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="E437" s="4" t="s">
         <v>190</v>
@@ -29999,7 +30046,7 @@
         <v>5</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="E440" s="4" t="s">
         <v>190</v>
@@ -30014,7 +30061,7 @@
         <v>5</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="E441" s="4" t="s">
         <v>190</v>
@@ -30104,7 +30151,7 @@
         <v>21</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>190</v>
@@ -30149,7 +30196,7 @@
         <v>20</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="E450" s="4" t="s">
         <v>190</v>
@@ -30164,7 +30211,7 @@
         <v>20</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="E451" s="4" t="s">
         <v>190</v>
@@ -30224,7 +30271,7 @@
         <v>21</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="E455" s="4" t="s">
         <v>190</v>
@@ -30239,7 +30286,7 @@
         <v>21</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="E456" s="4" t="s">
         <v>190</v>
@@ -30254,7 +30301,7 @@
         <v>21</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>190</v>
@@ -30269,7 +30316,7 @@
         <v>21</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="E458" s="4" t="s">
         <v>190</v>
@@ -30314,7 +30361,7 @@
         <v>20</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>518</v>
+        <v>652</v>
       </c>
       <c r="E461" s="4" t="s">
         <v>190</v>
@@ -30374,7 +30421,7 @@
         <v>21</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>190</v>
@@ -30389,7 +30436,7 @@
         <v>21</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="E466" s="4" t="s">
         <v>190</v>
@@ -30434,7 +30481,7 @@
         <v>20</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E469" s="4" t="s">
         <v>190</v>
@@ -30479,7 +30526,7 @@
         <v>21</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E472" s="4" t="s">
         <v>190</v>
@@ -30494,7 +30541,7 @@
         <v>21</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E473" s="4" t="s">
         <v>190</v>
@@ -30539,7 +30586,7 @@
         <v>21</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E476" s="4" t="s">
         <v>190</v>
@@ -30629,7 +30676,7 @@
         <v>20</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E482" s="4" t="s">
         <v>190</v>
@@ -30674,7 +30721,7 @@
         <v>21</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E485" s="4" t="s">
         <v>190</v>
@@ -30749,7 +30796,7 @@
         <v>21</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>525</v>
+        <v>653</v>
       </c>
       <c r="E490" s="4" t="s">
         <v>190</v>
@@ -30764,7 +30811,7 @@
         <v>21</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E491" s="4" t="s">
         <v>190</v>
@@ -30779,7 +30826,7 @@
         <v>21</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E492" s="4" t="s">
         <v>190</v>
@@ -30794,7 +30841,7 @@
         <v>21</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E493" s="4" t="s">
         <v>190</v>
@@ -30809,7 +30856,7 @@
         <v>21</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E494" s="4" t="s">
         <v>190</v>
@@ -30882,7 +30929,7 @@
         <v>20</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E499" s="4" t="s">
         <v>190</v>
@@ -31032,7 +31079,7 @@
         <v>21</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E509" s="4" t="s">
         <v>190</v>
@@ -31047,7 +31094,7 @@
         <v>21</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="E510" s="4" t="s">
         <v>190</v>
@@ -31092,7 +31139,7 @@
         <v>20</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E513" s="4" t="s">
         <v>190</v>
@@ -31137,7 +31184,7 @@
         <v>21</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E516" s="4" t="s">
         <v>190</v>
@@ -31152,7 +31199,7 @@
         <v>21</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E517" s="4" t="s">
         <v>190</v>
@@ -31197,7 +31244,7 @@
         <v>21</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E520" s="4" t="s">
         <v>190</v>
@@ -31287,7 +31334,7 @@
         <v>20</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E526" s="4" t="s">
         <v>190</v>
@@ -31332,7 +31379,7 @@
         <v>21</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E529" s="4" t="s">
         <v>190</v>
@@ -31407,7 +31454,7 @@
         <v>21</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>525</v>
+        <v>653</v>
       </c>
       <c r="E534" s="4" t="s">
         <v>190</v>
@@ -31422,7 +31469,7 @@
         <v>21</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E535" s="4" t="s">
         <v>190</v>
@@ -31437,7 +31484,7 @@
         <v>21</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E536" s="4" t="s">
         <v>190</v>
@@ -31452,7 +31499,7 @@
         <v>21</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E537" s="4" t="s">
         <v>190</v>
@@ -31467,7 +31514,7 @@
         <v>21</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E538" s="4" t="s">
         <v>190</v>
@@ -31540,7 +31587,7 @@
         <v>20</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>348</v>
+        <v>654</v>
       </c>
       <c r="E543" s="4" t="s">
         <v>190</v>
@@ -31630,7 +31677,7 @@
         <v>20</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>351</v>
+        <v>655</v>
       </c>
       <c r="E549" s="4" t="s">
         <v>190</v>
@@ -31660,7 +31707,7 @@
         <v>20</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E551" s="4" t="s">
         <v>190</v>
@@ -31795,7 +31842,7 @@
         <v>20</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>532</v>
+        <v>656</v>
       </c>
       <c r="E560" s="4" t="s">
         <v>190</v>
@@ -31810,7 +31857,7 @@
         <v>20</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E561" s="4" t="s">
         <v>190</v>
@@ -31885,7 +31932,7 @@
         <v>21</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E566" s="4" t="s">
         <v>190</v>
@@ -31900,7 +31947,7 @@
         <v>21</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E567" s="4" t="s">
         <v>190</v>
@@ -32029,11 +32076,13 @@
         <v>396</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C576" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>628</v>
+      </c>
       <c r="D576" s="1" t="s">
-        <v>398</v>
+        <v>3</v>
       </c>
       <c r="E576" s="4" t="s">
         <v>190</v>
@@ -32046,7 +32095,7 @@
       </c>
       <c r="C577" s="1"/>
       <c r="D577" s="1" t="s">
-        <v>399</v>
+        <v>632</v>
       </c>
       <c r="E577" s="4" t="s">
         <v>190</v>
@@ -32057,9 +32106,11 @@
       <c r="B578" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C578" s="1"/>
+      <c r="C578" s="1" t="s">
+        <v>629</v>
+      </c>
       <c r="D578" s="1" t="s">
-        <v>400</v>
+        <v>630</v>
       </c>
       <c r="E578" s="4" t="s">
         <v>190</v>
@@ -32068,13 +32119,13 @@
     <row r="579" spans="1:5" ht="17.25" thickBot="1">
       <c r="A579" s="2"/>
       <c r="B579" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D579" s="1">
-        <v>999</v>
+        <v>629</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="E579" s="4" t="s">
         <v>190</v>
@@ -32083,84 +32134,219 @@
     <row r="580" spans="1:5" ht="17.25" thickBot="1">
       <c r="A580" s="2"/>
       <c r="B580" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D580" s="1"/>
+        <v>629</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>657</v>
+      </c>
       <c r="E580" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="17.25" thickBot="1">
       <c r="A581" s="2"/>
-      <c r="B581" s="1"/>
-      <c r="C581" s="1"/>
-      <c r="D581" s="1"/>
-      <c r="E581" s="4"/>
+      <c r="B581" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E581" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="582" spans="1:5" ht="17.25" thickBot="1">
       <c r="A582" s="2"/>
-      <c r="B582" s="1"/>
-      <c r="C582" s="1"/>
-      <c r="D582" s="1"/>
-      <c r="E582" s="4"/>
+      <c r="B582" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E582" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="583" spans="1:5" ht="17.25" thickBot="1">
       <c r="A583" s="2"/>
-      <c r="B583" s="1"/>
-      <c r="C583" s="1"/>
-      <c r="D583" s="1"/>
-      <c r="E583" s="4"/>
+      <c r="B583" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E583" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="584" spans="1:5" ht="17.25" thickBot="1">
       <c r="A584" s="2"/>
-      <c r="B584" s="1"/>
-      <c r="C584" s="1"/>
-      <c r="D584" s="1"/>
-      <c r="E584" s="4"/>
+      <c r="B584" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E584" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="585" spans="1:5" ht="17.25" thickBot="1">
       <c r="A585" s="2"/>
-      <c r="B585" s="1"/>
-      <c r="C585" s="1"/>
-      <c r="D585" s="1"/>
-      <c r="E585" s="4"/>
+      <c r="B585" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E585" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="586" spans="1:5" ht="17.25" thickBot="1">
       <c r="A586" s="2"/>
-      <c r="B586" s="1"/>
-      <c r="C586" s="1"/>
-      <c r="D586" s="1"/>
-      <c r="E586" s="4"/>
+      <c r="B586" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E586" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="587" spans="1:5" ht="17.25" thickBot="1">
       <c r="A587" s="2"/>
-      <c r="B587" s="1"/>
-      <c r="C587" s="1"/>
-      <c r="D587" s="1"/>
-      <c r="E587" s="4"/>
+      <c r="B587" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E587" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="588" spans="1:5" ht="17.25" thickBot="1">
       <c r="A588" s="2"/>
-      <c r="B588" s="1"/>
-      <c r="C588" s="1"/>
-      <c r="D588" s="1"/>
-      <c r="E588" s="4"/>
+      <c r="B588" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D588" s="1">
+        <v>999</v>
+      </c>
+      <c r="E588" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="589" spans="1:5" ht="17.25" thickBot="1">
       <c r="A589" s="2"/>
-      <c r="B589" s="1"/>
-      <c r="C589" s="1"/>
+      <c r="B589" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D589" s="1"/>
-      <c r="E589" s="4"/>
+      <c r="E589" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="590" spans="1:5" ht="17.25" thickBot="1">
       <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
-      <c r="C590" s="2"/>
-      <c r="D590" s="2"/>
+      <c r="B590" s="1"/>
+      <c r="C590" s="1"/>
+      <c r="D590" s="1"/>
+      <c r="E590" s="4"/>
+    </row>
+    <row r="591" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A591" s="2"/>
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
+      <c r="D591" s="1"/>
+      <c r="E591" s="4"/>
+    </row>
+    <row r="592" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A592" s="2"/>
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
+      <c r="D592" s="1"/>
+      <c r="E592" s="4"/>
+    </row>
+    <row r="593" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A593" s="2"/>
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
+      <c r="D593" s="1"/>
+      <c r="E593" s="4"/>
+    </row>
+    <row r="594" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A594" s="2"/>
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
+      <c r="D594" s="1"/>
+      <c r="E594" s="4"/>
+    </row>
+    <row r="595" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A595" s="2"/>
+      <c r="B595" s="1"/>
+      <c r="C595" s="1"/>
+      <c r="D595" s="1"/>
+      <c r="E595" s="4"/>
+    </row>
+    <row r="596" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A596" s="2"/>
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
+      <c r="D596" s="1"/>
+      <c r="E596" s="4"/>
+    </row>
+    <row r="597" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A597" s="2"/>
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
+      <c r="D597" s="1"/>
+      <c r="E597" s="4"/>
+    </row>
+    <row r="598" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A598" s="2"/>
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
+      <c r="D598" s="1"/>
+      <c r="E598" s="4"/>
+    </row>
+    <row r="599" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A599" s="2"/>
+      <c r="B599" s="2"/>
+      <c r="C599" s="2"/>
+      <c r="D599" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
